--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="928" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="809" uniqueCount="227">
   <si>
     <t>sampleid</t>
   </si>
@@ -631,75 +631,6 @@
   </si>
   <si>
     <t>lab_substituted_cathinones_any</t>
-  </si>
-  <si>
-    <t>program_county</t>
-  </si>
-  <si>
-    <t>lat_program</t>
-  </si>
-  <si>
-    <t>lon_program</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>35.7974807</t>
-  </si>
-  <si>
-    <t>35.6967238</t>
-  </si>
-  <si>
-    <t>35.8263793</t>
-  </si>
-  <si>
-    <t>35.9198223</t>
-  </si>
-  <si>
-    <t>34.7865497</t>
-  </si>
-  <si>
-    <t>35.6009498</t>
-  </si>
-  <si>
-    <t>35.777612</t>
-  </si>
-  <si>
-    <t>35.924738</t>
-  </si>
-  <si>
-    <t>35.8482034</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>-82.6839313</t>
-  </si>
-  <si>
-    <t>-82.5603625</t>
-  </si>
-  <si>
-    <t>-82.5486848</t>
-  </si>
-  <si>
-    <t>-83.0257054</t>
-  </si>
-  <si>
-    <t>-76.8591057</t>
-  </si>
-  <si>
-    <t>-82.5540161</t>
-  </si>
-  <si>
-    <t>-82.4548511</t>
-  </si>
-  <si>
-    <t>-81.1716315</t>
-  </si>
-  <si>
-    <t>-82.6931063</t>
   </si>
   <si>
     <t>state_county</t>
@@ -810,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN39"/>
+  <dimension ref="A1:CI39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1070,28 +1001,13 @@
         <v>206</v>
       </c>
       <c r="CG1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="CH1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI1" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>219</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
@@ -1315,31 +1231,16 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG2" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH2" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>216</v>
       </c>
       <c r="CI2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -1563,31 +1464,16 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG3" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH3" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>217</v>
       </c>
       <c r="CI3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>221</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -1809,31 +1695,16 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>216</v>
       </c>
       <c r="CI4" t="s">
-        <v>212</v>
-      </c>
-      <c r="CJ4" t="s">
         <v>222</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5">
@@ -2057,31 +1928,16 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG5" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>-82.683931299999998</v>
+        <v>209</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>214</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>218</v>
       </c>
       <c r="CI5" t="s">
-        <v>213</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>232</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>237</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>241</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
@@ -2307,31 +2163,16 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG6" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH6" s="2">
-        <v>-82.683931299999998</v>
+        <v>209</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>214</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>218</v>
       </c>
       <c r="CI6" t="s">
-        <v>213</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>232</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>237</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>241</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
@@ -2557,31 +2398,16 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>217</v>
       </c>
       <c r="CI7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>221</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
@@ -2803,31 +2629,16 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG8" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH8" s="2">
-        <v>-82.683931299999998</v>
+        <v>209</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>214</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>218</v>
       </c>
       <c r="CI8" t="s">
-        <v>213</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>232</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>237</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>241</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -3053,31 +2864,16 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG9" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH9" s="2">
-        <v>-82.683931299999998</v>
+        <v>210</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>219</v>
       </c>
       <c r="CI9" t="s">
-        <v>214</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>233</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>242</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
@@ -3299,31 +3095,16 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG10" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH10" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>217</v>
       </c>
       <c r="CI10" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
@@ -3545,31 +3326,16 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG11" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH11" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>216</v>
       </c>
       <c r="CI11" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
@@ -3793,31 +3559,16 @@
         <v>0</v>
       </c>
       <c r="CF12" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG12" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH12" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>216</v>
       </c>
       <c r="CI12" t="s">
-        <v>212</v>
-      </c>
-      <c r="CJ12" t="s">
         <v>222</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13">
@@ -4045,31 +3796,16 @@
         <v>0</v>
       </c>
       <c r="CF13" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG13" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH13" s="2">
-        <v>-82.683931299999998</v>
+        <v>210</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>219</v>
       </c>
       <c r="CI13" t="s">
-        <v>214</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>233</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>242</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
@@ -4293,31 +4029,16 @@
         <v>0</v>
       </c>
       <c r="CF14" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG14" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH14" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>217</v>
       </c>
       <c r="CI14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15">
@@ -4539,31 +4260,16 @@
         <v>0</v>
       </c>
       <c r="CF15" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG15" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH15" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>217</v>
       </c>
       <c r="CI15" t="s">
-        <v>216</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>226</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16">
@@ -4789,31 +4495,16 @@
         <v>0</v>
       </c>
       <c r="CF16" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG16" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH16" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>216</v>
       </c>
       <c r="CI16" t="s">
-        <v>212</v>
-      </c>
-      <c r="CJ16" t="s">
         <v>222</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17">
@@ -5039,31 +4730,16 @@
         <v>0</v>
       </c>
       <c r="CF17" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG17" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH17" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>216</v>
       </c>
       <c r="CI17" t="s">
-        <v>212</v>
-      </c>
-      <c r="CJ17" t="s">
         <v>222</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="18">
@@ -5281,31 +4957,16 @@
         <v>0</v>
       </c>
       <c r="CF18" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG18" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH18" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>217</v>
       </c>
       <c r="CI18" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ18" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK18" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL18" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19">
@@ -5529,31 +5190,16 @@
         <v>0</v>
       </c>
       <c r="CF19" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG19" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH19" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>217</v>
       </c>
       <c r="CI19" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK19" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN19" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
@@ -5775,31 +5421,16 @@
         <v>0</v>
       </c>
       <c r="CF20" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG20" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH20" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>217</v>
       </c>
       <c r="CI20" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ20" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK20" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
@@ -6021,31 +5652,16 @@
         <v>0</v>
       </c>
       <c r="CF21" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG21" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH21" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>216</v>
       </c>
       <c r="CI21" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
@@ -6267,31 +5883,16 @@
         <v>0</v>
       </c>
       <c r="CF22" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG22" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH22" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>217</v>
       </c>
       <c r="CI22" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ22" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK22" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL22" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM22" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN22" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -6515,31 +6116,16 @@
         <v>0</v>
       </c>
       <c r="CF23" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG23" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH23" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>217</v>
       </c>
       <c r="CI23" t="s">
-        <v>216</v>
-      </c>
-      <c r="CJ23" t="s">
-        <v>226</v>
-      </c>
-      <c r="CK23" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL23" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM23" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN23" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
@@ -6763,31 +6349,16 @@
         <v>0</v>
       </c>
       <c r="CF24" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG24" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH24" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>217</v>
       </c>
       <c r="CI24" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ24" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK24" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -7011,31 +6582,16 @@
         <v>0</v>
       </c>
       <c r="CF25" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG25" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH25" s="2">
-        <v>-82.683931299999998</v>
+        <v>211</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>220</v>
       </c>
       <c r="CI25" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ25" t="s">
-        <v>227</v>
-      </c>
-      <c r="CK25" t="s">
-        <v>234</v>
-      </c>
-      <c r="CL25" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM25" t="s">
-        <v>243</v>
-      </c>
-      <c r="CN25" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -7257,31 +6813,16 @@
         <v>0</v>
       </c>
       <c r="CF26" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG26" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH26" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>216</v>
       </c>
       <c r="CI26" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ26" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK26" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL26" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN26" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -7503,31 +7044,16 @@
         <v>0</v>
       </c>
       <c r="CF27" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG27" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH27" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>217</v>
       </c>
       <c r="CI27" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ27" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK27" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL27" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM27" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN27" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
@@ -7755,31 +7281,16 @@
         <v>0</v>
       </c>
       <c r="CF28" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG28" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH28" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>217</v>
       </c>
       <c r="CI28" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ28" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK28" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL28" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM28" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN28" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
@@ -8001,31 +7512,16 @@
         <v>0</v>
       </c>
       <c r="CF29" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG29" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH29" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>217</v>
       </c>
       <c r="CI29" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ29" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK29" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL29" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM29" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN29" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
@@ -8249,31 +7745,16 @@
         <v>0</v>
       </c>
       <c r="CF30" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG30" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH30" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>217</v>
       </c>
       <c r="CI30" t="s">
-        <v>216</v>
-      </c>
-      <c r="CJ30" t="s">
-        <v>226</v>
-      </c>
-      <c r="CK30" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL30" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM30" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN30" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
@@ -8495,31 +7976,16 @@
         <v>0</v>
       </c>
       <c r="CF31" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG31" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH31" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>216</v>
       </c>
       <c r="CI31" t="s">
-        <v>218</v>
-      </c>
-      <c r="CJ31" t="s">
-        <v>228</v>
-      </c>
-      <c r="CK31" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL31" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM31" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN31" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
@@ -8743,31 +8209,16 @@
         <v>0</v>
       </c>
       <c r="CF32" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG32" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH32" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>217</v>
       </c>
       <c r="CI32" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33">
@@ -8991,31 +8442,16 @@
         <v>0</v>
       </c>
       <c r="CF33" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG33" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH33" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>217</v>
       </c>
       <c r="CI33" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ33" t="s">
-        <v>221</v>
-      </c>
-      <c r="CK33" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL33" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN33" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
@@ -9237,31 +8673,16 @@
         <v>0</v>
       </c>
       <c r="CF34" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG34" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH34" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>217</v>
       </c>
       <c r="CI34" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK34" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
@@ -9487,31 +8908,16 @@
         <v>0</v>
       </c>
       <c r="CF35" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG35" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH35" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH35" t="s">
+        <v>217</v>
       </c>
       <c r="CI35" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ35" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK35" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL35" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM35" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN35" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36">
@@ -9735,31 +9141,16 @@
         <v>0</v>
       </c>
       <c r="CF36" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG36" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH36" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>217</v>
       </c>
       <c r="CI36" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ36" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL36" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM36" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37">
@@ -9983,31 +9374,16 @@
         <v>0</v>
       </c>
       <c r="CF37" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG37" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH37" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>217</v>
       </c>
       <c r="CI37" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK37" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL37" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM37" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN37" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38">
@@ -10233,31 +9609,16 @@
         <v>0</v>
       </c>
       <c r="CF38" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG38" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH38" s="2">
-        <v>-82.683931299999998</v>
+        <v>208</v>
+      </c>
+      <c r="CG38" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>217</v>
       </c>
       <c r="CI38" t="s">
-        <v>215</v>
-      </c>
-      <c r="CJ38" t="s">
-        <v>225</v>
-      </c>
-      <c r="CK38" t="s">
-        <v>231</v>
-      </c>
-      <c r="CL38" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM38" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
@@ -10481,31 +9842,16 @@
         <v>0</v>
       </c>
       <c r="CF39" t="s">
-        <v>50</v>
-      </c>
-      <c r="CG39" s="2">
-        <v>35.797480700000001</v>
-      </c>
-      <c r="CH39" s="2">
-        <v>-82.683931299999998</v>
+        <v>207</v>
+      </c>
+      <c r="CG39" t="s">
+        <v>213</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>216</v>
       </c>
       <c r="CI39" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ39" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK39" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL39" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM39" t="s">
-        <v>239</v>
-      </c>
-      <c r="CN39" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -468,7 +468,7 @@
     <t>described as mad sleepy made folks nod hard but not OD</t>
   </si>
   <si>
-    <t>burn @ injection didn't enjoy buzz because it hurt so bad</t>
+    <t>burn at injection didn't enjoy buzz because it hurt so bad</t>
   </si>
   <si>
     <t>soreness, burning</t>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="809" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="847" uniqueCount="233">
   <si>
     <t>sampleid</t>
   </si>
@@ -114,6 +114,9 @@
     <t>300594</t>
   </si>
   <si>
+    <t>300812</t>
+  </si>
+  <si>
     <t>300833</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t>300893</t>
   </si>
   <si>
+    <t>400415</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>Madison</t>
   </si>
   <si>
+    <t>Leicester</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
@@ -309,6 +318,9 @@
     <t>blue</t>
   </si>
   <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -483,10 +495,16 @@
     <t>fell asleep sitting up, slept for days</t>
   </si>
   <si>
+    <t>burns at injection, heavy nod out</t>
+  </si>
+  <si>
     <t>its not really  made me nod at all</t>
   </si>
   <si>
     <t>salty-taste, vein injury</t>
+  </si>
+  <si>
+    <t>no legs</t>
   </si>
   <si>
     <t>overdose</t>
@@ -741,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI39"/>
+  <dimension ref="A1:CI41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,262 +770,262 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="U1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="V1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AA1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AE1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AF1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AG1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AH1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AI1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AJ1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AK1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AL1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AM1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AN1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AO1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AP1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AQ1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AR1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AS1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AT1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AU1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AV1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AW1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AX1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AY1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AZ1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="BA1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="BB1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="BC1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="BD1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="BE1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="BF1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="BG1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BH1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="BI1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="BJ1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="BK1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="BL1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="BM1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="BN1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="BO1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="BP1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="BQ1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="BR1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="BS1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="BT1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="BU1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="BV1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="BW1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="BX1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BY1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BZ1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="CA1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="CB1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="CC1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="CD1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="CE1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="CF1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="CG1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CH1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="CI1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
@@ -1015,28 +1033,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1066,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1083,7 +1101,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
@@ -1100,19 +1118,19 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2">
@@ -1231,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -1248,28 +1266,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1299,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1316,7 +1334,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC3" s="2">
         <v>1</v>
@@ -1333,19 +1351,19 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2">
@@ -1464,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -1481,28 +1499,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1532,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1549,7 +1567,7 @@
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AC4" s="2">
         <v>1</v>
@@ -1564,19 +1582,19 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2">
@@ -1695,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -1712,28 +1730,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1763,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1780,7 +1798,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AC5" s="2">
         <v>-1</v>
@@ -1797,19 +1815,19 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AP5" s="2">
         <v>1</v>
       </c>
       <c r="AQ5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2">
@@ -1928,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CG5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="CH5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="CI5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1945,28 +1963,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1996,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2013,7 +2031,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AC6" s="2">
         <v>-1</v>
@@ -2032,19 +2050,19 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AP6" s="2">
         <v>1</v>
       </c>
       <c r="AQ6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2">
@@ -2163,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CG6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="CH6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="CI6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -2180,28 +2198,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2231,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2250,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AC7" s="2">
         <v>1</v>
@@ -2267,19 +2285,19 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2">
@@ -2398,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
@@ -2415,28 +2433,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2466,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2483,7 +2501,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
@@ -2498,19 +2516,19 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2">
@@ -2629,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CG8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="CH8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="CI8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
@@ -2646,28 +2664,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2697,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -2714,7 +2732,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC9" s="2">
         <v>1</v>
@@ -2733,19 +2751,19 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2">
@@ -2864,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CG9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="CI9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
@@ -2881,28 +2899,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2932,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2951,7 +2969,7 @@
         <v>-1</v>
       </c>
       <c r="AB10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2964,19 +2982,19 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2">
@@ -3095,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
@@ -3112,28 +3130,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -3163,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -3180,7 +3198,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AC11" s="2">
         <v>-1</v>
@@ -3195,19 +3213,19 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2">
@@ -3326,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -3343,28 +3361,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -3394,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -3413,7 +3431,7 @@
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC12" s="2">
         <v>0</v>
@@ -3428,19 +3446,19 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2">
@@ -3559,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="CF12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13">
@@ -3576,28 +3594,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3627,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -3644,7 +3662,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AC13" s="2">
         <v>1</v>
@@ -3665,19 +3683,19 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2">
@@ -3796,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="CF13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CG13" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="CI13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -3813,28 +3831,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3864,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3881,7 +3899,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2">
@@ -3898,19 +3916,19 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AO14" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2">
@@ -4029,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="CF14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG14" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH14" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI14" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
@@ -4046,28 +4064,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -4097,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -4114,7 +4132,7 @@
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
@@ -4129,19 +4147,19 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2">
@@ -4260,16 +4278,16 @@
         <v>0</v>
       </c>
       <c r="CF15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG15" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH15" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI15" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
@@ -4277,28 +4295,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -4328,13 +4346,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -4345,7 +4363,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC16" s="2">
         <v>1</v>
@@ -4364,19 +4382,19 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2">
@@ -4495,16 +4513,16 @@
         <v>0</v>
       </c>
       <c r="CF16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH16" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI16" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17">
@@ -4512,28 +4530,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -4563,13 +4581,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -4580,7 +4598,7 @@
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AC17" s="2">
         <v>1</v>
@@ -4599,19 +4617,19 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AO17" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2">
@@ -4730,16 +4748,16 @@
         <v>0</v>
       </c>
       <c r="CF17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI17" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18">
@@ -4747,28 +4765,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -4798,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4813,7 +4831,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -4826,19 +4844,19 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO18" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2">
@@ -4957,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="CF18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG18" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH18" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19">
@@ -4974,28 +4992,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -5025,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -5042,7 +5060,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AC19" s="2">
         <v>1</v>
@@ -5059,19 +5077,19 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AN19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO19" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP19" s="2">
         <v>0</v>
       </c>
       <c r="AQ19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2">
@@ -5190,16 +5208,16 @@
         <v>0</v>
       </c>
       <c r="CF19" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH19" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI19" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20">
@@ -5207,28 +5225,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -5258,13 +5276,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -5273,7 +5291,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AC20" s="2">
         <v>1</v>
@@ -5290,19 +5308,19 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2">
@@ -5421,16 +5439,16 @@
         <v>0</v>
       </c>
       <c r="CF20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH20" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
@@ -5438,28 +5456,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -5489,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5506,7 +5524,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -5521,19 +5539,19 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AO21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2">
@@ -5652,16 +5670,16 @@
         <v>0</v>
       </c>
       <c r="CF21" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG21" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
@@ -5669,28 +5687,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -5720,13 +5738,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -5737,7 +5755,7 @@
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AC22" s="2">
         <v>-1</v>
@@ -5752,19 +5770,19 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO22" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2">
@@ -5883,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="CF22" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG22" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH22" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI22" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
@@ -5900,28 +5918,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -5951,13 +5969,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -5970,7 +5988,7 @@
       </c>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AC23" s="2">
         <v>1</v>
@@ -5985,19 +6003,19 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2">
@@ -6116,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="CF23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG23" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI23" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -6133,28 +6151,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -6184,13 +6202,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -6201,7 +6219,7 @@
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC24" s="2">
         <v>1</v>
@@ -6218,19 +6236,19 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2">
@@ -6349,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="CF24" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG24" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH24" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI24" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -6366,28 +6384,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -6417,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T25" s="2">
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -6434,7 +6452,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AC25" s="2">
         <v>-1</v>
@@ -6451,19 +6469,19 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AO25" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2">
@@ -6582,16 +6600,16 @@
         <v>0</v>
       </c>
       <c r="CF25" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CG25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH25" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="CI25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
@@ -6599,28 +6617,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -6650,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -6667,7 +6685,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -6680,19 +6698,19 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AP26" s="2">
         <v>1</v>
       </c>
       <c r="AQ26" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -6813,16 +6831,16 @@
         <v>0</v>
       </c>
       <c r="CF26" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG26" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH26" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI26" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
@@ -6830,28 +6848,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -6881,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -6898,7 +6916,7 @@
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
@@ -6913,19 +6931,19 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO27" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2">
@@ -7044,16 +7062,16 @@
         <v>0</v>
       </c>
       <c r="CF27" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG27" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH27" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI27" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
@@ -7061,28 +7079,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -7112,13 +7130,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -7129,7 +7147,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC28" s="2">
         <v>1</v>
@@ -7150,19 +7168,19 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AO28" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2">
@@ -7281,16 +7299,16 @@
         <v>0</v>
       </c>
       <c r="CF28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG28" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH28" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI28" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
@@ -7298,28 +7316,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -7349,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -7366,7 +7384,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2">
@@ -7381,19 +7399,19 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2">
@@ -7512,16 +7530,16 @@
         <v>0</v>
       </c>
       <c r="CF29" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG29" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -7529,28 +7547,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1">
         <v>44881</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -7580,13 +7598,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -7597,7 +7615,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2">
@@ -7614,19 +7632,19 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO30" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2">
@@ -7745,16 +7763,16 @@
         <v>0</v>
       </c>
       <c r="CF30" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG30" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH30" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI30" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
@@ -7762,28 +7780,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F31" s="1">
         <v>44819</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -7813,13 +7831,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -7830,7 +7848,7 @@
       </c>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC31" s="2">
         <v>0</v>
@@ -7845,19 +7863,19 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO31" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2">
@@ -7976,16 +7994,16 @@
         <v>0</v>
       </c>
       <c r="CF31" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="CG31" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH31" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="CI31" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -7993,28 +8011,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1">
         <v>44806</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -8044,13 +8062,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -8061,7 +8079,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2">
@@ -8078,19 +8096,19 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AO32" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2">
@@ -8209,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="CF32" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG32" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH32" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI32" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -8226,28 +8244,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1">
         <v>44799</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -8277,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T33" s="2">
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2">
@@ -8294,7 +8312,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC33" s="2">
         <v>1</v>
@@ -8311,19 +8329,19 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2">
@@ -8442,16 +8460,16 @@
         <v>0</v>
       </c>
       <c r="CF33" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG33" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI33" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
@@ -8459,28 +8477,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1">
-        <v>44930</v>
+        <v>44956</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -8510,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -8527,54 +8545,58 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
+      <c r="AG34" s="2">
+        <v>1</v>
+      </c>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
+      <c r="AJ34" s="2">
+        <v>1</v>
+      </c>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="AO34" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2">
         <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>44957</v>
+        <v>45012</v>
       </c>
       <c r="AU34" s="2">
         <v>1</v>
       </c>
       <c r="AV34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="2"/>
       <c r="AX34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ34" s="2">
         <v>1</v>
@@ -8583,10 +8605,10 @@
         <v>1</v>
       </c>
       <c r="BB34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD34" s="2">
         <v>0</v>
@@ -8673,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="CF34" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
@@ -8690,28 +8712,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1">
-        <v>44905</v>
+        <v>44930</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -8741,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="T35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -8756,60 +8778,56 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AC35" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
-      <c r="AF35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN35" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="AO35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP35" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>0</v>
+      </c>
       <c r="AQ35" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2">
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>44931</v>
+        <v>44957</v>
       </c>
       <c r="AU35" s="2">
         <v>1</v>
       </c>
       <c r="AV35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ35" s="2">
         <v>1</v>
@@ -8827,10 +8845,10 @@
         <v>0</v>
       </c>
       <c r="BE35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG35" s="2">
         <v>0</v>
@@ -8908,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="CF35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG35" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH35" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI35" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36">
@@ -8925,28 +8943,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1">
-        <v>44880</v>
+        <v>44905</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -8976,13 +8994,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -8991,55 +9009,57 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
+      <c r="AA36" s="2">
+        <v>-1</v>
+      </c>
       <c r="AB36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AC36" s="2">
         <v>-1</v>
       </c>
-      <c r="AD36" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
+      <c r="AF36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>1</v>
+      </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="AO36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AP36" s="2"/>
       <c r="AQ36" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2">
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>44893</v>
+        <v>44931</v>
       </c>
       <c r="AU36" s="2">
         <v>1</v>
       </c>
       <c r="AV36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY36" s="2">
         <v>3</v>
@@ -9051,19 +9071,19 @@
         <v>1</v>
       </c>
       <c r="BB36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="2">
         <v>0</v>
       </c>
       <c r="BE36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="2">
         <v>0</v>
@@ -9141,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="CF36" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG36" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH36" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI36" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
@@ -9158,19 +9178,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1">
-        <v>44908</v>
+        <v>44880</v>
       </c>
       <c r="G37" t="s">
         <v>66</v>
@@ -9179,19 +9199,19 @@
         <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -9200,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2">
         <v>0</v>
@@ -9209,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -9224,16 +9244,16 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA37" s="2"/>
       <c r="AB37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AC37" s="2">
         <v>-1</v>
       </c>
-      <c r="AD37" s="2"/>
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -9243,26 +9263,26 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO37" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
       <c r="AQ37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR37" s="2"/>
       <c r="AS37" s="2">
         <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>44930</v>
+        <v>44893</v>
       </c>
       <c r="AU37" s="2">
         <v>1</v>
@@ -9275,19 +9295,19 @@
         <v>4</v>
       </c>
       <c r="AY37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD37" s="2">
         <v>0</v>
@@ -9299,10 +9319,10 @@
         <v>0</v>
       </c>
       <c r="BG37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="2">
         <v>0</v>
@@ -9326,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ37" s="2">
         <v>0</v>
@@ -9341,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="BU37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV37" s="2">
         <v>0</v>
@@ -9356,16 +9376,16 @@
         <v>0</v>
       </c>
       <c r="BZ37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA37" s="2">
         <v>0</v>
       </c>
       <c r="CB37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD37" s="2">
         <v>0</v>
@@ -9374,16 +9394,16 @@
         <v>0</v>
       </c>
       <c r="CF37" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG37" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH37" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI37" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
@@ -9391,28 +9411,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1">
         <v>44908</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -9442,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -9458,39 +9478,37 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AC38" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
-      <c r="AH38" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2">
@@ -9507,10 +9525,10 @@
       </c>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ38" s="2">
         <v>0</v>
@@ -9591,13 +9609,13 @@
         <v>0</v>
       </c>
       <c r="BZ38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA38" s="2">
         <v>0</v>
       </c>
       <c r="CB38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC38" s="2">
         <v>0</v>
@@ -9609,16 +9627,16 @@
         <v>0</v>
       </c>
       <c r="CF38" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="CG38" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="CH38" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="CI38" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39">
@@ -9626,28 +9644,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -9665,10 +9683,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="2">
         <v>0</v>
@@ -9677,13 +9695,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -9692,38 +9710,40 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
+      <c r="AA39" s="2">
+        <v>1</v>
+      </c>
       <c r="AB39" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="AC39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="2">
+        <v>1</v>
+      </c>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="AO39" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AR39" s="2"/>
       <c r="AS39" s="2">
@@ -9736,11 +9756,11 @@
         <v>1</v>
       </c>
       <c r="AV39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY39" s="2">
         <v>1</v>
@@ -9761,16 +9781,16 @@
         <v>0</v>
       </c>
       <c r="BE39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI39" s="2">
         <v>0</v>
@@ -9794,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ39" s="2">
         <v>0</v>
@@ -9842,16 +9862,482 @@
         <v>0</v>
       </c>
       <c r="CF39" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="CG39" t="s">
+        <v>219</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44908</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
+        <v>104</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>44930</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="s">
         <v>213</v>
       </c>
-      <c r="CH39" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI39" t="s">
+      <c r="CG40" t="s">
+        <v>219</v>
+      </c>
+      <c r="CH40" t="s">
         <v>222</v>
+      </c>
+      <c r="CI40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44994</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>101</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>106</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="2"/>
+      <c r="AB41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="2"/>
+      <c r="AM41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>45009</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>213</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>219</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="847" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="866" uniqueCount="236">
   <si>
     <t>sampleid</t>
   </si>
@@ -102,6 +102,9 @@
     <t>300567</t>
   </si>
   <si>
+    <t>300569</t>
+  </si>
+  <si>
     <t>300571</t>
   </si>
   <si>
@@ -312,6 +315,9 @@
     <t>yellow</t>
   </si>
   <si>
+    <t>white; clear</t>
+  </si>
+  <si>
     <t>green</t>
   </si>
   <si>
@@ -490,6 +496,9 @@
   </si>
   <si>
     <t>sleepy dope, benzo dope, too sleepy for long time</t>
+  </si>
+  <si>
+    <t>didn't use, wouldn't melt, just burned</t>
   </si>
   <si>
     <t>fell asleep sitting up, slept for days</t>
@@ -759,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI41"/>
+  <dimension ref="A1:CI42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -770,262 +779,262 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W1" t="s">
-        <v>70</v>
-      </c>
       <c r="X1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AB1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AD1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AH1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AI1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AJ1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AQ1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AR1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AS1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AT1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AU1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AV1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AW1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AX1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AY1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AZ1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BA1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BB1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BC1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BD1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BE1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BF1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BG1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BH1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BI1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BJ1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BK1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BL1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BM1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BN1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BO1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BP1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BQ1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BR1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BS1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BT1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BU1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BV1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BW1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BX1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BY1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BZ1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="CA1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="CB1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CC1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CD1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CE1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CF1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="CG1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CH1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CI1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -1033,28 +1042,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1084,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1101,7 +1110,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
@@ -1118,19 +1127,19 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2">
@@ -1249,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -1266,28 +1275,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1317,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1334,7 +1343,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC3" s="2">
         <v>1</v>
@@ -1351,19 +1360,19 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2">
@@ -1482,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -1499,28 +1508,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1550,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1567,7 +1576,7 @@
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC4" s="2">
         <v>1</v>
@@ -1582,19 +1591,19 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2">
@@ -1713,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -1730,28 +1739,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1781,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1798,7 +1807,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC5" s="2">
         <v>-1</v>
@@ -1815,19 +1824,19 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP5" s="2">
         <v>1</v>
       </c>
       <c r="AQ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2">
@@ -1946,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CG5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CI5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6">
@@ -1963,28 +1972,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -2014,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2031,7 +2040,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC6" s="2">
         <v>-1</v>
@@ -2050,19 +2059,19 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP6" s="2">
         <v>1</v>
       </c>
       <c r="AQ6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2">
@@ -2181,16 +2190,16 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CG6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CI6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -2198,28 +2207,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2249,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2268,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC7" s="2">
         <v>1</v>
@@ -2285,19 +2294,19 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2">
@@ -2416,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
@@ -2433,28 +2442,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2484,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2501,7 +2510,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
@@ -2516,19 +2525,19 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2">
@@ -2647,16 +2656,16 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CG8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CI8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
@@ -2664,28 +2673,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2715,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -2732,7 +2741,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC9" s="2">
         <v>1</v>
@@ -2751,19 +2760,19 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2">
@@ -2882,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
@@ -2899,28 +2908,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2950,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2969,7 +2978,7 @@
         <v>-1</v>
       </c>
       <c r="AB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2982,19 +2991,19 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2">
@@ -3113,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
@@ -3130,28 +3139,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -3181,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -3198,7 +3207,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC11" s="2">
         <v>-1</v>
@@ -3213,19 +3222,19 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2">
@@ -3344,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -3361,28 +3370,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -3412,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -3431,7 +3440,7 @@
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC12" s="2">
         <v>0</v>
@@ -3446,19 +3455,19 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2">
@@ -3577,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="CF12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13">
@@ -3594,28 +3603,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3645,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -3662,7 +3671,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC13" s="2">
         <v>1</v>
@@ -3683,19 +3692,19 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2">
@@ -3814,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="CF13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
@@ -3831,28 +3840,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3882,13 +3891,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3899,7 +3908,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2">
@@ -3916,19 +3925,19 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AO14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2">
@@ -4047,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="CF14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15">
@@ -4064,28 +4073,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -4115,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -4132,7 +4141,7 @@
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
@@ -4147,19 +4156,19 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2">
@@ -4278,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="CF15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16">
@@ -4295,28 +4304,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -4346,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -4363,7 +4372,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC16" s="2">
         <v>1</v>
@@ -4382,19 +4391,19 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2">
@@ -4513,16 +4522,16 @@
         <v>0</v>
       </c>
       <c r="CF16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
@@ -4530,28 +4539,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -4581,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -4598,7 +4607,7 @@
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC17" s="2">
         <v>1</v>
@@ -4617,19 +4626,19 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AO17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2">
@@ -4748,16 +4757,16 @@
         <v>0</v>
       </c>
       <c r="CF17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
@@ -4765,28 +4774,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -4816,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4831,7 +4840,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -4844,19 +4853,19 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2">
@@ -4975,16 +4984,16 @@
         <v>0</v>
       </c>
       <c r="CF18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19">
@@ -4992,28 +5001,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -5043,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -5060,7 +5069,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC19" s="2">
         <v>1</v>
@@ -5077,19 +5086,19 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP19" s="2">
         <v>0</v>
       </c>
       <c r="AQ19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2">
@@ -5208,16 +5217,16 @@
         <v>0</v>
       </c>
       <c r="CF19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
@@ -5225,28 +5234,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -5276,13 +5285,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -5291,7 +5300,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AC20" s="2">
         <v>1</v>
@@ -5308,19 +5317,19 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2">
@@ -5439,16 +5448,16 @@
         <v>0</v>
       </c>
       <c r="CF20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21">
@@ -5456,28 +5465,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -5507,13 +5516,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5524,7 +5533,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -5539,19 +5548,19 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AO21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2">
@@ -5670,16 +5679,16 @@
         <v>0</v>
       </c>
       <c r="CF21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -5687,28 +5696,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -5738,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -5755,7 +5764,7 @@
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC22" s="2">
         <v>-1</v>
@@ -5770,19 +5779,19 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2">
@@ -5901,16 +5910,16 @@
         <v>0</v>
       </c>
       <c r="CF22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
@@ -5918,28 +5927,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -5969,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -5988,7 +5997,7 @@
       </c>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC23" s="2">
         <v>1</v>
@@ -6003,19 +6012,19 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2">
@@ -6134,16 +6143,16 @@
         <v>0</v>
       </c>
       <c r="CF23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -6151,28 +6160,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -6202,13 +6211,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -6219,7 +6228,7 @@
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AC24" s="2">
         <v>1</v>
@@ -6236,19 +6245,19 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2">
@@ -6367,16 +6376,16 @@
         <v>0</v>
       </c>
       <c r="CF24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI24" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -6384,28 +6393,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -6435,13 +6444,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T25" s="2">
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -6452,7 +6461,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC25" s="2">
         <v>-1</v>
@@ -6469,19 +6478,19 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AO25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2">
@@ -6600,16 +6609,16 @@
         <v>0</v>
       </c>
       <c r="CF25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH25" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
@@ -6617,28 +6626,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -6668,13 +6677,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -6685,7 +6694,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -6698,19 +6707,19 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP26" s="2">
         <v>1</v>
       </c>
       <c r="AQ26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -6831,16 +6840,16 @@
         <v>0</v>
       </c>
       <c r="CF26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG26" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CI26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -6848,28 +6857,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -6899,13 +6908,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -6916,7 +6925,7 @@
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
@@ -6931,19 +6940,19 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2">
@@ -7062,16 +7071,16 @@
         <v>0</v>
       </c>
       <c r="CF27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH27" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
@@ -7079,28 +7088,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -7130,13 +7139,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -7147,7 +7156,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AC28" s="2">
         <v>1</v>
@@ -7168,19 +7177,19 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2">
@@ -7299,16 +7308,16 @@
         <v>0</v>
       </c>
       <c r="CF28" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH28" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI28" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -7316,28 +7325,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -7367,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -7384,7 +7393,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2">
@@ -7399,19 +7408,19 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2">
@@ -7530,16 +7539,16 @@
         <v>0</v>
       </c>
       <c r="CF29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH29" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
@@ -7547,19 +7556,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1">
-        <v>44881</v>
+        <v>45051</v>
       </c>
       <c r="G30" t="s">
         <v>69</v>
@@ -7571,22 +7580,22 @@
         <v>74</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -7598,91 +7607,89 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2">
-        <v>1</v>
-      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
+      <c r="AJ30" s="2">
+        <v>1</v>
+      </c>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN30" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="AO30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2">
         <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <v>44900</v>
+        <v>45057</v>
       </c>
       <c r="AU30" s="2">
         <v>1</v>
       </c>
       <c r="AV30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="2">
         <v>0</v>
       </c>
       <c r="BC30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="2">
         <v>1</v>
@@ -7730,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="BU30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV30" s="2">
         <v>0</v>
@@ -7751,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="CB30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30" s="2">
         <v>0</v>
@@ -7763,16 +7770,16 @@
         <v>0</v>
       </c>
       <c r="CF30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="CG30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="CI30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -7780,46 +7787,46 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="1">
-        <v>44819</v>
+        <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -7831,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -7841,79 +7848,81 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
+      <c r="AG31" s="2">
+        <v>1</v>
+      </c>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2">
         <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>44845</v>
+        <v>44900</v>
       </c>
       <c r="AU31" s="2">
         <v>1</v>
       </c>
       <c r="AV31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="2">
         <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="2">
         <v>1</v>
@@ -7961,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="BU31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV31" s="2">
         <v>0</v>
@@ -7982,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="CB31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD31" s="2">
         <v>0</v>
@@ -7994,16 +8003,16 @@
         <v>0</v>
       </c>
       <c r="CF31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CG31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="CI31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
@@ -8011,37 +8020,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1">
-        <v>44806</v>
+        <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -8062,79 +8071,77 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2">
-        <v>1</v>
-      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
         <v>130</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2">
-        <v>1</v>
-      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN32" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="AO32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2">
         <v>0</v>
       </c>
       <c r="AT32" s="1">
-        <v>44853</v>
+        <v>44845</v>
       </c>
       <c r="AU32" s="2">
         <v>1</v>
       </c>
       <c r="AV32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY32" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AZ32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="2">
         <v>0</v>
@@ -8155,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32" s="2">
         <v>0</v>
@@ -8194,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="BU32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV32" s="2">
         <v>0</v>
@@ -8218,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="CC32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD32" s="2">
         <v>0</v>
@@ -8227,16 +8234,16 @@
         <v>0</v>
       </c>
       <c r="CF32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="CG32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="CI32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
@@ -8244,25 +8251,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1">
-        <v>44799</v>
+        <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I33" t="s">
         <v>80</v>
@@ -8274,16 +8281,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -8295,29 +8302,29 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="T33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="V33" s="2"/>
-      <c r="W33" s="2">
-        <v>1</v>
-      </c>
-      <c r="X33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2">
@@ -8329,26 +8336,26 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN33" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="AO33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2">
         <v>0</v>
       </c>
       <c r="AT33" s="1">
-        <v>44845</v>
+        <v>44853</v>
       </c>
       <c r="AU33" s="2">
         <v>1</v>
@@ -8358,16 +8365,16 @@
       </c>
       <c r="AW33" s="2"/>
       <c r="AX33" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY33" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="2">
         <v>0</v>
@@ -8379,16 +8386,16 @@
         <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG33" s="2">
         <v>0</v>
       </c>
       <c r="BH33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" s="2">
         <v>0</v>
@@ -8418,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="BR33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33" s="2">
         <v>0</v>
@@ -8427,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="BU33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV33" s="2">
         <v>0</v>
@@ -8451,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="CC33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD33" s="2">
         <v>0</v>
@@ -8460,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="CF33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG33" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34">
@@ -8477,28 +8484,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F34" s="1">
-        <v>44956</v>
+        <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -8513,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -8528,29 +8535,29 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2">
-        <v>1</v>
-      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2">
-        <v>1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2">
@@ -8558,57 +8565,55 @@
       </c>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN34" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="AO34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2">
         <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>45012</v>
+        <v>44845</v>
       </c>
       <c r="AU34" s="2">
         <v>1</v>
       </c>
       <c r="AV34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="2"/>
       <c r="AX34" s="2">
         <v>3</v>
       </c>
       <c r="AY34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="2">
         <v>0</v>
@@ -8653,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="BR34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34" s="2">
         <v>0</v>
@@ -8662,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="BU34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV34" s="2">
         <v>0</v>
@@ -8686,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="CC34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD34" s="2">
         <v>0</v>
@@ -8695,16 +8700,16 @@
         <v>0</v>
       </c>
       <c r="CF34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35">
@@ -8712,28 +8717,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1">
-        <v>44930</v>
+        <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -8763,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -8780,54 +8785,58 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2">
+        <v>1</v>
+      </c>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
+      <c r="AG35" s="2">
+        <v>1</v>
+      </c>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
+      <c r="AJ35" s="2">
+        <v>1</v>
+      </c>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN35" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="AO35" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2">
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>44957</v>
+        <v>45012</v>
       </c>
       <c r="AU35" s="2">
         <v>1</v>
       </c>
       <c r="AV35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ35" s="2">
         <v>1</v>
@@ -8836,10 +8845,10 @@
         <v>1</v>
       </c>
       <c r="BB35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD35" s="2">
         <v>0</v>
@@ -8926,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="CF35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI35" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -8943,28 +8952,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F36" s="1">
-        <v>44905</v>
+        <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -8994,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="T36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -9009,60 +9018,56 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AC36" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
-      <c r="AF36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN36" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="AO36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP36" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>0</v>
+      </c>
       <c r="AQ36" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2">
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>44931</v>
+        <v>44957</v>
       </c>
       <c r="AU36" s="2">
         <v>1</v>
       </c>
       <c r="AV36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ36" s="2">
         <v>1</v>
@@ -9080,10 +9085,10 @@
         <v>0</v>
       </c>
       <c r="BE36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="2">
         <v>0</v>
@@ -9161,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="CF36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG36" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH36" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37">
@@ -9178,28 +9183,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1">
-        <v>44880</v>
+        <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -9229,13 +9234,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -9244,55 +9249,57 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
+      <c r="AA37" s="2">
+        <v>-1</v>
+      </c>
       <c r="AB37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC37" s="2">
         <v>-1</v>
       </c>
-      <c r="AD37" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
+      <c r="AF37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>1</v>
+      </c>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN37" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="AO37" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AP37" s="2"/>
       <c r="AQ37" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="AR37" s="2"/>
       <c r="AS37" s="2">
         <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>44893</v>
+        <v>44931</v>
       </c>
       <c r="AU37" s="2">
         <v>1</v>
       </c>
       <c r="AV37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY37" s="2">
         <v>3</v>
@@ -9304,19 +9311,19 @@
         <v>1</v>
       </c>
       <c r="BB37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="2">
         <v>0</v>
       </c>
       <c r="BE37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG37" s="2">
         <v>0</v>
@@ -9394,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="CF37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38">
@@ -9411,40 +9418,40 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="1">
-        <v>44908</v>
+        <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -9453,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="2">
         <v>0</v>
@@ -9462,13 +9469,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -9477,16 +9484,16 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC38" s="2">
         <v>-1</v>
       </c>
-      <c r="AD38" s="2"/>
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -9496,26 +9503,26 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO38" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2">
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>44930</v>
+        <v>44893</v>
       </c>
       <c r="AU38" s="2">
         <v>1</v>
@@ -9528,19 +9535,19 @@
         <v>4</v>
       </c>
       <c r="AY38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD38" s="2">
         <v>0</v>
@@ -9552,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="BG38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI38" s="2">
         <v>0</v>
@@ -9579,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ38" s="2">
         <v>0</v>
@@ -9594,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="BU38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV38" s="2">
         <v>0</v>
@@ -9609,16 +9616,16 @@
         <v>0</v>
       </c>
       <c r="BZ38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA38" s="2">
         <v>0</v>
       </c>
       <c r="CB38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD38" s="2">
         <v>0</v>
@@ -9627,16 +9634,16 @@
         <v>0</v>
       </c>
       <c r="CF38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG38" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI38" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39">
@@ -9644,28 +9651,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -9695,13 +9702,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -9711,39 +9718,37 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC39" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR39" s="2"/>
       <c r="AS39" s="2">
@@ -9760,10 +9765,10 @@
       </c>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ39" s="2">
         <v>0</v>
@@ -9844,13 +9849,13 @@
         <v>0</v>
       </c>
       <c r="BZ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA39" s="2">
         <v>0</v>
       </c>
       <c r="CB39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC39" s="2">
         <v>0</v>
@@ -9862,16 +9867,16 @@
         <v>0</v>
       </c>
       <c r="CF39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CG39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CI39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
@@ -9879,28 +9884,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F40" s="1">
         <v>44908</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -9918,10 +9923,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="2">
         <v>0</v>
@@ -9930,13 +9935,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -9945,38 +9950,40 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
       <c r="AB40" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="AC40" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
+      <c r="AH40" s="2">
+        <v>1</v>
+      </c>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN40" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="AO40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR40" s="2"/>
       <c r="AS40" s="2">
@@ -9989,11 +9996,11 @@
         <v>1</v>
       </c>
       <c r="AV40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY40" s="2">
         <v>1</v>
@@ -10014,16 +10021,16 @@
         <v>0</v>
       </c>
       <c r="BE40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI40" s="2">
         <v>0</v>
@@ -10047,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ40" s="2">
         <v>0</v>
@@ -10095,16 +10102,16 @@
         <v>0</v>
       </c>
       <c r="CF40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="CG40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="CI40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41">
@@ -10112,28 +10119,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1">
-        <v>44994</v>
+        <v>44908</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -10163,60 +10170,60 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="s">
         <v>106</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AC41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>1</v>
+      </c>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
-      <c r="AK41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AO41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR41" s="2"/>
       <c r="AS41" s="2">
         <v>0</v>
       </c>
       <c r="AT41" s="1">
-        <v>45009</v>
+        <v>44930</v>
       </c>
       <c r="AU41" s="2">
         <v>1</v>
@@ -10328,16 +10335,249 @@
         <v>0</v>
       </c>
       <c r="CF41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CG41" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH41" t="s">
+        <v>225</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44994</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>103</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
+        <v>108</v>
+      </c>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="2"/>
+      <c r="AM42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>45009</v>
+      </c>
+      <c r="AU42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG42" t="s">
         <v>222</v>
       </c>
-      <c r="CI41" t="s">
-        <v>228</v>
+      <c r="CH42" t="s">
+        <v>225</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="866" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="885" uniqueCount="239">
   <si>
     <t>sampleid</t>
   </si>
@@ -132,6 +132,9 @@
     <t>300863</t>
   </si>
   <si>
+    <t>300869</t>
+  </si>
+  <si>
     <t>300891</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>Leicester</t>
   </si>
   <si>
+    <t>Woodfin</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
   </si>
   <si>
     <t>normal; weaker</t>
+  </si>
+  <si>
+    <t>more up</t>
   </si>
   <si>
     <t>nice; stronger</t>
@@ -768,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI42"/>
+  <dimension ref="A1:CI43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,262 +788,262 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W1" t="s">
-        <v>71</v>
-      </c>
       <c r="X1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AD1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AE1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AF1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AI1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AJ1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AK1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AL1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AM1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AN1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AO1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AQ1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AR1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AS1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AT1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AU1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AV1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AW1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AX1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AY1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AZ1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BA1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BB1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BC1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BD1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BE1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BF1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BG1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BH1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BI1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BJ1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BK1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BL1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BM1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BN1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BO1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BP1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BQ1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BR1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BS1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BT1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BU1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BV1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BW1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BX1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BY1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BZ1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="CA1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CB1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CC1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="CD1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CE1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CF1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CG1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CI1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -1042,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1093,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1110,7 +1119,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
@@ -1127,19 +1136,19 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP2" s="2">
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2">
@@ -1258,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -1275,28 +1284,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1326,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T3" s="2">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1343,7 +1352,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC3" s="2">
         <v>1</v>
@@ -1360,19 +1369,19 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP3" s="2">
         <v>0</v>
       </c>
       <c r="AQ3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2">
@@ -1491,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -1508,28 +1517,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1559,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1576,7 +1585,7 @@
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC4" s="2">
         <v>1</v>
@@ -1591,19 +1600,19 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP4" s="2">
         <v>0</v>
       </c>
       <c r="AQ4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2">
@@ -1722,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -1739,28 +1748,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1790,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1807,7 +1816,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="2">
         <v>-1</v>
@@ -1824,19 +1833,19 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AP5" s="2">
         <v>1</v>
       </c>
       <c r="AQ5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2">
@@ -1955,16 +1964,16 @@
         <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CG5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -1972,28 +1981,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -2023,13 +2032,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2040,7 +2049,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="2">
         <v>-1</v>
@@ -2059,19 +2068,19 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AP6" s="2">
         <v>1</v>
       </c>
       <c r="AQ6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2">
@@ -2190,16 +2199,16 @@
         <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CG6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -2207,28 +2216,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2258,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2277,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="AB7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC7" s="2">
         <v>1</v>
@@ -2294,19 +2303,19 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
       <c r="AQ7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2">
@@ -2425,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
@@ -2442,28 +2451,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2493,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -2510,7 +2519,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2">
@@ -2525,19 +2534,19 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
       <c r="AQ8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2">
@@ -2656,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CG8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -2673,28 +2682,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2724,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -2741,7 +2750,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC9" s="2">
         <v>1</v>
@@ -2760,19 +2769,19 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
       <c r="AQ9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2">
@@ -2891,16 +2900,16 @@
         <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CG9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="CI9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
@@ -2908,28 +2917,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2959,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -2978,7 +2987,7 @@
         <v>-1</v>
       </c>
       <c r="AB10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -2991,19 +3000,19 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP10" s="2">
         <v>0</v>
       </c>
       <c r="AQ10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2">
@@ -3122,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
@@ -3139,28 +3148,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -3190,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -3207,7 +3216,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC11" s="2">
         <v>-1</v>
@@ -3222,19 +3231,19 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP11" s="2">
         <v>0</v>
       </c>
       <c r="AQ11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2">
@@ -3353,16 +3362,16 @@
         <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -3370,28 +3379,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -3421,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -3440,7 +3449,7 @@
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC12" s="2">
         <v>0</v>
@@ -3455,19 +3464,19 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP12" s="2">
         <v>0</v>
       </c>
       <c r="AQ12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2">
@@ -3586,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="CF12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -3603,28 +3612,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3654,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -3671,7 +3680,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AC13" s="2">
         <v>1</v>
@@ -3692,19 +3701,19 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP13" s="2">
         <v>0</v>
       </c>
       <c r="AQ13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2">
@@ -3823,16 +3832,16 @@
         <v>0</v>
       </c>
       <c r="CF13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CG13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="CI13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
@@ -3840,28 +3849,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3891,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -3908,7 +3917,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2">
@@ -3925,19 +3934,19 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AO14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP14" s="2">
         <v>0</v>
       </c>
       <c r="AQ14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2">
@@ -4056,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="CF14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
@@ -4073,28 +4082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -4124,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -4141,7 +4150,7 @@
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
@@ -4156,19 +4165,19 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP15" s="2">
         <v>0</v>
       </c>
       <c r="AQ15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2">
@@ -4287,16 +4296,16 @@
         <v>0</v>
       </c>
       <c r="CF15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
@@ -4304,28 +4313,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -4355,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -4372,7 +4381,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC16" s="2">
         <v>1</v>
@@ -4391,19 +4400,19 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
       <c r="AQ16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2">
@@ -4522,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="CF16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17">
@@ -4539,28 +4548,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -4590,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -4607,7 +4616,7 @@
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC17" s="2">
         <v>1</v>
@@ -4626,19 +4635,19 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AO17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
       <c r="AQ17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2">
@@ -4757,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="CF17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
@@ -4774,28 +4783,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -4825,13 +4834,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4840,7 +4849,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -4853,19 +4862,19 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
       <c r="AQ18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2">
@@ -4984,16 +4993,16 @@
         <v>0</v>
       </c>
       <c r="CF18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
@@ -5001,28 +5010,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -5052,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -5069,7 +5078,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC19" s="2">
         <v>1</v>
@@ -5086,19 +5095,19 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP19" s="2">
         <v>0</v>
       </c>
       <c r="AQ19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2">
@@ -5217,16 +5226,16 @@
         <v>0</v>
       </c>
       <c r="CF19" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
@@ -5234,28 +5243,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -5285,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -5300,7 +5309,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC20" s="2">
         <v>1</v>
@@ -5317,19 +5326,19 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
       <c r="AQ20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2">
@@ -5448,16 +5457,16 @@
         <v>0</v>
       </c>
       <c r="CF20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
@@ -5465,28 +5474,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -5516,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5533,7 +5542,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -5548,19 +5557,19 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AO21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP21" s="2">
         <v>0</v>
       </c>
       <c r="AQ21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2">
@@ -5679,16 +5688,16 @@
         <v>0</v>
       </c>
       <c r="CF21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
@@ -5696,28 +5705,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -5747,13 +5756,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -5764,7 +5773,7 @@
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC22" s="2">
         <v>-1</v>
@@ -5779,19 +5788,19 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP22" s="2">
         <v>0</v>
       </c>
       <c r="AQ22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2">
@@ -5910,16 +5919,16 @@
         <v>0</v>
       </c>
       <c r="CF22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -5927,28 +5936,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -5978,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -5997,7 +6006,7 @@
       </c>
       <c r="AA23" s="2"/>
       <c r="AB23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AC23" s="2">
         <v>1</v>
@@ -6012,19 +6021,19 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
       <c r="AQ23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2">
@@ -6143,16 +6152,16 @@
         <v>0</v>
       </c>
       <c r="CF23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -6160,28 +6169,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -6211,13 +6220,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -6228,7 +6237,7 @@
       </c>
       <c r="AA24" s="2"/>
       <c r="AB24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AC24" s="2">
         <v>1</v>
@@ -6245,19 +6254,19 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP24" s="2">
         <v>0</v>
       </c>
       <c r="AQ24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2">
@@ -6376,16 +6385,16 @@
         <v>0</v>
       </c>
       <c r="CF24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG24" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH24" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -6393,28 +6402,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -6444,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T25" s="2">
         <v>1</v>
       </c>
       <c r="U25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -6461,7 +6470,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AC25" s="2">
         <v>-1</v>
@@ -6478,19 +6487,19 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AO25" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP25" s="2">
         <v>0</v>
       </c>
       <c r="AQ25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2">
@@ -6609,16 +6618,16 @@
         <v>0</v>
       </c>
       <c r="CF25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CG25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -6626,28 +6635,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -6677,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -6694,7 +6703,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -6707,19 +6716,19 @@
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AP26" s="2">
         <v>1</v>
       </c>
       <c r="AQ26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AR26" s="2">
         <v>1</v>
@@ -6840,16 +6849,16 @@
         <v>0</v>
       </c>
       <c r="CF26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI26" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -6857,28 +6866,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -6908,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -6925,7 +6934,7 @@
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC27" s="2">
         <v>1</v>
@@ -6940,19 +6949,19 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP27" s="2">
         <v>0</v>
       </c>
       <c r="AQ27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2">
@@ -7071,16 +7080,16 @@
         <v>0</v>
       </c>
       <c r="CF27" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
@@ -7088,28 +7097,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -7139,13 +7148,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -7156,7 +7165,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AC28" s="2">
         <v>1</v>
@@ -7177,19 +7186,19 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AO28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP28" s="2">
         <v>0</v>
       </c>
       <c r="AQ28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2">
@@ -7308,16 +7317,16 @@
         <v>0</v>
       </c>
       <c r="CF28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -7325,28 +7334,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -7376,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -7393,7 +7402,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2">
@@ -7408,19 +7417,19 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP29" s="2">
         <v>0</v>
       </c>
       <c r="AQ29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2">
@@ -7539,16 +7548,16 @@
         <v>0</v>
       </c>
       <c r="CF29" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30">
@@ -7556,28 +7565,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -7607,13 +7616,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -7624,7 +7633,7 @@
       </c>
       <c r="AA30" s="2"/>
       <c r="AB30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -7639,19 +7648,19 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AO30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP30" s="2">
         <v>0</v>
       </c>
       <c r="AQ30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2">
@@ -7770,16 +7779,16 @@
         <v>0</v>
       </c>
       <c r="CF30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
@@ -7787,28 +7796,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -7838,13 +7847,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -7855,7 +7864,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2">
@@ -7872,19 +7881,19 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP31" s="2">
         <v>0</v>
       </c>
       <c r="AQ31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2">
@@ -8003,16 +8012,16 @@
         <v>0</v>
       </c>
       <c r="CF31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
@@ -8020,28 +8029,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -8071,13 +8080,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -8088,7 +8097,7 @@
       </c>
       <c r="AA32" s="2"/>
       <c r="AB32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC32" s="2">
         <v>0</v>
@@ -8103,19 +8112,19 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
       <c r="AQ32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2">
@@ -8234,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="CF32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
@@ -8251,28 +8260,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -8302,13 +8311,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -8319,7 +8328,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2">
@@ -8336,19 +8345,19 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AO33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
       <c r="AQ33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2">
@@ -8467,16 +8476,16 @@
         <v>0</v>
       </c>
       <c r="CF33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG33" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI33" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
@@ -8484,28 +8493,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -8535,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T34" s="2">
         <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2">
@@ -8552,7 +8561,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC34" s="2">
         <v>1</v>
@@ -8569,19 +8578,19 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP34" s="2">
         <v>0</v>
       </c>
       <c r="AQ34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2">
@@ -8700,16 +8709,16 @@
         <v>0</v>
       </c>
       <c r="CF34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG34" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -8717,28 +8726,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -8768,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -8785,7 +8794,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2">
@@ -8804,19 +8813,19 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AO35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
       <c r="AQ35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2">
@@ -8935,16 +8944,16 @@
         <v>0</v>
       </c>
       <c r="CF35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG35" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH35" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
@@ -8952,28 +8961,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -9003,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T36" s="2">
         <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -9020,7 +9029,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC36" s="2">
         <v>0</v>
@@ -9035,19 +9044,19 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP36" s="2">
         <v>0</v>
       </c>
       <c r="AQ36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2">
@@ -9166,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="CF36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
@@ -9183,28 +9192,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -9234,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -9253,7 +9262,7 @@
         <v>-1</v>
       </c>
       <c r="AB37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC37" s="2">
         <v>-1</v>
@@ -9272,17 +9281,17 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AO37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP37" s="2"/>
       <c r="AQ37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AR37" s="2"/>
       <c r="AS37" s="2">
@@ -9401,16 +9410,16 @@
         <v>0</v>
       </c>
       <c r="CF37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG37" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH37" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI37" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
@@ -9418,28 +9427,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -9469,13 +9478,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -9486,7 +9495,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC38" s="2">
         <v>-1</v>
@@ -9503,19 +9512,19 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP38" s="2">
         <v>0</v>
       </c>
       <c r="AQ38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2">
@@ -9634,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="CF38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG38" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -9651,28 +9660,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -9702,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -9721,7 +9730,7 @@
         <v>-1</v>
       </c>
       <c r="AB39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AC39" s="2">
         <v>-1</v>
@@ -9736,19 +9745,19 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
       <c r="AQ39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR39" s="2"/>
       <c r="AS39" s="2">
@@ -9867,16 +9876,16 @@
         <v>0</v>
       </c>
       <c r="CF39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG39" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH39" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
@@ -9884,40 +9893,40 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F40" s="1">
-        <v>44908</v>
+        <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -9926,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="2">
         <v>0</v>
@@ -9935,13 +9944,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -9950,47 +9959,43 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA40" s="2"/>
       <c r="AB40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AO40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP40" s="2">
         <v>0</v>
       </c>
       <c r="AQ40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR40" s="2"/>
       <c r="AS40" s="2">
         <v>0</v>
       </c>
       <c r="AT40" s="1">
-        <v>44930</v>
+        <v>45061</v>
       </c>
       <c r="AU40" s="2">
         <v>1</v>
@@ -10000,16 +10005,16 @@
       </c>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2">
+        <v>6</v>
+      </c>
+      <c r="AY40" s="2">
         <v>3</v>
       </c>
-      <c r="AY40" s="2">
-        <v>1</v>
-      </c>
       <c r="AZ40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB40" s="2">
         <v>0</v>
@@ -10027,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="BG40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="2">
         <v>0</v>
@@ -10045,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN40" s="2">
         <v>0</v>
@@ -10054,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="BP40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ40" s="2">
         <v>0</v>
@@ -10069,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="BU40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV40" s="2">
         <v>0</v>
@@ -10093,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="CC40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD40" s="2">
         <v>0</v>
@@ -10102,16 +10107,16 @@
         <v>0</v>
       </c>
       <c r="CF40" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CG40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
@@ -10119,16 +10124,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F41" s="1">
         <v>44908</v>
@@ -10140,7 +10145,7 @@
         <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -10158,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -10170,13 +10175,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -10185,38 +10190,40 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
+      <c r="AA41" s="2">
+        <v>1</v>
+      </c>
       <c r="AB41" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AC41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
+      <c r="AH41" s="2">
+        <v>1</v>
+      </c>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN41" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="AO41" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
       <c r="AQ41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR41" s="2"/>
       <c r="AS41" s="2">
@@ -10229,11 +10236,11 @@
         <v>1</v>
       </c>
       <c r="AV41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="2"/>
       <c r="AX41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY41" s="2">
         <v>1</v>
@@ -10254,16 +10261,16 @@
         <v>0</v>
       </c>
       <c r="BE41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI41" s="2">
         <v>0</v>
@@ -10287,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="BP41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ41" s="2">
         <v>0</v>
@@ -10335,16 +10342,16 @@
         <v>0</v>
       </c>
       <c r="CF41" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="CG41" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH41" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="CI41" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42">
@@ -10352,28 +10359,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1">
-        <v>44994</v>
+        <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -10403,60 +10410,60 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="T42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="s">
         <v>108</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AC42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
-      <c r="AK42" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AN42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AO42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP42" s="2">
         <v>0</v>
       </c>
       <c r="AQ42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AR42" s="2"/>
       <c r="AS42" s="2">
         <v>0</v>
       </c>
       <c r="AT42" s="1">
-        <v>45009</v>
+        <v>44930</v>
       </c>
       <c r="AU42" s="2">
         <v>1</v>
@@ -10568,16 +10575,249 @@
         <v>0</v>
       </c>
       <c r="CF42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CG42" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH42" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44994</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>105</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>110</v>
+      </c>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="2"/>
+      <c r="AB43" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="2"/>
+      <c r="AM43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>45009</v>
+      </c>
+      <c r="AU43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG43" t="s">
         <v>225</v>
       </c>
-      <c r="CI42" t="s">
-        <v>231</v>
+      <c r="CH43" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="885" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="886" uniqueCount="240">
   <si>
     <t>sampleid</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>collection</t>
+  </si>
+  <si>
+    <t>consumed</t>
   </si>
   <si>
     <t>expectedsubstance</t>
@@ -777,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI43"/>
+  <dimension ref="A1:CJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +815,7 @@
         <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K1" t="s">
         <v>87</v>
@@ -842,34 +845,34 @@
         <v>95</v>
       </c>
       <c r="T1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="U1" t="s">
         <v>107</v>
       </c>
       <c r="V1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="W1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" t="s">
-        <v>108</v>
-      </c>
       <c r="Y1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AA1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AB1" t="s">
         <v>123</v>
       </c>
       <c r="AC1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="AD1" t="s">
         <v>147</v>
@@ -902,19 +905,19 @@
         <v>156</v>
       </c>
       <c r="AN1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AP1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
       </c>
       <c r="AR1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AS1" t="s">
         <v>179</v>
@@ -1037,13 +1040,16 @@
         <v>218</v>
       </c>
       <c r="CG1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="CH1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="CI1" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -1071,11 +1077,11 @@
       <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1084,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -1101,77 +1107,77 @@
       <c r="R2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V2" s="2"/>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>109</v>
+      </c>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
         <v>44789</v>
       </c>
-      <c r="AU2" s="2">
-        <v>1</v>
-      </c>
       <c r="AV2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2"/>
       <c r="AY2" s="2">
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
         <v>0</v>
@@ -1186,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
         <v>1</v>
       </c>
       <c r="BG2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -1266,17 +1272,20 @@
       <c r="CE2" s="2">
         <v>0</v>
       </c>
-      <c r="CF2" t="s">
-        <v>219</v>
+      <c r="CF2" s="2">
+        <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI2" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -1304,17 +1313,17 @@
       <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1334,83 +1343,83 @@
       <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" s="2"/>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
+      </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
-      <c r="AM3" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
         <v>44789</v>
       </c>
-      <c r="AU3" s="2">
-        <v>1</v>
-      </c>
       <c r="AV3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2"/>
       <c r="AY3" s="2">
         <v>5</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA3" s="2">
         <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1419,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
         <v>1</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1467,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="BU3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW3" s="2">
         <v>0</v>
@@ -1491,25 +1500,28 @@
         <v>0</v>
       </c>
       <c r="CC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3" s="2">
         <v>0</v>
       </c>
-      <c r="CF3" t="s">
-        <v>220</v>
+      <c r="CF3" s="2">
+        <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI3" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -1537,11 +1549,11 @@
       <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1550,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1567,30 +1579,32 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V4" s="2"/>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1599,43 +1613,41 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
         <v>44762</v>
       </c>
-      <c r="AU4" s="2">
-        <v>1</v>
-      </c>
       <c r="AV4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2"/>
       <c r="AY4" s="2">
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1650,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>1</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1730,17 +1742,20 @@
       <c r="CE4" s="2">
         <v>0</v>
       </c>
-      <c r="CF4" t="s">
-        <v>219</v>
+      <c r="CF4" s="2">
+        <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI4" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -1768,17 +1783,17 @@
       <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1798,33 +1813,35 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V5" s="2"/>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>109</v>
+      </c>
       <c r="W5" s="2"/>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC5" s="2">
+      <c r="AB5" s="2"/>
+      <c r="AC5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD5" s="2">
         <v>-1</v>
       </c>
-      <c r="AD5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1832,49 +1849,47 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
         <v>44771</v>
       </c>
-      <c r="AU5" s="2">
-        <v>1</v>
-      </c>
       <c r="AV5" s="2">
         <v>1</v>
       </c>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2">
+      <c r="AW5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2">
         <v>10</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AZ5" s="2">
         <v>4</v>
       </c>
-      <c r="AZ5" s="2">
-        <v>1</v>
-      </c>
       <c r="BA5" s="2">
         <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1928,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>1</v>
       </c>
       <c r="BV5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5" s="2">
         <v>0</v>
@@ -1946,34 +1961,37 @@
         <v>0</v>
       </c>
       <c r="BZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5" s="2">
         <v>1</v>
       </c>
       <c r="CB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE5" s="2">
         <v>0</v>
       </c>
-      <c r="CF5" t="s">
-        <v>221</v>
+      <c r="CF5" s="2">
+        <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="CH5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="CI5" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6">
@@ -2001,17 +2019,17 @@
       <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -2031,85 +2049,85 @@
       <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>108</v>
-      </c>
-      <c r="V6" s="2"/>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>109</v>
+      </c>
       <c r="W6" s="2"/>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC6" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD6" s="2">
         <v>-1</v>
       </c>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
         <v>44771</v>
       </c>
-      <c r="AU6" s="2">
-        <v>1</v>
-      </c>
       <c r="AV6" s="2">
         <v>1</v>
       </c>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2">
+      <c r="AW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2">
         <v>15</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AZ6" s="2">
         <v>11</v>
       </c>
-      <c r="AZ6" s="2">
-        <v>1</v>
-      </c>
       <c r="BA6" s="2">
         <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -2121,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -2133,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="2">
         <v>0</v>
@@ -2163,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>1</v>
       </c>
       <c r="BV6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6" s="2">
         <v>0</v>
@@ -2181,34 +2199,37 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA6" s="2">
         <v>1</v>
       </c>
       <c r="CB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE6" s="2">
         <v>0</v>
       </c>
-      <c r="CF6" t="s">
-        <v>221</v>
+      <c r="CF6" s="2">
+        <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="CH6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="CI6" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -2236,17 +2257,17 @@
       <c r="H7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -2266,35 +2287,37 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>111</v>
-      </c>
-      <c r="V7" s="2"/>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>112</v>
+      </c>
       <c r="W7" s="2"/>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1</v>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>129</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -2302,49 +2325,47 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
         <v>44789</v>
       </c>
-      <c r="AU7" s="2">
-        <v>1</v>
-      </c>
       <c r="AV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2"/>
       <c r="AY7" s="2">
         <v>4</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA7" s="2">
         <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -2353,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>1</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2401,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="BU7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW7" s="2">
         <v>0</v>
@@ -2425,25 +2446,28 @@
         <v>0</v>
       </c>
       <c r="CC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE7" s="2">
         <v>0</v>
       </c>
-      <c r="CF7" t="s">
-        <v>220</v>
+      <c r="CF7" s="2">
+        <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI7" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -2471,14 +2495,14 @@
       <c r="H8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2501,31 +2525,33 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>108</v>
-      </c>
-      <c r="V8" s="2"/>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>109</v>
+      </c>
       <c r="W8" s="2"/>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2533,43 +2559,41 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
         <v>44762</v>
       </c>
-      <c r="AU8" s="2">
-        <v>1</v>
-      </c>
       <c r="AV8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2"/>
       <c r="AY8" s="2">
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2584,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2664,17 +2688,20 @@
       <c r="CE8" s="2">
         <v>0</v>
       </c>
-      <c r="CF8" t="s">
-        <v>221</v>
+      <c r="CF8" s="2">
+        <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="CH8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="CI8" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="9">
@@ -2702,14 +2729,14 @@
       <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2732,85 +2759,85 @@
       <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>98</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>110</v>
+      </c>
       <c r="W9" s="2"/>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH9" s="2"/>
       <c r="AI9" s="2">
         <v>1</v>
       </c>
-      <c r="AJ9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
         <v>44789</v>
       </c>
-      <c r="AU9" s="2">
-        <v>1</v>
-      </c>
       <c r="AV9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
       <c r="AY9" s="2">
         <v>3</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2831,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="BI9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9" s="2">
         <v>0</v>
@@ -2867,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="BU9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW9" s="2">
         <v>0</v>
@@ -2882,34 +2909,37 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB9" s="2">
         <v>0</v>
       </c>
       <c r="CC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE9" s="2">
         <v>0</v>
       </c>
-      <c r="CF9" t="s">
-        <v>222</v>
+      <c r="CF9" s="2">
+        <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="CH9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="CI9" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="10">
@@ -2937,17 +2967,17 @@
       <c r="H10" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2967,29 +2997,31 @@
       <c r="R10" s="2">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>112</v>
-      </c>
-      <c r="V10" s="2"/>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>113</v>
+      </c>
       <c r="W10" s="2"/>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
         <v>-1</v>
       </c>
-      <c r="AB10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC10" s="2"/>
+      <c r="AC10" t="s">
+        <v>115</v>
+      </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2999,49 +3031,47 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
         <v>44762</v>
       </c>
-      <c r="AU10" s="2">
-        <v>1</v>
-      </c>
       <c r="AV10" s="2">
         <v>1</v>
       </c>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2">
+      <c r="AW10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2">
         <v>3</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="AZ10" s="2">
         <v>2</v>
       </c>
-      <c r="AZ10" s="2">
-        <v>1</v>
-      </c>
       <c r="BA10" s="2">
         <v>1</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
         <v>0</v>
@@ -3098,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="BU10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="2">
         <v>0</v>
@@ -3113,34 +3143,37 @@
         <v>0</v>
       </c>
       <c r="BZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB10" s="2">
         <v>0</v>
       </c>
       <c r="CC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10" s="2">
         <v>0</v>
       </c>
-      <c r="CF10" t="s">
-        <v>220</v>
+      <c r="CF10" s="2">
+        <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI10" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11">
@@ -3168,11 +3201,11 @@
       <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3181,16 +3214,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -3198,30 +3231,32 @@
       <c r="R11" s="2">
         <v>0</v>
       </c>
-      <c r="S11" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>108</v>
-      </c>
-      <c r="V11" s="2"/>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>109</v>
+      </c>
       <c r="W11" s="2"/>
-      <c r="X11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC11" s="2">
+      <c r="AB11" s="2"/>
+      <c r="AC11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD11" s="2">
         <v>-1</v>
       </c>
-      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -3230,43 +3265,41 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1">
         <v>44789</v>
       </c>
-      <c r="AU11" s="2">
-        <v>1</v>
-      </c>
       <c r="AV11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="2"/>
       <c r="AY11" s="2">
         <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3281,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -3361,17 +3394,20 @@
       <c r="CE11" s="2">
         <v>0</v>
       </c>
-      <c r="CF11" t="s">
-        <v>219</v>
+      <c r="CF11" s="2">
+        <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI11" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -3399,11 +3435,11 @@
       <c r="H12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3412,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3429,32 +3465,34 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>113</v>
-      </c>
-      <c r="V12" s="2"/>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>114</v>
+      </c>
       <c r="W12" s="2"/>
-      <c r="X12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2"/>
+      <c r="AC12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3463,43 +3501,41 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
-      <c r="AM12" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
         <v>44762</v>
       </c>
-      <c r="AU12" s="2">
-        <v>1</v>
-      </c>
       <c r="AV12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2"/>
       <c r="AY12" s="2">
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3514,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
         <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3594,17 +3630,20 @@
       <c r="CE12" s="2">
         <v>0</v>
       </c>
-      <c r="CF12" t="s">
-        <v>219</v>
+      <c r="CF12" s="2">
+        <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI12" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -3632,14 +3671,14 @@
       <c r="H13" t="s">
         <v>70</v>
       </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -3662,87 +3701,87 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>109</v>
-      </c>
-      <c r="V13" s="2"/>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>110</v>
+      </c>
       <c r="W13" s="2"/>
-      <c r="X13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2">
         <v>1</v>
       </c>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="2">
+        <v>1</v>
+      </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
         <v>44789</v>
       </c>
-      <c r="AU13" s="2">
-        <v>1</v>
-      </c>
       <c r="AV13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="2"/>
       <c r="AY13" s="2">
         <v>5</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -3763,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="BI13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
@@ -3799,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="BU13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW13" s="2">
         <v>0</v>
@@ -3814,34 +3853,37 @@
         <v>0</v>
       </c>
       <c r="BZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB13" s="2">
         <v>0</v>
       </c>
       <c r="CC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE13" s="2">
         <v>0</v>
       </c>
-      <c r="CF13" t="s">
-        <v>222</v>
+      <c r="CF13" s="2">
+        <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="CH13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="CI13" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14">
@@ -3869,11 +3911,11 @@
       <c r="H14" t="s">
         <v>70</v>
       </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3882,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3899,83 +3941,83 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>108</v>
-      </c>
-      <c r="V14" s="2"/>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>109</v>
+      </c>
       <c r="W14" s="2"/>
-      <c r="X14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="AO14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
+        <v>160</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
         <v>44762</v>
       </c>
-      <c r="AU14" s="2">
-        <v>1</v>
-      </c>
       <c r="AV14" s="2">
         <v>1</v>
       </c>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2">
+      <c r="AW14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2">
         <v>8</v>
       </c>
-      <c r="AY14" s="2">
+      <c r="AZ14" s="2">
         <v>7</v>
       </c>
-      <c r="AZ14" s="2">
-        <v>1</v>
-      </c>
       <c r="BA14" s="2">
         <v>1</v>
       </c>
       <c r="BB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
         <v>0</v>
@@ -4032,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="BU14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14" s="2">
         <v>0</v>
@@ -4047,34 +4089,37 @@
         <v>0</v>
       </c>
       <c r="BZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB14" s="2">
         <v>0</v>
       </c>
       <c r="CC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE14" s="2">
         <v>0</v>
       </c>
-      <c r="CF14" t="s">
-        <v>220</v>
+      <c r="CF14" s="2">
+        <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI14" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15">
@@ -4102,11 +4147,11 @@
       <c r="H15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4115,16 +4160,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -4132,30 +4177,32 @@
       <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>110</v>
-      </c>
-      <c r="V15" s="2"/>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>111</v>
+      </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
+      <c r="AC15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -4164,43 +4211,41 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
         <v>44762</v>
       </c>
-      <c r="AU15" s="2">
-        <v>1</v>
-      </c>
       <c r="AV15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="2"/>
       <c r="AY15" s="2">
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -4215,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -4295,17 +4340,20 @@
       <c r="CE15" s="2">
         <v>0</v>
       </c>
-      <c r="CF15" t="s">
-        <v>220</v>
+      <c r="CF15" s="2">
+        <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI15" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="16">
@@ -4333,11 +4381,11 @@
       <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4346,16 +4394,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -4363,79 +4411,79 @@
       <c r="R16" s="2">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>108</v>
-      </c>
-      <c r="V16" s="2"/>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>100</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>109</v>
+      </c>
       <c r="W16" s="2"/>
-      <c r="X16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1</v>
+      <c r="AB16" s="2"/>
+      <c r="AC16" t="s">
+        <v>136</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
       </c>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO16" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
         <v>44789</v>
       </c>
-      <c r="AU16" s="2">
-        <v>1</v>
-      </c>
       <c r="AV16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="2"/>
       <c r="AY16" s="2">
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4450,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
         <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4530,17 +4578,20 @@
       <c r="CE16" s="2">
         <v>0</v>
       </c>
-      <c r="CF16" t="s">
-        <v>219</v>
+      <c r="CF16" s="2">
+        <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI16" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17">
@@ -4568,11 +4619,11 @@
       <c r="H17" t="s">
         <v>70</v>
       </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4581,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4598,79 +4649,79 @@
       <c r="R17" s="2">
         <v>0</v>
       </c>
-      <c r="S17" t="s">
-        <v>97</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>110</v>
-      </c>
-      <c r="V17" s="2"/>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>111</v>
+      </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="2"/>
-      <c r="AB17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s">
+        <v>127</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
       </c>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2">
+        <v>1</v>
+      </c>
       <c r="AL17" s="2"/>
-      <c r="AM17" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="AO17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
+        <v>161</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
         <v>44762</v>
       </c>
-      <c r="AU17" s="2">
-        <v>1</v>
-      </c>
       <c r="AV17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2"/>
       <c r="AY17" s="2">
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4685,13 +4736,13 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>1</v>
       </c>
       <c r="BG17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH17" s="2">
         <v>0</v>
@@ -4765,17 +4816,20 @@
       <c r="CE17" s="2">
         <v>0</v>
       </c>
-      <c r="CF17" t="s">
-        <v>219</v>
+      <c r="CF17" s="2">
+        <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI17" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="18">
@@ -4803,11 +4857,11 @@
       <c r="H18" t="s">
         <v>69</v>
       </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4816,16 +4870,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4833,25 +4887,27 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" t="s">
-        <v>97</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>114</v>
-      </c>
-      <c r="V18" s="2"/>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>98</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>115</v>
+      </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" t="s">
+        <v>115</v>
+      </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -4861,43 +4917,41 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
-      <c r="AM18" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO18" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
         <v>44853</v>
       </c>
-      <c r="AU18" s="2">
-        <v>1</v>
-      </c>
       <c r="AV18" s="2">
         <v>1</v>
       </c>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2">
+      <c r="AW18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2">
         <v>2</v>
       </c>
-      <c r="AY18" s="2">
-        <v>1</v>
-      </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4915,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4992,17 +5046,20 @@
       <c r="CE18" s="2">
         <v>0</v>
       </c>
-      <c r="CF18" t="s">
-        <v>220</v>
+      <c r="CF18" s="2">
+        <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI18" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -5030,17 +5087,17 @@
       <c r="H19" t="s">
         <v>71</v>
       </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -5060,33 +5117,35 @@
       <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" t="s">
-        <v>97</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>109</v>
-      </c>
-      <c r="V19" s="2"/>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>110</v>
+      </c>
       <c r="W19" s="2"/>
-      <c r="X19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>1</v>
+      <c r="AB19" s="2"/>
+      <c r="AC19" t="s">
+        <v>129</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -5094,49 +5153,47 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
-      <c r="AM19" t="s">
-        <v>157</v>
-      </c>
+      <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="AO19" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
         <v>44845</v>
       </c>
-      <c r="AU19" s="2">
-        <v>1</v>
-      </c>
       <c r="AV19" s="2">
         <v>1</v>
       </c>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2">
+      <c r="AW19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2">
         <v>4</v>
       </c>
-      <c r="AY19" s="2">
+      <c r="AZ19" s="2">
         <v>3</v>
       </c>
-      <c r="AZ19" s="2">
-        <v>1</v>
-      </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -5169,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="BM19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO19" s="2">
         <v>0</v>
@@ -5193,10 +5250,10 @@
         <v>0</v>
       </c>
       <c r="BU19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19" s="2">
         <v>0</v>
@@ -5208,34 +5265,37 @@
         <v>0</v>
       </c>
       <c r="BZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB19" s="2">
         <v>0</v>
       </c>
       <c r="CC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE19" s="2">
         <v>0</v>
       </c>
-      <c r="CF19" t="s">
-        <v>220</v>
+      <c r="CF19" s="2">
+        <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI19" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="20">
@@ -5263,17 +5323,17 @@
       <c r="H20" t="s">
         <v>69</v>
       </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -5293,76 +5353,76 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" t="s">
-        <v>100</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>115</v>
-      </c>
-      <c r="V20" s="2"/>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>116</v>
+      </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2">
+        <v>1</v>
+      </c>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
-      <c r="AM20" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
         <v>44862</v>
       </c>
-      <c r="AU20" s="2">
-        <v>1</v>
-      </c>
       <c r="AV20" s="2">
         <v>1</v>
       </c>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2">
+      <c r="AW20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2">
         <v>7</v>
       </c>
-      <c r="AY20" s="2">
+      <c r="AZ20" s="2">
         <v>5</v>
       </c>
-      <c r="AZ20" s="2">
-        <v>1</v>
-      </c>
       <c r="BA20" s="2">
         <v>1</v>
       </c>
@@ -5373,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -5424,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="BU20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW20" s="2">
         <v>0</v>
@@ -5439,34 +5499,37 @@
         <v>0</v>
       </c>
       <c r="BZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB20" s="2">
         <v>0</v>
       </c>
       <c r="CC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE20" s="2">
         <v>0</v>
       </c>
-      <c r="CF20" t="s">
-        <v>220</v>
+      <c r="CF20" s="2">
+        <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI20" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -5494,29 +5557,29 @@
       <c r="H21" t="s">
         <v>69</v>
       </c>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>82</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5524,75 +5587,75 @@
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>108</v>
-      </c>
-      <c r="V21" s="2"/>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>98</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>109</v>
+      </c>
       <c r="W21" s="2"/>
-      <c r="X21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" t="s">
+        <v>138</v>
+      </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2">
+        <v>1</v>
+      </c>
       <c r="AL21" s="2"/>
-      <c r="AM21" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="AO21" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="1">
+        <v>162</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
         <v>44865</v>
       </c>
-      <c r="AU21" s="2">
-        <v>1</v>
-      </c>
       <c r="AV21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
       <c r="AY21" s="2">
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -5687,17 +5750,20 @@
       <c r="CE21" s="2">
         <v>0</v>
       </c>
-      <c r="CF21" t="s">
-        <v>219</v>
+      <c r="CF21" s="2">
+        <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI21" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22">
@@ -5725,11 +5791,11 @@
       <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="I22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5738,16 +5804,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5755,30 +5821,32 @@
       <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="S22" t="s">
-        <v>97</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
-        <v>110</v>
-      </c>
-      <c r="V22" s="2"/>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>111</v>
+      </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="2"/>
-      <c r="AB22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC22" s="2">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD22" s="2">
         <v>-1</v>
       </c>
-      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5787,43 +5855,41 @@
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
-      <c r="AM22" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO22" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1">
         <v>44845</v>
       </c>
-      <c r="AU22" s="2">
-        <v>1</v>
-      </c>
       <c r="AV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="2"/>
       <c r="AY22" s="2">
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5838,13 +5904,13 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
         <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5918,17 +5984,20 @@
       <c r="CE22" s="2">
         <v>0</v>
       </c>
-      <c r="CF22" t="s">
-        <v>220</v>
+      <c r="CF22" s="2">
+        <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI22" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23">
@@ -5956,17 +6025,17 @@
       <c r="H23" t="s">
         <v>70</v>
       </c>
-      <c r="I23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5986,32 +6055,34 @@
       <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="S23" t="s">
-        <v>97</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V23" s="2"/>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>98</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>114</v>
+      </c>
       <c r="W23" s="2"/>
-      <c r="X23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="2"/>
-      <c r="AB23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -6020,49 +6091,47 @@
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
-      <c r="AM23" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO23" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1">
         <v>44852</v>
       </c>
-      <c r="AU23" s="2">
-        <v>1</v>
-      </c>
       <c r="AV23" s="2">
         <v>1</v>
       </c>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2">
+      <c r="AW23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2">
         <v>2</v>
       </c>
-      <c r="AY23" s="2">
-        <v>1</v>
-      </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="2">
         <v>0</v>
@@ -6071,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
         <v>1</v>
       </c>
       <c r="BG23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23" s="2">
         <v>0</v>
@@ -6119,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="BU23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23" s="2">
         <v>0</v>
@@ -6151,17 +6220,20 @@
       <c r="CE23" s="2">
         <v>0</v>
       </c>
-      <c r="CF23" t="s">
-        <v>220</v>
+      <c r="CF23" s="2">
+        <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI23" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -6189,17 +6261,17 @@
       <c r="H24" t="s">
         <v>69</v>
       </c>
-      <c r="I24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -6219,33 +6291,35 @@
       <c r="R24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" t="s">
-        <v>97</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>116</v>
-      </c>
-      <c r="V24" s="2"/>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>117</v>
+      </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="2"/>
-      <c r="AB24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>1</v>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" t="s">
+        <v>140</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -6253,49 +6327,47 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
-      <c r="AM24" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
         <v>44957</v>
       </c>
-      <c r="AU24" s="2">
-        <v>1</v>
-      </c>
       <c r="AV24" s="2">
         <v>1</v>
       </c>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2">
+      <c r="AW24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2">
         <v>4</v>
       </c>
-      <c r="AY24" s="2">
+      <c r="AZ24" s="2">
         <v>2</v>
       </c>
-      <c r="AZ24" s="2">
-        <v>1</v>
-      </c>
       <c r="BA24" s="2">
         <v>1</v>
       </c>
       <c r="BB24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="2">
         <v>0</v>
@@ -6352,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="BU24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW24" s="2">
         <v>0</v>
@@ -6376,25 +6448,28 @@
         <v>0</v>
       </c>
       <c r="CC24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE24" s="2">
         <v>0</v>
       </c>
-      <c r="CF24" t="s">
-        <v>220</v>
+      <c r="CF24" s="2">
+        <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI24" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="25">
@@ -6422,11 +6497,11 @@
       <c r="H25" t="s">
         <v>72</v>
       </c>
-      <c r="I25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>81</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6435,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -6452,78 +6527,78 @@
       <c r="R25" s="2">
         <v>0</v>
       </c>
-      <c r="S25" t="s">
-        <v>101</v>
-      </c>
-      <c r="T25" s="2">
-        <v>1</v>
-      </c>
-      <c r="U25" t="s">
-        <v>109</v>
-      </c>
-      <c r="V25" s="2"/>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>110</v>
+      </c>
       <c r="W25" s="2"/>
-      <c r="X25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC25" s="2">
+      <c r="AB25" s="2"/>
+      <c r="AC25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD25" s="2">
         <v>-1</v>
       </c>
-      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2">
+        <v>1</v>
+      </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
-      <c r="AM25" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="AO25" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="1">
+        <v>163</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
         <v>44893</v>
       </c>
-      <c r="AU25" s="2">
-        <v>1</v>
-      </c>
       <c r="AV25" s="2">
         <v>1</v>
       </c>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2">
+      <c r="AW25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2">
         <v>7</v>
       </c>
-      <c r="AY25" s="2">
+      <c r="AZ25" s="2">
         <v>4</v>
       </c>
-      <c r="AZ25" s="2">
-        <v>1</v>
-      </c>
       <c r="BA25" s="2">
         <v>1</v>
       </c>
@@ -6534,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -6585,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="BU25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW25" s="2">
         <v>0</v>
@@ -6600,34 +6675,37 @@
         <v>0</v>
       </c>
       <c r="BZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB25" s="2">
         <v>0</v>
       </c>
       <c r="CC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE25" s="2">
         <v>0</v>
       </c>
-      <c r="CF25" t="s">
-        <v>223</v>
+      <c r="CF25" s="2">
+        <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CH25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="CI25" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -6655,11 +6733,11 @@
       <c r="H26" t="s">
         <v>69</v>
       </c>
-      <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6668,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -6685,27 +6763,29 @@
       <c r="R26" s="2">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
-        <v>99</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
-        <v>108</v>
-      </c>
-      <c r="V26" s="2"/>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>100</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>109</v>
+      </c>
       <c r="W26" s="2"/>
-      <c r="X26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s">
+        <v>115</v>
+      </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6715,45 +6795,43 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
-      <c r="AM26" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO26" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR26" s="2">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>177</v>
       </c>
       <c r="AS26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
         <v>44801</v>
       </c>
-      <c r="AU26" s="2">
-        <v>1</v>
-      </c>
       <c r="AV26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="2"/>
       <c r="AY26" s="2">
         <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6768,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
         <v>1</v>
       </c>
       <c r="BG26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="2">
         <v>0</v>
@@ -6848,17 +6926,20 @@
       <c r="CE26" s="2">
         <v>0</v>
       </c>
-      <c r="CF26" t="s">
-        <v>219</v>
+      <c r="CF26" s="2">
+        <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI26" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -6886,11 +6967,11 @@
       <c r="H27" t="s">
         <v>71</v>
       </c>
-      <c r="I27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -6899,16 +6980,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -6916,30 +6997,32 @@
       <c r="R27" s="2">
         <v>0</v>
       </c>
-      <c r="S27" t="s">
-        <v>97</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
-        <v>110</v>
-      </c>
-      <c r="V27" s="2"/>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>111</v>
+      </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="2"/>
-      <c r="AB27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="2"/>
+      <c r="AC27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -6948,43 +7031,41 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
-      <c r="AM27" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO27" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1">
         <v>44862</v>
       </c>
-      <c r="AU27" s="2">
-        <v>1</v>
-      </c>
       <c r="AV27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="2"/>
       <c r="AY27" s="2">
         <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
@@ -6999,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
         <v>1</v>
       </c>
       <c r="BG27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -7079,17 +7160,20 @@
       <c r="CE27" s="2">
         <v>0</v>
       </c>
-      <c r="CF27" t="s">
-        <v>220</v>
+      <c r="CF27" s="2">
+        <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI27" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -7117,26 +7201,26 @@
       <c r="H28" t="s">
         <v>70</v>
       </c>
-      <c r="I28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -7147,87 +7231,87 @@
       <c r="R28" s="2">
         <v>0</v>
       </c>
-      <c r="S28" t="s">
-        <v>97</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>108</v>
-      </c>
-      <c r="V28" s="2"/>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>98</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>109</v>
+      </c>
       <c r="W28" s="2"/>
-      <c r="X28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AB28" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>1</v>
+      <c r="AB28" s="2"/>
+      <c r="AC28" t="s">
+        <v>140</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2">
+        <v>1</v>
+      </c>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
-      <c r="AM28" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="AO28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1">
+        <v>164</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1">
         <v>44798</v>
       </c>
-      <c r="AU28" s="2">
-        <v>1</v>
-      </c>
       <c r="AV28" s="2">
         <v>1</v>
       </c>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2">
+      <c r="AW28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2">
         <v>4</v>
       </c>
-      <c r="AY28" s="2">
+      <c r="AZ28" s="2">
         <v>3</v>
       </c>
-      <c r="AZ28" s="2">
-        <v>1</v>
-      </c>
       <c r="BA28" s="2">
         <v>1</v>
       </c>
       <c r="BB28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="2">
         <v>0</v>
@@ -7284,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="BU28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW28" s="2">
         <v>0</v>
@@ -7308,25 +7392,28 @@
         <v>0</v>
       </c>
       <c r="CC28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE28" s="2">
         <v>0</v>
       </c>
-      <c r="CF28" t="s">
-        <v>220</v>
+      <c r="CF28" s="2">
+        <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI28" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="29">
@@ -7354,17 +7441,17 @@
       <c r="H29" t="s">
         <v>71</v>
       </c>
-      <c r="I29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>78</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -7384,31 +7471,33 @@
       <c r="R29" s="2">
         <v>0</v>
       </c>
-      <c r="S29" t="s">
-        <v>97</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>108</v>
-      </c>
-      <c r="V29" s="2"/>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>98</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>109</v>
+      </c>
       <c r="W29" s="2"/>
-      <c r="X29" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2">
+        <v>1</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
@@ -7416,49 +7505,47 @@
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
-      <c r="AM29" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO29" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1">
         <v>44862</v>
       </c>
-      <c r="AU29" s="2">
-        <v>1</v>
-      </c>
       <c r="AV29" s="2">
         <v>1</v>
       </c>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2">
+      <c r="AW29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2">
         <v>6</v>
       </c>
-      <c r="AY29" s="2">
+      <c r="AZ29" s="2">
         <v>2</v>
       </c>
-      <c r="AZ29" s="2">
-        <v>1</v>
-      </c>
       <c r="BA29" s="2">
         <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -7491,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="BM29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO29" s="2">
         <v>0</v>
@@ -7515,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="BU29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW29" s="2">
         <v>0</v>
@@ -7530,34 +7617,37 @@
         <v>0</v>
       </c>
       <c r="BZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB29" s="2">
         <v>0</v>
       </c>
       <c r="CC29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE29" s="2">
         <v>0</v>
       </c>
-      <c r="CF29" t="s">
-        <v>220</v>
+      <c r="CF29" s="2">
+        <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI29" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -7585,11 +7675,11 @@
       <c r="H30" t="s">
         <v>71</v>
       </c>
-      <c r="I30" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7598,16 +7688,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -7615,75 +7705,75 @@
       <c r="R30" s="2">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
-        <v>102</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
-        <v>110</v>
-      </c>
-      <c r="V30" s="2"/>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>111</v>
+      </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="2"/>
+      <c r="AC30" t="s">
+        <v>115</v>
+      </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2">
+        <v>1</v>
+      </c>
       <c r="AL30" s="2"/>
-      <c r="AM30" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="AO30" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="1">
+        <v>165</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="1">
         <v>45057</v>
       </c>
-      <c r="AU30" s="2">
-        <v>1</v>
-      </c>
       <c r="AV30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="2"/>
       <c r="AY30" s="2">
         <v>1</v>
       </c>
       <c r="AZ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="2">
         <v>0</v>
@@ -7698,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="BE30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF30" s="2">
         <v>1</v>
       </c>
       <c r="BG30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH30" s="2">
         <v>0</v>
@@ -7778,17 +7868,20 @@
       <c r="CE30" s="2">
         <v>0</v>
       </c>
-      <c r="CF30" t="s">
-        <v>219</v>
+      <c r="CF30" s="2">
+        <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI30" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="31">
@@ -7816,17 +7909,17 @@
       <c r="H31" t="s">
         <v>72</v>
       </c>
-      <c r="I31" t="s">
-        <v>77</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -7846,98 +7939,98 @@
       <c r="R31" s="2">
         <v>0</v>
       </c>
-      <c r="S31" t="s">
-        <v>97</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>108</v>
-      </c>
-      <c r="V31" s="2"/>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>98</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>109</v>
+      </c>
       <c r="W31" s="2"/>
-      <c r="X31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
-      <c r="AB31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2">
+        <v>1</v>
+      </c>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2">
+        <v>1</v>
+      </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
-      <c r="AM31" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO31" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1">
         <v>44900</v>
       </c>
-      <c r="AU31" s="2">
-        <v>1</v>
-      </c>
       <c r="AV31" s="2">
         <v>1</v>
       </c>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2">
+      <c r="AW31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2">
         <v>6</v>
       </c>
-      <c r="AY31" s="2">
+      <c r="AZ31" s="2">
         <v>4</v>
       </c>
-      <c r="AZ31" s="2">
-        <v>1</v>
-      </c>
       <c r="BA31" s="2">
         <v>1</v>
       </c>
       <c r="BB31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="2">
         <v>1</v>
       </c>
       <c r="BE31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH31" s="2">
         <v>0</v>
@@ -7979,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="BU31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW31" s="2">
         <v>0</v>
@@ -8000,28 +8093,31 @@
         <v>0</v>
       </c>
       <c r="CB31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" s="2">
         <v>1</v>
       </c>
       <c r="CD31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE31" s="2">
         <v>0</v>
       </c>
-      <c r="CF31" t="s">
-        <v>220</v>
+      <c r="CF31" s="2">
+        <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI31" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="32">
@@ -8049,11 +8145,11 @@
       <c r="H32" t="s">
         <v>71</v>
       </c>
-      <c r="I32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8062,16 +8158,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -8079,30 +8175,32 @@
       <c r="R32" s="2">
         <v>0</v>
       </c>
-      <c r="S32" t="s">
-        <v>97</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>110</v>
-      </c>
-      <c r="V32" s="2"/>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>98</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>111</v>
+      </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
@@ -8111,43 +8209,41 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
-      <c r="AM32" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1">
         <v>44845</v>
       </c>
-      <c r="AU32" s="2">
-        <v>1</v>
-      </c>
       <c r="AV32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="2"/>
       <c r="AY32" s="2">
         <v>1</v>
       </c>
       <c r="AZ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32" s="2">
         <v>0</v>
@@ -8162,13 +8258,13 @@
         <v>0</v>
       </c>
       <c r="BE32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF32" s="2">
         <v>1</v>
       </c>
       <c r="BG32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH32" s="2">
         <v>0</v>
@@ -8242,17 +8338,20 @@
       <c r="CE32" s="2">
         <v>0</v>
       </c>
-      <c r="CF32" t="s">
-        <v>219</v>
+      <c r="CF32" s="2">
+        <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI32" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -8280,11 +8379,11 @@
       <c r="H33" t="s">
         <v>69</v>
       </c>
-      <c r="I33" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>83</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8296,13 +8395,13 @@
         <v>1</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -8310,83 +8409,83 @@
       <c r="R33" s="2">
         <v>0</v>
       </c>
-      <c r="S33" t="s">
-        <v>97</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>117</v>
-      </c>
-      <c r="V33" s="2"/>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>98</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>118</v>
+      </c>
       <c r="W33" s="2"/>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2">
+        <v>1</v>
+      </c>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2">
+        <v>1</v>
+      </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
-      <c r="AM33" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="AO33" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="1">
+        <v>166</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1">
         <v>44853</v>
       </c>
-      <c r="AU33" s="2">
-        <v>1</v>
-      </c>
       <c r="AV33" s="2">
         <v>1</v>
       </c>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2">
+      <c r="AW33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2">
         <v>8</v>
       </c>
-      <c r="AY33" s="2">
+      <c r="AZ33" s="2">
         <v>7</v>
       </c>
-      <c r="AZ33" s="2">
-        <v>1</v>
-      </c>
       <c r="BA33" s="2">
         <v>1</v>
       </c>
       <c r="BB33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC33" s="2">
         <v>0</v>
@@ -8395,19 +8494,19 @@
         <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="2">
         <v>1</v>
       </c>
       <c r="BG33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ33" s="2">
         <v>0</v>
@@ -8443,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="BU33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW33" s="2">
         <v>0</v>
@@ -8467,25 +8566,28 @@
         <v>0</v>
       </c>
       <c r="CC33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE33" s="2">
         <v>0</v>
       </c>
-      <c r="CF33" t="s">
-        <v>220</v>
+      <c r="CF33" s="2">
+        <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI33" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -8513,26 +8615,26 @@
       <c r="H34" t="s">
         <v>73</v>
       </c>
-      <c r="I34" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2">
         <v>0</v>
@@ -8543,78 +8645,78 @@
       <c r="R34" s="2">
         <v>0</v>
       </c>
-      <c r="S34" t="s">
-        <v>103</v>
-      </c>
-      <c r="T34" s="2">
-        <v>1</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>104</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
         <v>73</v>
       </c>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2">
-        <v>1</v>
-      </c>
-      <c r="X34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
-      <c r="AB34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2">
+        <v>1</v>
+      </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
-      <c r="AM34" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="1">
         <v>44845</v>
       </c>
-      <c r="AU34" s="2">
-        <v>1</v>
-      </c>
       <c r="AV34" s="2">
         <v>1</v>
       </c>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2">
+      <c r="AW34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2">
         <v>3</v>
       </c>
-      <c r="AY34" s="2">
+      <c r="AZ34" s="2">
         <v>2</v>
       </c>
-      <c r="AZ34" s="2">
-        <v>0</v>
-      </c>
       <c r="BA34" s="2">
         <v>0</v>
       </c>
@@ -8667,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="BR34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT34" s="2">
         <v>0</v>
@@ -8708,17 +8810,20 @@
       <c r="CE34" s="2">
         <v>0</v>
       </c>
-      <c r="CF34" t="s">
-        <v>220</v>
+      <c r="CF34" s="2">
+        <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI34" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -8746,17 +8851,17 @@
       <c r="H35" t="s">
         <v>71</v>
       </c>
-      <c r="I35" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -8776,79 +8881,79 @@
       <c r="R35" s="2">
         <v>0</v>
       </c>
-      <c r="S35" t="s">
-        <v>97</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>108</v>
-      </c>
-      <c r="V35" s="2"/>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>109</v>
+      </c>
       <c r="W35" s="2"/>
-      <c r="X35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
-      <c r="AB35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2">
+        <v>1</v>
+      </c>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2">
+        <v>1</v>
+      </c>
       <c r="AL35" s="2"/>
-      <c r="AM35" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AO35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="1">
+        <v>167</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="1">
         <v>45012</v>
       </c>
-      <c r="AU35" s="2">
-        <v>1</v>
-      </c>
       <c r="AV35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="2"/>
       <c r="AY35" s="2">
         <v>3</v>
       </c>
       <c r="AZ35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA35" s="2">
         <v>1</v>
@@ -8860,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="BD35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35" s="2">
         <v>0</v>
@@ -8911,10 +9016,10 @@
         <v>0</v>
       </c>
       <c r="BU35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW35" s="2">
         <v>0</v>
@@ -8935,25 +9040,28 @@
         <v>0</v>
       </c>
       <c r="CC35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" s="2">
         <v>0</v>
       </c>
-      <c r="CF35" t="s">
-        <v>220</v>
+      <c r="CF35" s="2">
+        <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI35" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ35" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="36">
@@ -8981,17 +9089,17 @@
       <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="I36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -9011,30 +9119,32 @@
       <c r="R36" s="2">
         <v>0</v>
       </c>
-      <c r="S36" t="s">
-        <v>104</v>
-      </c>
-      <c r="T36" s="2">
-        <v>1</v>
-      </c>
-      <c r="U36" t="s">
-        <v>109</v>
-      </c>
-      <c r="V36" s="2"/>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>110</v>
+      </c>
       <c r="W36" s="2"/>
-      <c r="X36" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
-      <c r="AB36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -9043,49 +9153,47 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
-      <c r="AM36" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="1">
         <v>44957</v>
       </c>
-      <c r="AU36" s="2">
-        <v>1</v>
-      </c>
       <c r="AV36" s="2">
         <v>1</v>
       </c>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2">
+      <c r="AW36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2">
         <v>4</v>
       </c>
-      <c r="AY36" s="2">
+      <c r="AZ36" s="2">
         <v>2</v>
       </c>
-      <c r="AZ36" s="2">
-        <v>1</v>
-      </c>
       <c r="BA36" s="2">
         <v>1</v>
       </c>
       <c r="BB36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC36" s="2">
         <v>0</v>
@@ -9142,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="BU36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW36" s="2">
         <v>0</v>
@@ -9166,25 +9274,28 @@
         <v>0</v>
       </c>
       <c r="CC36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE36" s="2">
         <v>0</v>
       </c>
-      <c r="CF36" t="s">
-        <v>220</v>
+      <c r="CF36" s="2">
+        <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI36" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="37">
@@ -9212,17 +9323,17 @@
       <c r="H37" t="s">
         <v>72</v>
       </c>
-      <c r="I37" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -9242,85 +9353,85 @@
       <c r="R37" s="2">
         <v>0</v>
       </c>
-      <c r="S37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
-        <v>118</v>
-      </c>
-      <c r="V37" s="2"/>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>98</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>119</v>
+      </c>
       <c r="W37" s="2"/>
-      <c r="X37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2">
+        <v>1</v>
+      </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2">
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2">
         <v>-1</v>
       </c>
-      <c r="AB37" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC37" s="2">
+      <c r="AC37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD37" s="2">
         <v>-1</v>
       </c>
-      <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
-      <c r="AF37" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF37" s="2"/>
       <c r="AG37" s="2">
         <v>1</v>
       </c>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="2">
+        <v>1</v>
+      </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
-      <c r="AM37" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="AO37" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP37" t="s">
         <v>72</v>
       </c>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="1">
+      <c r="AQ37" s="2"/>
+      <c r="AR37" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1">
         <v>44931</v>
       </c>
-      <c r="AU37" s="2">
-        <v>1</v>
-      </c>
       <c r="AV37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="2"/>
       <c r="AY37" s="2">
         <v>3</v>
       </c>
       <c r="AZ37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA37" s="2">
         <v>1</v>
       </c>
       <c r="BB37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC37" s="2">
         <v>0</v>
@@ -9329,13 +9440,13 @@
         <v>0</v>
       </c>
       <c r="BE37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="2">
         <v>1</v>
       </c>
       <c r="BG37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH37" s="2">
         <v>0</v>
@@ -9377,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="BU37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW37" s="2">
         <v>0</v>
@@ -9401,25 +9512,28 @@
         <v>0</v>
       </c>
       <c r="CC37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE37" s="2">
         <v>0</v>
       </c>
-      <c r="CF37" t="s">
-        <v>220</v>
+      <c r="CF37" s="2">
+        <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI37" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38">
@@ -9447,17 +9561,17 @@
       <c r="H38" t="s">
         <v>69</v>
       </c>
-      <c r="I38" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -9477,33 +9591,35 @@
       <c r="R38" s="2">
         <v>0</v>
       </c>
-      <c r="S38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" t="s">
-        <v>108</v>
-      </c>
-      <c r="V38" s="2"/>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>98</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>109</v>
+      </c>
       <c r="W38" s="2"/>
-      <c r="X38" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2">
+        <v>1</v>
+      </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC38" s="2">
+      <c r="AB38" s="2"/>
+      <c r="AC38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD38" s="2">
         <v>-1</v>
       </c>
-      <c r="AD38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
@@ -9511,44 +9627,42 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1">
         <v>44893</v>
       </c>
-      <c r="AU38" s="2">
-        <v>1</v>
-      </c>
       <c r="AV38" s="2">
         <v>1</v>
       </c>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2">
+      <c r="AW38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2">
         <v>4</v>
       </c>
-      <c r="AY38" s="2">
+      <c r="AZ38" s="2">
         <v>3</v>
       </c>
-      <c r="AZ38" s="2">
-        <v>1</v>
-      </c>
       <c r="BA38" s="2">
         <v>1</v>
       </c>
@@ -9559,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="BD38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE38" s="2">
         <v>0</v>
@@ -9610,10 +9724,10 @@
         <v>0</v>
       </c>
       <c r="BU38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38" s="2">
         <v>0</v>
@@ -9634,25 +9748,28 @@
         <v>0</v>
       </c>
       <c r="CC38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE38" s="2">
         <v>0</v>
       </c>
-      <c r="CF38" t="s">
-        <v>220</v>
+      <c r="CF38" s="2">
+        <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI38" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39">
@@ -9680,11 +9797,11 @@
       <c r="H39" t="s">
         <v>72</v>
       </c>
-      <c r="I39" t="s">
-        <v>85</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>86</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9693,49 +9810,51 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
-      <c r="S39" t="s">
-        <v>97</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>112</v>
-      </c>
-      <c r="V39" s="2"/>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>98</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>113</v>
+      </c>
       <c r="W39" s="2"/>
-      <c r="X39" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2">
+        <v>1</v>
+      </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="2">
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2">
         <v>-1</v>
       </c>
-      <c r="AB39" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC39" s="2">
+      <c r="AC39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD39" s="2">
         <v>-1</v>
       </c>
-      <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
@@ -9744,44 +9863,42 @@
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO39" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
         <v>44930</v>
       </c>
-      <c r="AU39" s="2">
-        <v>1</v>
-      </c>
       <c r="AV39" s="2">
         <v>1</v>
       </c>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2">
+      <c r="AW39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2">
         <v>4</v>
       </c>
-      <c r="AY39" s="2">
+      <c r="AZ39" s="2">
         <v>2</v>
       </c>
-      <c r="AZ39" s="2">
-        <v>0</v>
-      </c>
       <c r="BA39" s="2">
         <v>0</v>
       </c>
@@ -9801,13 +9918,13 @@
         <v>0</v>
       </c>
       <c r="BG39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="2">
         <v>1</v>
       </c>
       <c r="BI39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ39" s="2">
         <v>0</v>
@@ -9828,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="BP39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR39" s="2">
         <v>0</v>
@@ -9858,16 +9975,16 @@
         <v>0</v>
       </c>
       <c r="BZ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD39" s="2">
         <v>0</v>
@@ -9875,17 +9992,20 @@
       <c r="CE39" s="2">
         <v>0</v>
       </c>
-      <c r="CF39" t="s">
-        <v>220</v>
+      <c r="CF39" s="2">
+        <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI39" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -9913,11 +10033,11 @@
       <c r="H40" t="s">
         <v>71</v>
       </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -9926,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -9943,81 +10063,81 @@
       <c r="R40" s="2">
         <v>0</v>
       </c>
-      <c r="S40" t="s">
-        <v>104</v>
-      </c>
-      <c r="T40" s="2">
-        <v>1</v>
-      </c>
-      <c r="U40" t="s">
-        <v>108</v>
-      </c>
-      <c r="V40" s="2"/>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>109</v>
+      </c>
       <c r="W40" s="2"/>
-      <c r="X40" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2">
+        <v>1</v>
+      </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" t="s">
+        <v>145</v>
+      </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
-      <c r="AF40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>1</v>
+      </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
-      <c r="AM40" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO40" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="1">
         <v>45061</v>
       </c>
-      <c r="AU40" s="2">
-        <v>1</v>
-      </c>
       <c r="AV40" s="2">
         <v>1</v>
       </c>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2">
+      <c r="AW40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2">
         <v>6</v>
       </c>
-      <c r="AY40" s="2">
+      <c r="AZ40" s="2">
         <v>3</v>
       </c>
-      <c r="AZ40" s="2">
-        <v>1</v>
-      </c>
       <c r="BA40" s="2">
         <v>1</v>
       </c>
       <c r="BB40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC40" s="2">
         <v>0</v>
@@ -10050,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="BM40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO40" s="2">
         <v>0</v>
@@ -10074,10 +10194,10 @@
         <v>0</v>
       </c>
       <c r="BU40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW40" s="2">
         <v>0</v>
@@ -10098,25 +10218,28 @@
         <v>0</v>
       </c>
       <c r="CC40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE40" s="2">
         <v>0</v>
       </c>
-      <c r="CF40" t="s">
-        <v>220</v>
+      <c r="CF40" s="2">
+        <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI40" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ40" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -10144,11 +10267,11 @@
       <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="I41" t="s">
-        <v>85</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>86</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10157,96 +10280,96 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
-      <c r="S41" t="s">
-        <v>97</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" t="s">
-        <v>119</v>
-      </c>
-      <c r="V41" s="2"/>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>98</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>120</v>
+      </c>
       <c r="W41" s="2"/>
-      <c r="X41" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2">
+        <v>1</v>
+      </c>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>1</v>
+      </c>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO41" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="1">
+        <v>115</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="1">
         <v>44930</v>
       </c>
-      <c r="AU41" s="2">
-        <v>1</v>
-      </c>
       <c r="AV41" s="2">
         <v>1</v>
       </c>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2">
+      <c r="AW41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2">
         <v>3</v>
       </c>
-      <c r="AY41" s="2">
-        <v>1</v>
-      </c>
       <c r="AZ41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="2">
         <v>0</v>
@@ -10267,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="BG41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH41" s="2">
         <v>1</v>
       </c>
       <c r="BI41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ41" s="2">
         <v>0</v>
@@ -10294,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="BP41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR41" s="2">
         <v>0</v>
@@ -10341,17 +10464,20 @@
       <c r="CE41" s="2">
         <v>0</v>
       </c>
-      <c r="CF41" t="s">
-        <v>220</v>
+      <c r="CF41" s="2">
+        <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="CH41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CI41" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42">
@@ -10379,11 +10505,11 @@
       <c r="H42" t="s">
         <v>71</v>
       </c>
-      <c r="I42" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0</v>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10392,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
@@ -10409,33 +10535,35 @@
       <c r="R42" s="2">
         <v>0</v>
       </c>
-      <c r="S42" t="s">
-        <v>97</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>108</v>
-      </c>
-      <c r="V42" s="2"/>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>98</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>109</v>
+      </c>
       <c r="W42" s="2"/>
-      <c r="X42" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2">
+        <v>1</v>
+      </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
-      <c r="AB42" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC42" s="2">
+      <c r="AB42" s="2"/>
+      <c r="AC42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD42" s="2">
         <v>-1</v>
       </c>
-      <c r="AD42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" s="2">
+        <v>1</v>
+      </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
@@ -10443,43 +10571,41 @@
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>114</v>
-      </c>
+      <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="AO42" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="1">
+        <v>169</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="1">
         <v>44930</v>
       </c>
-      <c r="AU42" s="2">
-        <v>1</v>
-      </c>
       <c r="AV42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="2"/>
       <c r="AY42" s="2">
         <v>1</v>
       </c>
       <c r="AZ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="2">
         <v>0</v>
@@ -10494,13 +10620,13 @@
         <v>0</v>
       </c>
       <c r="BE42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="2">
         <v>1</v>
       </c>
       <c r="BG42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH42" s="2">
         <v>0</v>
@@ -10574,17 +10700,20 @@
       <c r="CE42" s="2">
         <v>0</v>
       </c>
-      <c r="CF42" t="s">
-        <v>219</v>
+      <c r="CF42" s="2">
+        <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI42" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="43">
@@ -10612,11 +10741,11 @@
       <c r="H43" t="s">
         <v>71</v>
       </c>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10625,16 +10754,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
@@ -10642,77 +10771,77 @@
       <c r="R43" s="2">
         <v>0</v>
       </c>
-      <c r="S43" t="s">
-        <v>105</v>
-      </c>
-      <c r="T43" s="2">
-        <v>1</v>
-      </c>
-      <c r="U43" t="s">
-        <v>110</v>
-      </c>
-      <c r="V43" s="2"/>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>106</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>111</v>
+      </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="2"/>
-      <c r="AB43" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>1</v>
+      </c>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>114</v>
-      </c>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="AO43" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="1">
+        <v>170</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
         <v>45009</v>
       </c>
-      <c r="AU43" s="2">
-        <v>1</v>
-      </c>
       <c r="AV43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="2"/>
       <c r="AY43" s="2">
         <v>1</v>
       </c>
       <c r="AZ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="2">
         <v>0</v>
@@ -10727,13 +10856,13 @@
         <v>0</v>
       </c>
       <c r="BE43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF43" s="2">
         <v>1</v>
       </c>
       <c r="BG43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH43" s="2">
         <v>0</v>
@@ -10807,17 +10936,20 @@
       <c r="CE43" s="2">
         <v>0</v>
       </c>
-      <c r="CF43" t="s">
-        <v>219</v>
+      <c r="CF43" s="2">
+        <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="CH43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="CI43" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="886" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="924" uniqueCount="243">
   <si>
     <t>sampleid</t>
   </si>
@@ -135,9 +135,15 @@
     <t>300869</t>
   </si>
   <si>
+    <t>300889</t>
+  </si>
+  <si>
     <t>300891</t>
   </si>
   <si>
+    <t>300892</t>
+  </si>
+  <si>
     <t>300893</t>
   </si>
   <si>
@@ -490,6 +496,9 @@
   </si>
   <si>
     <t>clumped together - wet</t>
+  </si>
+  <si>
+    <t>chalky</t>
   </si>
   <si>
     <t>sensation_notes</t>
@@ -780,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ43"/>
+  <dimension ref="A1:CJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,265 +800,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" t="s">
-        <v>73</v>
-      </c>
       <c r="Y1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AE1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AF1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AH1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AJ1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AM1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AO1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AP1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AQ1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AR1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AS1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AT1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AU1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AV1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AW1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AX1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AY1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AZ1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BA1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BB1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BC1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BD1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BE1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BF1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BG1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BH1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BI1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BJ1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BK1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BL1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BM1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BN1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BO1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BP1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BQ1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BR1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BS1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BT1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BU1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BV1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BW1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BX1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BY1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BZ1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="CA1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CB1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CC1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CD1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CE1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CF1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CG1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CH1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CI1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="CJ1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
@@ -1057,31 +1066,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1111,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1128,7 +1137,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1145,19 +1154,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1276,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
@@ -1293,31 +1302,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1347,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1364,7 +1373,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1381,19 +1390,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1512,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -1529,31 +1538,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1583,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1600,7 +1609,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1615,19 +1624,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1746,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
@@ -1763,31 +1772,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1817,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1834,7 +1843,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1851,19 +1860,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -1982,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="CJ5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -1999,31 +2008,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2053,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2070,7 +2079,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2089,19 +2098,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2220,16 +2229,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="CJ6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -2237,31 +2246,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2291,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2310,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2327,19 +2336,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2458,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
@@ -2475,31 +2484,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2529,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2546,7 +2555,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2561,19 +2570,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2692,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CI8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="CJ8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -2709,31 +2718,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2763,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2780,7 +2789,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2799,19 +2808,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2930,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10">
@@ -2947,31 +2956,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3001,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3020,7 +3029,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3033,19 +3042,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3164,16 +3173,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11">
@@ -3181,31 +3190,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3235,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3252,7 +3261,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3267,19 +3276,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3398,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
@@ -3415,31 +3424,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3469,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3488,7 +3497,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3503,19 +3512,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3634,16 +3643,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13">
@@ -3651,31 +3660,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3705,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3722,7 +3731,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3743,19 +3752,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3874,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14">
@@ -3891,31 +3900,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3945,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3962,7 +3971,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -3979,19 +3988,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AP14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4110,16 +4119,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
@@ -4127,31 +4136,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4181,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4198,7 +4207,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4213,19 +4222,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4344,16 +4353,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
@@ -4361,31 +4370,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4415,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4432,7 +4441,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4451,19 +4460,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4582,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17">
@@ -4599,31 +4608,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4653,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4670,7 +4679,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4689,19 +4698,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AP17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4820,16 +4829,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18">
@@ -4837,31 +4846,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4891,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4906,7 +4915,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4919,19 +4928,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5050,16 +5059,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -5067,31 +5076,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5121,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5138,7 +5147,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5155,19 +5164,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AO19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5286,16 +5295,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ19" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
@@ -5303,31 +5312,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5357,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5372,7 +5381,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5389,19 +5398,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5520,16 +5529,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
@@ -5537,31 +5546,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5591,13 +5600,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5608,7 +5617,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5623,19 +5632,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AP21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5754,16 +5763,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
@@ -5771,31 +5780,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5825,13 +5834,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5842,7 +5851,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5857,19 +5866,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -5988,16 +5997,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
@@ -6005,31 +6014,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6059,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6078,7 +6087,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6093,19 +6102,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6224,16 +6233,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ23" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
@@ -6241,31 +6250,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6295,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6312,7 +6321,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6329,19 +6338,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6460,16 +6469,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH24" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ24" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -6477,31 +6486,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6531,13 +6540,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6548,7 +6557,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6565,19 +6574,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AP25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6696,16 +6705,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH25" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
@@ -6713,31 +6722,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6767,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6784,7 +6793,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6797,19 +6806,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6930,16 +6939,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH26" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ26" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -6947,31 +6956,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7001,13 +7010,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7018,7 +7027,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7033,19 +7042,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7164,16 +7173,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
@@ -7181,31 +7190,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7235,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7252,7 +7261,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7273,19 +7282,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7404,16 +7413,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ28" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
@@ -7421,31 +7430,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7475,13 +7484,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7492,7 +7501,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7507,19 +7516,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7638,16 +7647,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
@@ -7655,31 +7664,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7709,13 +7718,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7726,7 +7735,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7741,19 +7750,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7872,16 +7881,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
@@ -7889,31 +7898,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -7943,13 +7952,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -7960,7 +7969,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -7977,19 +7986,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8108,16 +8117,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI31" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
@@ -8125,31 +8134,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8179,13 +8188,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8196,7 +8205,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8211,19 +8220,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8342,16 +8351,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CJ32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33">
@@ -8359,31 +8368,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8413,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8430,7 +8439,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8447,19 +8456,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8578,16 +8587,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH33" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ33" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
@@ -8595,31 +8604,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8649,13 +8658,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8666,7 +8675,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8683,19 +8692,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8814,16 +8823,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ34" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
@@ -8831,31 +8840,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8885,13 +8894,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8902,7 +8911,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8921,19 +8930,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9052,16 +9061,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH35" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ35" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36">
@@ -9069,31 +9078,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9123,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9140,7 +9149,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9155,19 +9164,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9286,16 +9295,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -9303,31 +9312,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9357,13 +9366,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9376,7 +9385,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9395,17 +9404,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9524,16 +9533,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH37" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ37" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38">
@@ -9541,31 +9550,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9595,13 +9604,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9612,7 +9621,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9629,19 +9638,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9760,16 +9769,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI38" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
@@ -9777,31 +9786,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9831,13 +9840,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9850,7 +9859,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9865,19 +9874,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -9996,16 +10005,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH39" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ39" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
@@ -10013,31 +10022,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10067,13 +10076,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10084,7 +10093,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10099,19 +10108,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP40" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10230,16 +10239,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CH40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CJ40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41">
@@ -10247,31 +10256,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F41" s="1">
-        <v>44908</v>
+        <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10289,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -10301,13 +10310,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10316,57 +10325,53 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
-      <c r="AB41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AD41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
-      <c r="AI41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="AO41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AP41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
         <v>0</v>
       </c>
       <c r="AU41" s="1">
-        <v>44930</v>
+        <v>45111</v>
       </c>
       <c r="AV41" s="2">
         <v>1</v>
       </c>
       <c r="AW41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="2"/>
       <c r="AY41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="2">
         <v>1</v>
@@ -10387,16 +10392,16 @@
         <v>0</v>
       </c>
       <c r="BF41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ41" s="2">
         <v>0</v>
@@ -10420,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="BQ41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR41" s="2">
         <v>0</v>
@@ -10468,16 +10473,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="CH41" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="CJ41" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -10485,16 +10490,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
@@ -10509,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10527,10 +10532,10 @@
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -10539,13 +10544,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10554,38 +10559,40 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
+      <c r="AB42" s="2">
+        <v>1</v>
+      </c>
       <c r="AC42" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AD42" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE42" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
+      <c r="AI42" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO42" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="AP42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10598,11 +10605,11 @@
         <v>1</v>
       </c>
       <c r="AW42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="2"/>
       <c r="AY42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ42" s="2">
         <v>1</v>
@@ -10623,16 +10630,16 @@
         <v>0</v>
       </c>
       <c r="BF42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ42" s="2">
         <v>0</v>
@@ -10656,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="BQ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR42" s="2">
         <v>0</v>
@@ -10704,16 +10711,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="CH42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI42" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="CJ42" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -10721,19 +10728,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F43" s="1">
-        <v>44994</v>
+        <v>45106</v>
       </c>
       <c r="G43" t="s">
         <v>71</v>
@@ -10745,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10775,13 +10782,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="U43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10792,10 +10799,10 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AD43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
@@ -10804,31 +10811,29 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
-      <c r="AL43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO43" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="AP43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
         <v>0</v>
       </c>
       <c r="AU43" s="1">
-        <v>45009</v>
+        <v>45111</v>
       </c>
       <c r="AV43" s="2">
         <v>1</v>
@@ -10940,16 +10945,488 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CH43" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CI43" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44908</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>100</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>111</v>
+      </c>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>44930</v>
+      </c>
+      <c r="AV44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH44" t="s">
         <v>229</v>
       </c>
-      <c r="CJ43" t="s">
-        <v>235</v>
+      <c r="CI44" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44994</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
+        <v>108</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>113</v>
+      </c>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="2"/>
+      <c r="AC45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="2"/>
+      <c r="AN45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>45009</v>
+      </c>
+      <c r="AV45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG45" t="s">
+        <v>223</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>229</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="924" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="943" uniqueCount="246">
   <si>
     <t>sampleid</t>
   </si>
@@ -150,6 +150,9 @@
     <t>400415</t>
   </si>
   <si>
+    <t>400499</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>gabapentin</t>
+  </si>
+  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -499,6 +505,9 @@
   </si>
   <si>
     <t>chalky</t>
+  </si>
+  <si>
+    <t>SG 180</t>
   </si>
   <si>
     <t>sensation_notes</t>
@@ -789,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ45"/>
+  <dimension ref="A1:CJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,265 +809,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" t="s">
-        <v>75</v>
-      </c>
       <c r="Y1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AE1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AH1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AI1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AJ1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AO1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AP1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AQ1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AR1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AS1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AT1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AU1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AV1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AW1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AX1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AY1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AZ1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BA1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BB1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BC1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BD1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BE1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BF1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BG1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BH1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BI1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BJ1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BK1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BL1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BM1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BN1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BO1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BP1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BQ1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BR1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BS1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BT1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BU1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BV1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BW1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="BX1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BY1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BZ1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CA1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="CB1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="CC1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="CD1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="CE1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="CF1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="CG1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="CH1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="CI1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="CJ1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
@@ -1066,31 +1075,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1120,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1137,7 +1146,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1154,19 +1163,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1285,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
@@ -1302,31 +1311,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1356,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1373,7 +1382,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1390,19 +1399,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1521,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
@@ -1538,31 +1547,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1592,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1609,7 +1618,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1624,19 +1633,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1755,16 +1764,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
@@ -1772,31 +1781,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1826,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1843,7 +1852,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1860,19 +1869,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -1991,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CH5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CI5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="CJ5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -2008,31 +2017,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2062,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2079,7 +2088,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2098,19 +2107,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2229,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CH6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CI6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="CJ6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
@@ -2246,31 +2255,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2300,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2319,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2336,19 +2345,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2467,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8">
@@ -2484,31 +2493,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2538,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2555,7 +2564,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2570,19 +2579,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2701,16 +2710,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="CH8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="CI8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="CJ8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -2718,31 +2727,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2772,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2789,7 +2798,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2808,19 +2817,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2939,16 +2948,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CH9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="CJ9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -2956,31 +2965,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3010,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3029,7 +3038,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3042,19 +3051,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3173,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
@@ -3190,31 +3199,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3244,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3261,7 +3270,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3276,19 +3285,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3407,16 +3416,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12">
@@ -3424,31 +3433,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3478,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3497,7 +3506,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3512,19 +3521,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3643,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13">
@@ -3660,31 +3669,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3714,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3731,7 +3740,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3752,19 +3761,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3883,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="CH13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="CJ13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14">
@@ -3900,31 +3909,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3954,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3971,7 +3980,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -3988,19 +3997,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AP14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4119,16 +4128,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
@@ -4136,31 +4145,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4190,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4207,7 +4216,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4222,19 +4231,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4353,16 +4362,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ15" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
@@ -4370,31 +4379,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4424,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4441,7 +4450,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4460,19 +4469,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4591,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ16" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
@@ -4608,31 +4617,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4662,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4679,7 +4688,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4698,19 +4707,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4829,16 +4838,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI17" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
@@ -4846,31 +4855,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4900,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4915,7 +4924,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4928,19 +4937,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5059,16 +5068,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
@@ -5076,31 +5085,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5130,13 +5139,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5147,7 +5156,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5164,19 +5173,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5295,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ19" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20">
@@ -5312,31 +5321,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5366,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5381,7 +5390,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5398,19 +5407,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5529,16 +5538,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21">
@@ -5546,31 +5555,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5600,13 +5609,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5617,7 +5626,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5632,19 +5641,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AP21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5763,16 +5772,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
@@ -5780,31 +5789,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5834,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5851,7 +5860,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5866,19 +5875,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -5997,16 +6006,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
@@ -6014,31 +6023,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6068,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6087,7 +6096,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6102,19 +6111,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6233,16 +6242,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ23" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -6250,31 +6259,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6304,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6321,7 +6330,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6338,19 +6347,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6469,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH24" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ24" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -6486,31 +6495,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6540,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6557,7 +6566,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6574,19 +6583,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6705,16 +6714,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="CH25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="CJ25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
@@ -6722,31 +6731,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6776,13 +6785,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6793,7 +6802,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6806,19 +6815,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6939,16 +6948,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI26" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -6956,31 +6965,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7010,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7027,7 +7036,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7042,19 +7051,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7173,16 +7182,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH27" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -7190,31 +7199,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7244,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7261,7 +7270,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7282,19 +7291,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7413,16 +7422,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH28" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI28" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ28" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
@@ -7430,31 +7439,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7484,13 +7493,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7501,7 +7510,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7516,19 +7525,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7647,16 +7656,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -7664,31 +7673,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7718,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7735,7 +7744,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7750,19 +7759,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AP30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7881,16 +7890,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
@@ -7898,31 +7907,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -7952,13 +7961,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -7969,7 +7978,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -7986,19 +7995,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8117,16 +8126,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
@@ -8134,31 +8143,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8188,13 +8197,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8205,7 +8214,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8220,19 +8229,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8351,16 +8360,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
@@ -8368,31 +8377,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8422,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8439,7 +8448,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8456,19 +8465,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AP33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8587,16 +8596,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI33" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ33" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
@@ -8604,31 +8613,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8658,13 +8667,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8675,7 +8684,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8692,19 +8701,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8823,16 +8832,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ34" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
@@ -8840,31 +8849,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8894,13 +8903,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8911,7 +8920,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8930,19 +8939,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AP35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9061,16 +9070,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH35" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ35" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
@@ -9078,31 +9087,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9132,13 +9141,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9149,7 +9158,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9164,19 +9173,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9295,16 +9304,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37">
@@ -9312,31 +9321,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9366,13 +9375,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9385,7 +9394,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9404,17 +9413,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AP37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9533,16 +9542,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI37" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ37" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
@@ -9550,31 +9559,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9604,13 +9613,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9621,7 +9630,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9638,19 +9647,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9769,16 +9778,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH38" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI38" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ38" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
@@ -9786,31 +9795,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9840,13 +9849,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9859,7 +9868,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9874,19 +9883,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10005,16 +10014,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI39" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ39" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40">
@@ -10022,31 +10031,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10076,13 +10085,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10093,7 +10102,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10108,19 +10117,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10239,16 +10248,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH40" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41">
@@ -10256,31 +10265,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10310,13 +10319,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10327,7 +10336,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10342,19 +10351,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AO41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP41" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10473,16 +10482,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH41" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI41" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42">
@@ -10490,31 +10499,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10544,13 +10553,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10563,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10580,19 +10589,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10711,16 +10720,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="CH42" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI42" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CJ42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43">
@@ -10728,31 +10737,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10782,13 +10791,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10799,7 +10808,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10814,19 +10823,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AP43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -10945,16 +10954,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH43" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI43" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
@@ -10962,31 +10971,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11016,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11033,7 +11042,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11050,19 +11059,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AP44" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11181,16 +11190,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH44" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CJ44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -11198,31 +11207,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F45" s="1">
         <v>44994</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -11252,13 +11261,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11269,7 +11278,7 @@
       </c>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11286,19 +11295,19 @@
       </c>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AO45" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AP45" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AQ45" s="2">
         <v>0</v>
       </c>
       <c r="AR45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11417,16 +11426,248 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CH45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="CI45" t="s">
+        <v>235</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45092</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>106</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>76</v>
+      </c>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>45113</v>
+      </c>
+      <c r="AV46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG46" t="s">
+        <v>226</v>
+      </c>
+      <c r="CH46" t="s">
         <v>232</v>
       </c>
-      <c r="CJ45" t="s">
-        <v>238</v>
+      <c r="CI46" t="s">
+        <v>235</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="943" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="962" uniqueCount="254">
   <si>
     <t>sampleid</t>
   </si>
@@ -150,6 +150,9 @@
     <t>400415</t>
   </si>
   <si>
+    <t>400488</t>
+  </si>
+  <si>
     <t>400499</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Woodfin</t>
   </si>
   <si>
+    <t>Yancy County</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Alexander County</t>
   </si>
   <si>
+    <t>Brunswick County</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
@@ -390,6 +399,9 @@
     <t>powder; shiny</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
     <t>tar</t>
   </si>
   <si>
@@ -546,6 +558,9 @@
     <t>no legs</t>
   </si>
   <si>
+    <t>mouth ulcers</t>
+  </si>
+  <si>
     <t>overdose</t>
   </si>
   <si>
@@ -708,6 +723,9 @@
     <t>NC | ALEXANDER</t>
   </si>
   <si>
+    <t>NC | BRUNSWICK</t>
+  </si>
+  <si>
     <t>statefips</t>
   </si>
   <si>
@@ -735,6 +753,9 @@
     <t>003</t>
   </si>
   <si>
+    <t>019</t>
+  </si>
+  <si>
     <t>countyfips</t>
   </si>
   <si>
@@ -751,6 +772,9 @@
   </si>
   <si>
     <t>37003</t>
+  </si>
+  <si>
+    <t>37019</t>
   </si>
 </sst>
 </file>
@@ -798,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ46"/>
+  <dimension ref="A1:CJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -809,265 +833,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" t="s">
-        <v>76</v>
-      </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AA1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AD1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AE1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AI1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AJ1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AM1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AN1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AO1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AP1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AQ1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AR1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AS1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AT1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AU1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AV1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AW1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AX1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AY1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AZ1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="BA1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="BB1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="BC1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BD1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="BE1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="BF1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="BG1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="BH1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BI1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="BJ1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="BK1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BL1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="BM1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BN1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BO1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BP1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="BQ1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BR1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BS1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="BT1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="BU1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BV1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="BW1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="BX1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="BY1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="BZ1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="CA1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="CB1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="CC1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="CD1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="CE1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="CF1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="CG1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="CH1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CI1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="CJ1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -1075,31 +1099,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1129,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1146,7 +1170,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1163,19 +1187,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1294,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
@@ -1311,31 +1335,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1365,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1382,7 +1406,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1399,19 +1423,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1530,16 +1554,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
@@ -1547,31 +1571,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1601,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1618,7 +1642,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1633,19 +1657,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1764,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
@@ -1781,31 +1805,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1835,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1852,7 +1876,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1869,19 +1893,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2000,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="CH5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CI5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="CJ5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -2017,31 +2041,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2071,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2088,7 +2112,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2107,19 +2131,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2238,16 +2262,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="CH6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CI6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="CJ6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
@@ -2255,31 +2279,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2309,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2328,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2345,19 +2369,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2476,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -2493,31 +2517,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2547,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2564,7 +2588,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2579,19 +2603,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2710,16 +2734,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="CH8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CI8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="CJ8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -2727,31 +2751,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2781,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2798,7 +2822,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2817,19 +2841,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2948,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="CH9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CJ9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
@@ -2965,31 +2989,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3019,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3038,7 +3062,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3051,19 +3075,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3182,16 +3206,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ10" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
@@ -3199,31 +3223,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3253,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3270,7 +3294,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3285,19 +3309,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3416,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI11" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ11" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12">
@@ -3433,31 +3457,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3487,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3506,7 +3530,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3521,19 +3545,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3652,16 +3676,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13">
@@ -3669,31 +3693,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3723,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3740,7 +3764,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3761,19 +3785,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3892,16 +3916,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="CH13" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CJ13" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14">
@@ -3909,31 +3933,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3963,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3980,7 +4004,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -3997,19 +4021,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AP14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4128,16 +4152,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI14" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ14" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15">
@@ -4145,31 +4169,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4199,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4216,7 +4240,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4231,19 +4255,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4362,16 +4386,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH15" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ15" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16">
@@ -4379,31 +4403,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4433,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4450,7 +4474,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4469,19 +4493,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4600,16 +4624,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH16" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI16" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ16" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
@@ -4617,31 +4641,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4671,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4688,7 +4712,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4707,19 +4731,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AP17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4838,16 +4862,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH17" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18">
@@ -4855,31 +4879,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4909,13 +4933,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4924,7 +4948,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4937,19 +4961,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5068,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH18" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI18" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
@@ -5085,31 +5109,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5139,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5156,7 +5180,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5173,19 +5197,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AO19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP19" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5304,16 +5328,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH19" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI19" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
@@ -5321,31 +5345,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5375,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5390,7 +5414,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5407,19 +5431,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5538,16 +5562,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH20" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI20" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ20" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21">
@@ -5555,31 +5579,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5609,13 +5633,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5626,7 +5650,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5641,19 +5665,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AP21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5772,16 +5796,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI21" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
@@ -5789,31 +5813,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5843,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5860,7 +5884,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5875,19 +5899,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP22" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6006,16 +6030,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH22" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI22" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ22" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
@@ -6023,31 +6047,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6077,13 +6101,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6096,7 +6120,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6111,19 +6135,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6242,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH23" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI23" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ23" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
@@ -6259,31 +6283,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6313,13 +6337,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6330,7 +6354,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6347,19 +6371,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6478,16 +6502,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH24" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI24" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ24" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
@@ -6495,31 +6519,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6549,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6566,7 +6590,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6583,19 +6607,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AP25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6714,16 +6738,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="CH25" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="CJ25" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
@@ -6731,31 +6755,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6785,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6802,7 +6826,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6815,19 +6839,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6948,16 +6972,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH26" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI26" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ26" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
@@ -6965,31 +6989,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7019,13 +7043,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7036,7 +7060,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7051,19 +7075,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP27" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7182,16 +7206,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH27" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI27" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
@@ -7199,31 +7223,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7253,13 +7277,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7270,7 +7294,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7291,19 +7315,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AP28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7422,16 +7446,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH28" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ28" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -7439,31 +7463,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7493,13 +7517,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7510,7 +7534,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7525,19 +7549,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP29" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7656,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI29" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ29" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -7673,31 +7697,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7727,13 +7751,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7744,7 +7768,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7759,19 +7783,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO30" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AP30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7890,16 +7914,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH30" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI30" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ30" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
@@ -7907,31 +7931,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -7961,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -7978,7 +8002,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -7995,19 +8019,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP31" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8126,16 +8150,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH31" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI31" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ31" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
@@ -8143,31 +8167,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8197,13 +8221,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8214,7 +8238,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8229,19 +8253,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8360,16 +8384,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH32" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI32" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ32" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
@@ -8377,31 +8401,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8431,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8448,7 +8472,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8465,19 +8489,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AP33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8596,16 +8620,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH33" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI33" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ33" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
@@ -8613,31 +8637,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8667,13 +8691,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8684,7 +8708,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8701,19 +8725,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP34" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8832,16 +8856,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH34" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI34" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ34" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -8849,31 +8873,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8903,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8920,7 +8944,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8939,19 +8963,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AP35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9070,16 +9094,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI35" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ35" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
@@ -9087,31 +9111,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9141,13 +9165,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9158,7 +9182,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9173,19 +9197,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP36" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9304,16 +9328,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH36" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI36" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ36" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -9321,31 +9345,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9375,13 +9399,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9394,7 +9418,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9413,17 +9437,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO37" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AP37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9542,16 +9566,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH37" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI37" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ37" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
@@ -9559,31 +9583,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9613,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9630,7 +9654,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9647,19 +9671,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP38" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9778,16 +9802,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI38" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ38" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
@@ -9795,31 +9819,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9849,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9868,7 +9892,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9883,19 +9907,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP39" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10014,16 +10038,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH39" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI39" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ39" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
@@ -10031,31 +10055,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10085,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10102,7 +10126,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10117,19 +10141,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP40" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10248,16 +10272,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH40" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI40" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ40" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41">
@@ -10265,31 +10289,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10319,13 +10343,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10336,7 +10360,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10351,19 +10375,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AO41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP41" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10482,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH41" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI41" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ41" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42">
@@ -10499,31 +10523,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10553,13 +10577,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10572,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10589,19 +10613,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP42" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10720,16 +10744,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="CH42" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI42" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CJ42" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
@@ -10737,31 +10761,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10791,13 +10815,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10808,7 +10832,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10823,19 +10847,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AP43" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -10954,16 +10978,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH43" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI43" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ43" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
@@ -10971,31 +10995,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11025,13 +11049,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11042,7 +11066,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11059,19 +11083,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO44" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AP44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11190,16 +11214,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH44" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI44" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ44" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45">
@@ -11207,31 +11231,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1">
         <v>44994</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -11261,13 +11285,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11278,7 +11302,7 @@
       </c>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11295,19 +11319,19 @@
       </c>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AO45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AP45" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ45" s="2">
         <v>0</v>
       </c>
       <c r="AR45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11426,16 +11450,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="CH45" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI45" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CJ45" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
@@ -11443,37 +11467,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1">
-        <v>45092</v>
+        <v>45069</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
@@ -11497,26 +11521,30 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="W46" s="2"/>
-      <c r="X46" s="2">
-        <v>1</v>
-      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
+      <c r="AA46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>1</v>
+      </c>
       <c r="AC46" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD46" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -11524,29 +11552,31 @@
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
+      <c r="AL46" s="2">
+        <v>1</v>
+      </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="AO46" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="AP46" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
         <v>0</v>
       </c>
       <c r="AU46" s="1">
-        <v>45113</v>
+        <v>45112</v>
       </c>
       <c r="AV46" s="2">
         <v>1</v>
@@ -11577,10 +11607,10 @@
         <v>0</v>
       </c>
       <c r="BF46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH46" s="2">
         <v>0</v>
@@ -11592,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="2">
         <v>0</v>
@@ -11658,16 +11688,248 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="CH46" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CI46" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="CJ46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45092</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
+        <v>109</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>79</v>
+      </c>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>45113</v>
+      </c>
+      <c r="AV47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>231</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>238</v>
+      </c>
+      <c r="CI47" t="s">
         <v>241</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="962" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1019" uniqueCount="260">
   <si>
     <t>sampleid</t>
   </si>
@@ -147,12 +147,21 @@
     <t>300893</t>
   </si>
   <si>
+    <t>400409</t>
+  </si>
+  <si>
     <t>400415</t>
   </si>
   <si>
+    <t>400483</t>
+  </si>
+  <si>
     <t>400488</t>
   </si>
   <si>
+    <t>400497</t>
+  </si>
+  <si>
     <t>400499</t>
   </si>
   <si>
@@ -192,6 +201,9 @@
     <t>Woodfin</t>
   </si>
   <si>
+    <t>Cocke County</t>
+  </si>
+  <si>
     <t>Yancy County</t>
   </si>
   <si>
@@ -204,9 +216,6 @@
     <t>Buncombe County</t>
   </si>
   <si>
-    <t>Cocke County</t>
-  </si>
-  <si>
     <t>Carteret County</t>
   </si>
   <si>
@@ -354,9 +363,15 @@
     <t>blue</t>
   </si>
   <si>
+    <t>white; blue</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
+    <t>white; green</t>
+  </si>
+  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -559,6 +574,9 @@
   </si>
   <si>
     <t>mouth ulcers</t>
+  </si>
+  <si>
+    <t>takes breath away, anxiety</t>
   </si>
   <si>
     <t>overdose</t>
@@ -822,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ47"/>
+  <dimension ref="A1:CJ50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -833,265 +851,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
       <c r="Y1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Z1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AA1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AB1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AD1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AE1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AF1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AG1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AH1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AI1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AJ1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AL1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AM1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AN1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AO1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AP1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AQ1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AR1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AS1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AT1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AU1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AV1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AW1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AX1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AY1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AZ1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="BA1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BB1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BC1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="BD1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="BE1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="BF1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="BG1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="BH1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BI1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="BJ1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="BK1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="BL1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BM1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BN1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BO1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BP1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="BQ1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="BR1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="BS1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="BT1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="BU1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="BV1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="BW1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="BX1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="BY1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="BZ1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="CA1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="CB1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="CC1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="CD1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="CE1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="CF1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="CG1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="CH1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="CI1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="CJ1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
@@ -1099,31 +1117,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1153,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1170,7 +1188,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1187,19 +1205,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1318,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -1335,31 +1353,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1389,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1406,7 +1424,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1423,19 +1441,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1554,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
@@ -1571,31 +1589,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1625,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1642,7 +1660,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1657,19 +1675,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1788,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -1805,31 +1823,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1859,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1876,7 +1894,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1893,19 +1911,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2024,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CH5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="CI5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="CJ5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6">
@@ -2041,31 +2059,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2095,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2112,7 +2130,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2131,19 +2149,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2262,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CH6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="CI6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="CJ6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -2279,31 +2297,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2333,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2352,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2369,19 +2387,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2500,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8">
@@ -2517,31 +2535,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2571,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2588,7 +2606,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2603,19 +2621,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2734,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CH8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="CI8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="CJ8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -2751,31 +2769,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2805,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2822,7 +2840,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2841,19 +2859,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2972,16 +2990,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="CH9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="CJ9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
@@ -2989,31 +3007,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3043,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3062,7 +3080,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3075,19 +3093,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3206,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11">
@@ -3223,31 +3241,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3277,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3294,7 +3312,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3309,19 +3327,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3440,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI11" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12">
@@ -3457,31 +3475,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3511,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3530,7 +3548,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3545,19 +3563,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3676,16 +3694,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ12" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13">
@@ -3693,31 +3711,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3747,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3764,7 +3782,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3785,19 +3803,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3916,16 +3934,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="CH13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI13" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="CJ13" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -3933,31 +3951,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3987,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4004,7 +4022,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4021,19 +4039,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AP14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4152,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH14" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ14" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15">
@@ -4169,31 +4187,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4223,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4240,7 +4258,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4255,19 +4273,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4386,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH15" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI15" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16">
@@ -4403,31 +4421,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4457,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4474,7 +4492,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4493,19 +4511,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4624,16 +4642,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH16" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI16" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ16" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17">
@@ -4641,31 +4659,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4695,13 +4713,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4712,7 +4730,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4731,19 +4749,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AP17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4862,16 +4880,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH17" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI17" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ17" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18">
@@ -4879,31 +4897,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4933,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4948,7 +4966,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4961,19 +4979,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP18" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5092,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH18" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ18" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -5109,31 +5127,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5163,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5180,7 +5198,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5197,19 +5215,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5328,16 +5346,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI19" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20">
@@ -5345,31 +5363,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5399,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5414,7 +5432,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5431,19 +5449,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP20" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5562,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH20" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI20" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21">
@@ -5579,31 +5597,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5633,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5650,7 +5668,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5665,19 +5683,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AP21" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5796,16 +5814,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH21" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22">
@@ -5813,31 +5831,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5867,13 +5885,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5884,7 +5902,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5899,19 +5917,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6030,16 +6048,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
@@ -6047,31 +6065,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6101,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6120,7 +6138,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6135,19 +6153,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP23" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6266,16 +6284,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH23" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI23" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ23" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
@@ -6283,31 +6301,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6337,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6354,7 +6372,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6371,19 +6389,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP24" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6502,16 +6520,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH24" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI24" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ24" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
@@ -6519,31 +6537,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6573,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6590,7 +6608,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6607,19 +6625,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO25" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AP25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6738,16 +6756,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CH25" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI25" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="CJ25" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
@@ -6755,31 +6773,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6809,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6826,7 +6844,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6839,19 +6857,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO26" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP26" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6972,16 +6990,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH26" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI26" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ26" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
@@ -6989,31 +7007,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7043,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7060,7 +7078,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7075,19 +7093,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7206,16 +7224,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH27" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI27" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
@@ -7223,31 +7241,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7277,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7294,7 +7312,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7315,19 +7333,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AP28" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7446,16 +7464,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI28" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
@@ -7463,31 +7481,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7517,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7534,7 +7552,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7549,19 +7567,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7680,16 +7698,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH29" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI29" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ29" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
@@ -7697,31 +7715,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7751,13 +7769,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7768,7 +7786,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7783,19 +7801,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AP30" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7914,16 +7932,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH30" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ30" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
@@ -7931,31 +7949,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -7985,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8002,7 +8020,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8019,19 +8037,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP31" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8150,16 +8168,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH31" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI31" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ31" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
@@ -8167,31 +8185,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8221,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8238,7 +8256,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8253,19 +8271,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8384,16 +8402,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH32" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI32" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ32" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -8401,31 +8419,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8455,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8472,7 +8490,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8489,19 +8507,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO33" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AP33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8620,16 +8638,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH33" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI33" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ33" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -8637,31 +8655,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8691,13 +8709,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8708,7 +8726,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8725,19 +8743,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP34" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8856,16 +8874,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH34" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI34" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -8873,31 +8891,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8927,13 +8945,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8944,7 +8962,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8963,19 +8981,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AP35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9094,16 +9112,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH35" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI35" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ35" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -9111,31 +9129,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9165,13 +9183,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9182,7 +9200,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9197,19 +9215,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP36" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9328,16 +9346,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH36" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI36" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ36" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
@@ -9345,31 +9363,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9399,13 +9417,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9418,7 +9436,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9437,17 +9455,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO37" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AP37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9566,16 +9584,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH37" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI37" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ37" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
@@ -9583,31 +9601,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9637,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9654,7 +9672,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9671,19 +9689,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP38" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9802,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH38" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI38" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
@@ -9819,31 +9837,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9873,13 +9891,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9892,7 +9910,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9907,19 +9925,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP39" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10038,16 +10056,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH39" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI39" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
@@ -10055,31 +10073,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10109,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10126,7 +10144,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10141,19 +10159,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP40" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10272,16 +10290,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH40" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI40" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ40" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -10289,31 +10307,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10343,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10360,7 +10378,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10375,19 +10393,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AO41" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP41" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10506,16 +10524,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH41" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI41" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ41" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42">
@@ -10523,31 +10541,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10577,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10596,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10613,19 +10631,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP42" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10744,16 +10762,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CH42" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI42" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CJ42" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
@@ -10761,31 +10779,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10815,13 +10833,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10832,7 +10850,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10847,19 +10865,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO43" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP43" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -10978,16 +10996,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH43" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI43" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ43" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -10995,31 +11013,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11049,13 +11067,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11066,7 +11084,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11083,19 +11101,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AP44" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11214,16 +11232,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="CH44" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI44" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="CJ44" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45">
@@ -11231,49 +11249,49 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F45" s="1">
-        <v>44994</v>
+        <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -11285,24 +11303,24 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
+      <c r="Y45" s="2">
+        <v>1</v>
+      </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11314,71 +11332,69 @@
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
-      <c r="AL45" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO45" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="AP45" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AQ45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
         <v>0</v>
       </c>
       <c r="AU45" s="1">
-        <v>45009</v>
+        <v>45133</v>
       </c>
       <c r="AV45" s="2">
         <v>1</v>
       </c>
       <c r="AW45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="2"/>
       <c r="AY45" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AZ45" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC45" s="2">
         <v>0</v>
       </c>
       <c r="BD45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH45" s="2">
         <v>0</v>
       </c>
       <c r="BI45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ45" s="2">
         <v>0</v>
@@ -11393,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO45" s="2">
         <v>0</v>
@@ -11417,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="BV45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW45" s="2">
         <v>0</v>
@@ -11432,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="CA45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB45" s="2">
         <v>0</v>
@@ -11441,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="CD45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE45" s="2">
         <v>0</v>
@@ -11450,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="CH45" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="CI45" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="CJ45" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46">
@@ -11467,49 +11483,49 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1">
-        <v>45069</v>
+        <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="2">
         <v>0</v>
@@ -11521,13 +11537,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="U46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11536,14 +11552,12 @@
       <c r="AA46" s="2">
         <v>1</v>
       </c>
-      <c r="AB46" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s">
         <v>140</v>
       </c>
       <c r="AD46" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -11557,26 +11571,26 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AO46" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AP46" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
         <v>0</v>
       </c>
       <c r="AU46" s="1">
-        <v>45112</v>
+        <v>45009</v>
       </c>
       <c r="AV46" s="2">
         <v>1</v>
@@ -11688,16 +11702,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CH46" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CI46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CJ46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47">
@@ -11705,34 +11719,34 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1">
-        <v>45092</v>
+        <v>45118</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -11759,26 +11773,26 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="U47" s="2">
         <v>1</v>
       </c>
       <c r="V47" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="W47" s="2"/>
-      <c r="X47" s="2">
-        <v>1</v>
-      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD47" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -11789,45 +11803,45 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="AO47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AP47" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AQ47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
         <v>0</v>
       </c>
       <c r="AU47" s="1">
-        <v>45113</v>
+        <v>45133</v>
       </c>
       <c r="AV47" s="2">
         <v>1</v>
       </c>
       <c r="AW47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="2"/>
       <c r="AY47" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC47" s="2">
         <v>0</v>
@@ -11854,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL47" s="2">
         <v>0</v>
@@ -11863,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO47" s="2">
         <v>0</v>
@@ -11887,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="BV47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW47" s="2">
         <v>0</v>
@@ -11902,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="CA47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB47" s="2">
         <v>0</v>
@@ -11911,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="CD47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE47" s="2">
         <v>0</v>
@@ -11920,16 +11934,722 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="CH47" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="CI47" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="CJ47" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45069</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>108</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>133</v>
+      </c>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="2"/>
+      <c r="AN48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>45112</v>
+      </c>
+      <c r="AV48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG48" t="s">
+        <v>242</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>244</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>252</v>
+      </c>
+      <c r="CJ48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45124</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>109</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>121</v>
+      </c>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>45133</v>
+      </c>
+      <c r="AV49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ49" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD49" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>239</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>245</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>249</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45092</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" t="s">
+        <v>112</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>82</v>
+      </c>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="1">
+        <v>45113</v>
+      </c>
+      <c r="AV50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ50" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK50" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>237</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>244</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>247</v>
+      </c>
+      <c r="CJ50" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1019" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1038" uniqueCount="262">
   <si>
     <t>sampleid</t>
   </si>
@@ -153,6 +153,9 @@
     <t>400415</t>
   </si>
   <si>
+    <t>400448</t>
+  </si>
+  <si>
     <t>400483</t>
   </si>
   <si>
@@ -369,6 +372,9 @@
     <t>orange</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>white; green</t>
   </si>
   <si>
@@ -396,9 +402,6 @@
     <t>crystals; powder</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>gummy; sticky</t>
   </si>
   <si>
@@ -571,6 +574,9 @@
   </si>
   <si>
     <t>no legs</t>
+  </si>
+  <si>
+    <t>"Nothing"</t>
   </si>
   <si>
     <t>mouth ulcers</t>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ50"/>
+  <dimension ref="A1:CJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,265 +857,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W1" t="s">
-        <v>134</v>
-      </c>
-      <c r="X1" t="s">
-        <v>82</v>
-      </c>
       <c r="Y1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AD1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AE1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AH1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AI1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AQ1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AR1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AS1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AT1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AU1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AV1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AX1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AY1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AZ1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BA1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BB1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BC1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BD1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BE1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BF1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="BG1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="BH1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BI1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BJ1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BK1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BL1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BM1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BN1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BO1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BP1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BQ1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BR1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BS1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BT1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BU1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BV1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="BW1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BX1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BY1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BZ1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="CA1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="CB1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="CC1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="CD1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="CE1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="CF1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="CG1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="CH1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="CI1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="CJ1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
@@ -1117,31 +1123,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1171,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1188,7 +1194,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1205,19 +1211,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1336,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -1353,31 +1359,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1407,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1424,7 +1430,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1441,19 +1447,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1572,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
@@ -1589,31 +1595,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1643,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1675,19 +1681,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1806,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -1823,31 +1829,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1877,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1894,7 +1900,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1911,19 +1917,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2042,16 +2048,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="CH5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="CI5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
@@ -2059,31 +2065,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2113,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2130,7 +2136,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2149,19 +2155,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2280,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="CH6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="CI6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
@@ -2297,31 +2303,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2351,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2370,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2387,19 +2393,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2518,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -2535,31 +2541,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2589,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2606,7 +2612,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2621,19 +2627,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2752,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="CH8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="CI8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
@@ -2769,31 +2775,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2823,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2840,7 +2846,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2859,19 +2865,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2990,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="CH9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
@@ -3007,31 +3013,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3061,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3080,7 +3086,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3093,19 +3099,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3224,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
@@ -3241,31 +3247,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3295,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3312,7 +3318,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3327,19 +3333,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3458,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
@@ -3475,31 +3481,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3529,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3548,7 +3554,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3563,19 +3569,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3694,16 +3700,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13">
@@ -3711,31 +3717,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3765,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3782,7 +3788,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3803,19 +3809,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3934,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="CH13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
@@ -3951,31 +3957,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4005,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4022,7 +4028,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4039,19 +4045,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4170,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
@@ -4187,31 +4193,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4241,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4258,7 +4264,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4273,19 +4279,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4404,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
@@ -4421,31 +4427,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4475,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4492,7 +4498,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4511,19 +4517,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4642,16 +4648,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
@@ -4659,31 +4665,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4713,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4730,7 +4736,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4749,19 +4755,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4880,16 +4886,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18">
@@ -4897,31 +4903,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4951,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4966,7 +4972,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4979,19 +4985,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5110,16 +5116,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH18" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19">
@@ -5127,31 +5133,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5181,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5198,7 +5204,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5215,19 +5221,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5346,16 +5352,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
@@ -5363,31 +5369,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5417,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5432,7 +5438,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5449,19 +5455,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5580,16 +5586,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21">
@@ -5597,31 +5603,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5651,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5668,7 +5674,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5683,19 +5689,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5814,16 +5820,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22">
@@ -5831,31 +5837,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5885,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5902,7 +5908,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5917,19 +5923,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6048,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -6065,31 +6071,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6119,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6138,7 +6144,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6153,19 +6159,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6284,16 +6290,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
@@ -6301,31 +6307,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6355,13 +6361,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6372,7 +6378,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6389,19 +6395,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6520,16 +6526,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
@@ -6537,31 +6543,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6591,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6608,7 +6614,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6625,19 +6631,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AP25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6756,16 +6762,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="CH25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CJ25" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
@@ -6773,31 +6779,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6827,13 +6833,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6844,7 +6850,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6857,19 +6863,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6990,16 +6996,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
@@ -7007,31 +7013,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7061,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7078,7 +7084,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7093,19 +7099,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7224,16 +7230,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
@@ -7241,31 +7247,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7295,13 +7301,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7312,7 +7318,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7333,19 +7339,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7464,16 +7470,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -7481,31 +7487,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7535,13 +7541,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7552,7 +7558,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7567,19 +7573,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7698,16 +7704,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -7715,31 +7721,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7769,13 +7775,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7786,7 +7792,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7801,19 +7807,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7932,16 +7938,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
@@ -7949,31 +7955,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8003,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8020,7 +8026,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8037,19 +8043,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8168,16 +8174,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
@@ -8185,31 +8191,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8239,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8256,7 +8262,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8271,19 +8277,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8402,16 +8408,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
@@ -8419,31 +8425,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8473,13 +8479,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8490,7 +8496,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8507,19 +8513,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8638,16 +8644,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -8655,31 +8661,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8709,13 +8715,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8726,7 +8732,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8743,19 +8749,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8874,16 +8880,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
@@ -8891,31 +8897,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8945,13 +8951,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8962,7 +8968,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8981,19 +8987,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9112,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -9129,31 +9135,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9183,13 +9189,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9200,7 +9206,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9215,19 +9221,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9346,16 +9352,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
@@ -9363,31 +9369,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9417,13 +9423,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9436,7 +9442,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9455,17 +9461,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9584,16 +9590,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -9601,31 +9607,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9655,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9672,7 +9678,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9689,19 +9695,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9820,16 +9826,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
@@ -9837,31 +9843,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9891,13 +9897,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9910,7 +9916,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9925,19 +9931,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10056,16 +10062,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
@@ -10073,31 +10079,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10127,13 +10133,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10144,7 +10150,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10159,19 +10165,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10290,16 +10296,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ40" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41">
@@ -10307,31 +10313,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10361,13 +10367,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10378,7 +10384,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10393,19 +10399,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10524,16 +10530,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ41" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42">
@@ -10541,31 +10547,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10595,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10614,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10631,19 +10637,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10762,16 +10768,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CH42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CJ42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43">
@@ -10779,31 +10785,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10833,13 +10839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10850,7 +10856,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10865,19 +10871,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -10996,16 +11002,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ43" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44">
@@ -11013,31 +11019,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11067,13 +11073,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11084,7 +11090,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11101,19 +11107,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11232,16 +11238,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ44" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45">
@@ -11249,31 +11255,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11303,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11320,7 +11326,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11335,19 +11341,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AP45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11466,16 +11472,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="CH45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="CI45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46">
@@ -11483,31 +11489,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11537,13 +11543,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11554,7 +11560,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11571,19 +11577,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11702,16 +11708,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CH46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CI46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CJ46" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47">
@@ -11719,10 +11725,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>72</v>
@@ -11731,22 +11737,22 @@
         <v>75</v>
       </c>
       <c r="F47" s="1">
-        <v>45118</v>
+        <v>45168</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -11755,13 +11761,13 @@
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
         <v>0</v>
@@ -11773,26 +11779,28 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
+      <c r="Y47" s="2">
+        <v>1</v>
+      </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
+      <c r="AA47" s="2">
+        <v>1</v>
+      </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>-1</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -11803,45 +11811,45 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO47" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="AP47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AQ47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
         <v>0</v>
       </c>
       <c r="AU47" s="1">
-        <v>45133</v>
+        <v>45174</v>
       </c>
       <c r="AV47" s="2">
         <v>1</v>
       </c>
       <c r="AW47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="2"/>
       <c r="AY47" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC47" s="2">
         <v>0</v>
@@ -11853,10 +11861,10 @@
         <v>0</v>
       </c>
       <c r="BF47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH47" s="2">
         <v>0</v>
@@ -11877,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO47" s="2">
         <v>0</v>
@@ -11901,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="BV47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW47" s="2">
         <v>0</v>
@@ -11916,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="CA47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB47" s="2">
         <v>0</v>
@@ -11925,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="CD47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE47" s="2">
         <v>0</v>
@@ -11937,7 +11945,7 @@
         <v>239</v>
       </c>
       <c r="CH47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CI47" t="s">
         <v>249</v>
@@ -11954,34 +11962,34 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F48" s="1">
-        <v>45069</v>
+        <v>45118</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -12005,26 +12013,22 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="U48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD48" s="2">
         <v>-1</v>
@@ -12036,50 +12040,48 @@
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
-      <c r="AL48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO48" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="AP48" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AQ48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
         <v>0</v>
       </c>
       <c r="AU48" s="1">
-        <v>45112</v>
+        <v>45133</v>
       </c>
       <c r="AV48" s="2">
         <v>1</v>
       </c>
       <c r="AW48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="2"/>
       <c r="AY48" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC48" s="2">
         <v>0</v>
@@ -12091,10 +12093,10 @@
         <v>0</v>
       </c>
       <c r="BF48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH48" s="2">
         <v>0</v>
@@ -12115,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO48" s="2">
         <v>0</v>
@@ -12139,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="BV48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW48" s="2">
         <v>0</v>
@@ -12154,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="CA48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB48" s="2">
         <v>0</v>
@@ -12163,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="CD48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE48" s="2">
         <v>0</v>
@@ -12172,16 +12174,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CH48" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="CI48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CJ48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49">
@@ -12189,10 +12191,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
@@ -12201,13 +12203,13 @@
         <v>75</v>
       </c>
       <c r="F49" s="1">
-        <v>45124</v>
+        <v>45069</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -12219,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -12249,73 +12251,75 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
+      <c r="AA49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>1</v>
+      </c>
       <c r="AC49" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="2">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
+      <c r="AL49" s="2">
+        <v>1</v>
+      </c>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AO49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
         <v>0</v>
       </c>
       <c r="AU49" s="1">
-        <v>45133</v>
+        <v>45112</v>
       </c>
       <c r="AV49" s="2">
         <v>1</v>
       </c>
       <c r="AW49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="2">
         <v>0</v>
@@ -12327,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG49" s="2">
         <v>1</v>
@@ -12375,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="BV49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW49" s="2">
         <v>0</v>
@@ -12390,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="CA49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB49" s="2">
         <v>0</v>
@@ -12399,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="CD49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE49" s="2">
         <v>0</v>
@@ -12408,16 +12412,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CH49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CI49" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CJ49" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
@@ -12425,34 +12429,34 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F50" s="1">
-        <v>45092</v>
+        <v>45124</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -12479,27 +12483,31 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="W50" s="2"/>
-      <c r="X50" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2">
+        <v>1</v>
+      </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>1</v>
+      </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -12509,45 +12517,45 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="AO50" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="AP50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AQ50" s="2">
         <v>0</v>
       </c>
       <c r="AR50" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
         <v>0</v>
       </c>
       <c r="AU50" s="1">
-        <v>45113</v>
+        <v>45133</v>
       </c>
       <c r="AV50" s="2">
         <v>1</v>
       </c>
       <c r="AW50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="2"/>
       <c r="AY50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="2">
         <v>0</v>
@@ -12562,7 +12570,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH50" s="2">
         <v>0</v>
@@ -12574,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="2">
         <v>0</v>
@@ -12607,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="BV50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW50" s="2">
         <v>0</v>
@@ -12622,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="CA50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB50" s="2">
         <v>0</v>
@@ -12631,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="CD50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE50" s="2">
         <v>0</v>
@@ -12640,16 +12648,248 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="CH50" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="CI50" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="CJ50" t="s">
-        <v>254</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45092</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" t="s">
+        <v>113</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>83</v>
+      </c>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>45113</v>
+      </c>
+      <c r="AV51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>239</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>246</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>249</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1038" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1057" uniqueCount="263">
   <si>
     <t>sampleid</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>400499</t>
+  </si>
+  <si>
+    <t>500746</t>
   </si>
   <si>
     <t>location</t>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ51"/>
+  <dimension ref="A1:CJ52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,265 +860,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X1" t="s">
-        <v>83</v>
-      </c>
       <c r="Y1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AH1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AI1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AQ1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AR1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AS1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AT1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AU1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AV1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AW1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AX1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AY1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AZ1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BA1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BB1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BC1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BD1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BE1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BF1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BG1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BH1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BI1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BJ1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BK1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BL1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BM1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BN1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BO1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BP1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BQ1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BR1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BS1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BT1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BU1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BV1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BW1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BX1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BY1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BZ1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CA1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CB1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CC1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CD1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CE1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CF1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CG1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CH1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CI1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CJ1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -1123,31 +1126,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1177,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1194,7 +1197,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1211,19 +1214,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1342,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -1359,31 +1362,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1413,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1430,7 +1433,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1447,19 +1450,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1578,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
@@ -1595,31 +1598,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1649,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1666,7 +1669,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1681,19 +1684,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1812,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
@@ -1829,31 +1832,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1883,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1900,7 +1903,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1917,19 +1920,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2048,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CH5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CI5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CJ5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
@@ -2065,31 +2068,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2119,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2136,7 +2139,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2155,19 +2158,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2286,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CH6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CI6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CJ6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -2303,31 +2306,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2357,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2376,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2393,19 +2396,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2524,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
@@ -2541,31 +2544,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2595,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2612,7 +2615,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2627,19 +2630,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2758,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CH8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CI8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CJ8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9">
@@ -2775,31 +2778,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2829,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2846,7 +2849,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2865,19 +2868,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2996,16 +2999,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CH9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CJ9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -3013,31 +3016,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3067,13 +3070,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3086,7 +3089,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3099,19 +3102,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3230,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11">
@@ -3247,31 +3250,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3301,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3318,7 +3321,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3333,19 +3336,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3464,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -3481,31 +3484,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3535,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3554,7 +3557,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3569,19 +3572,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3700,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13">
@@ -3717,31 +3720,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3771,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3788,7 +3791,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3809,19 +3812,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3940,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CH13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CJ13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
@@ -3957,31 +3960,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4011,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4028,7 +4031,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4045,19 +4048,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4176,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15">
@@ -4193,31 +4196,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4247,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4264,7 +4267,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4279,19 +4282,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4410,16 +4413,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
@@ -4427,31 +4430,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4481,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4498,7 +4501,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4517,19 +4520,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4648,16 +4651,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17">
@@ -4665,31 +4668,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4719,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4736,7 +4739,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4755,19 +4758,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4886,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18">
@@ -4903,31 +4906,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4957,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4972,7 +4975,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4985,19 +4988,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5116,16 +5119,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19">
@@ -5133,31 +5136,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5187,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5204,7 +5207,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5221,19 +5224,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5352,16 +5355,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20">
@@ -5369,31 +5372,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5423,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5438,7 +5441,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5455,19 +5458,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5586,16 +5589,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21">
@@ -5603,31 +5606,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5657,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5674,7 +5677,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5689,19 +5692,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AP21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5820,16 +5823,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22">
@@ -5837,31 +5840,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5891,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5908,7 +5911,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5923,19 +5926,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6054,16 +6057,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23">
@@ -6071,31 +6074,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6125,13 +6128,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6144,7 +6147,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6159,19 +6162,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6290,16 +6293,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
@@ -6307,31 +6310,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6361,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6378,7 +6381,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6395,19 +6398,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6526,16 +6529,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
@@ -6543,31 +6546,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6597,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6614,7 +6617,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6631,19 +6634,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6762,16 +6765,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CH25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CJ25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
@@ -6779,31 +6782,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6833,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6850,7 +6853,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6863,19 +6866,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6996,16 +6999,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -7013,31 +7016,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7067,13 +7070,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7084,7 +7087,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7099,19 +7102,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7230,16 +7233,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
@@ -7247,31 +7250,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7301,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7318,7 +7321,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7339,19 +7342,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7470,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -7487,31 +7490,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7541,13 +7544,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7558,7 +7561,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7573,19 +7576,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7704,16 +7707,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
@@ -7721,31 +7724,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7775,13 +7778,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7792,7 +7795,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7807,19 +7810,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7938,16 +7941,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
@@ -7955,31 +7958,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8009,13 +8012,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8026,7 +8029,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8043,19 +8046,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8174,16 +8177,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
@@ -8191,31 +8194,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8245,13 +8248,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8262,7 +8265,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8277,19 +8280,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8408,16 +8411,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -8425,31 +8428,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8479,13 +8482,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8496,7 +8499,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8513,19 +8516,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8644,16 +8647,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
@@ -8661,31 +8664,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8715,13 +8718,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8732,7 +8735,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8749,19 +8752,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8880,16 +8883,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35">
@@ -8897,31 +8900,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8951,13 +8954,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8968,7 +8971,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8987,19 +8990,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9118,16 +9121,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
@@ -9135,31 +9138,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9189,13 +9192,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9206,7 +9209,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9221,19 +9224,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9352,16 +9355,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
@@ -9369,31 +9372,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9423,13 +9426,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9442,7 +9445,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9461,17 +9464,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9590,16 +9593,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38">
@@ -9607,31 +9610,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9661,13 +9664,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9678,7 +9681,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9695,19 +9698,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9826,16 +9829,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -9843,31 +9846,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9897,13 +9900,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9916,7 +9919,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9931,19 +9934,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10062,16 +10065,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
@@ -10079,31 +10082,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10133,13 +10136,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10150,7 +10153,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10165,19 +10168,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10296,16 +10299,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41">
@@ -10313,31 +10316,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10367,13 +10370,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10384,7 +10387,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10399,19 +10402,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10530,16 +10533,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
@@ -10547,31 +10550,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10601,13 +10604,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10620,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10637,19 +10640,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10768,16 +10771,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CH42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CJ42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43">
@@ -10785,31 +10788,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10839,13 +10842,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10856,7 +10859,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10871,19 +10874,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -11002,16 +11005,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44">
@@ -11019,31 +11022,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11073,13 +11076,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11090,7 +11093,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11107,19 +11110,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11238,16 +11241,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45">
@@ -11255,31 +11258,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11309,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11326,7 +11329,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11341,19 +11344,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11472,16 +11475,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CH45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CI45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CJ45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
@@ -11489,31 +11492,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11543,13 +11546,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11560,7 +11563,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11577,19 +11580,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11708,16 +11711,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47">
@@ -11725,31 +11728,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F47" s="1">
         <v>45168</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -11779,13 +11782,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -11798,7 +11801,7 @@
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -11811,19 +11814,19 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
@@ -11942,16 +11945,16 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
@@ -11959,31 +11962,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1">
         <v>45118</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
@@ -12013,13 +12016,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U48" s="2">
         <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -12028,7 +12031,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD48" s="2">
         <v>-1</v>
@@ -12043,19 +12046,19 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ48" s="2">
         <v>1</v>
       </c>
       <c r="AR48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
@@ -12174,16 +12177,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CH48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CI48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CJ48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
@@ -12191,31 +12194,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F49" s="1">
         <v>45069</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
@@ -12245,13 +12248,13 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -12264,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD49" s="2">
         <v>-1</v>
@@ -12281,19 +12284,19 @@
       </c>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
@@ -12412,16 +12415,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CH49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CJ49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50">
@@ -12429,31 +12432,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1">
         <v>45124</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -12483,13 +12486,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -12500,7 +12503,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD50" s="2">
         <v>1</v>
@@ -12517,19 +12520,19 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ50" s="2">
         <v>0</v>
       </c>
       <c r="AR50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
@@ -12648,16 +12651,16 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CH50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CI50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CJ50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51">
@@ -12665,31 +12668,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1">
         <v>45092</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -12719,13 +12722,13 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U51" s="2">
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2">
@@ -12736,7 +12739,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -12749,19 +12752,19 @@
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
       <c r="AR51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2">
@@ -12880,16 +12883,250 @@
         <v>0</v>
       </c>
       <c r="CG51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CH51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CI51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CJ51" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>110</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>134</v>
+      </c>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="1">
+        <v>45174</v>
+      </c>
+      <c r="AV52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>241</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>247</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ52" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1057" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1095" uniqueCount="270">
   <si>
     <t>sampleid</t>
   </si>
@@ -156,6 +156,12 @@
     <t>400448</t>
   </si>
   <si>
+    <t>400452</t>
+  </si>
+  <si>
+    <t>400476</t>
+  </si>
+  <si>
     <t>400483</t>
   </si>
   <si>
@@ -309,6 +315,9 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>MDMA</t>
+  </si>
+  <si>
     <t>gabapentin</t>
   </si>
   <si>
@@ -378,6 +387,12 @@
     <t/>
   </si>
   <si>
+    <t>white; light green</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white; green</t>
   </si>
   <si>
@@ -420,6 +435,9 @@
     <t>powder; shiny</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
@@ -499,6 +517,9 @@
   </si>
   <si>
     <t>nice; stronger</t>
+  </si>
+  <si>
+    <t>normal; nice; stronger</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -849,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ52"/>
+  <dimension ref="A1:CJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,265 +881,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" t="s">
-        <v>84</v>
-      </c>
       <c r="Y1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Z1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AA1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AB1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AC1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AD1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AE1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AF1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AH1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AI1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AJ1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AK1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AL1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AM1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AN1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AO1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AP1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AQ1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AR1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AS1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AT1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AU1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AV1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AW1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AX1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AY1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AZ1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="BA1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="BB1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BC1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BF1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="BG1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="BH1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="BI1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="BJ1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="BK1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="BL1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="BM1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="BN1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BO1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="BP1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="BQ1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="BR1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BS1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="BT1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="BU1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="BV1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="BW1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="BX1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="BY1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="BZ1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="CA1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="CC1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="CD1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CE1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="CF1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="CG1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="CH1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="CI1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="CJ1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
@@ -1126,31 +1147,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1180,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1197,7 +1218,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1214,19 +1235,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1345,16 +1366,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -1362,31 +1383,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1416,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1433,7 +1454,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1450,19 +1471,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1581,16 +1602,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
@@ -1598,31 +1619,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1652,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1669,7 +1690,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1684,19 +1705,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1815,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
@@ -1832,31 +1853,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1886,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1903,7 +1924,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1920,19 +1941,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2051,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="CH5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="CI5" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="CJ5" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6">
@@ -2068,31 +2089,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2122,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2139,7 +2160,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2158,19 +2179,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP6" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2289,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="CH6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="CI6" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="CJ6" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
@@ -2306,31 +2327,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2360,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2379,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2396,19 +2417,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2527,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -2544,31 +2565,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2598,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2615,7 +2636,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2630,19 +2651,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2761,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="CH8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="CI8" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="CJ8" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
@@ -2778,31 +2799,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2832,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2849,7 +2870,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2868,19 +2889,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -2999,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="CH9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI9" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="CJ9" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -3016,31 +3037,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3070,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3089,7 +3110,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3102,19 +3123,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3233,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH10" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
@@ -3250,31 +3271,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3304,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3321,7 +3342,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3336,19 +3357,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP11" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3467,16 +3488,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH11" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
@@ -3484,31 +3505,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3538,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3557,7 +3578,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3572,19 +3593,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3703,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH12" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ12" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
@@ -3720,31 +3741,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3774,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3791,7 +3812,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3812,19 +3833,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP13" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3943,16 +3964,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="CH13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI13" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="CJ13" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
@@ -3960,31 +3981,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4014,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4031,7 +4052,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4048,19 +4069,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO14" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AP14" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4179,16 +4200,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH14" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI14" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ14" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15">
@@ -4196,31 +4217,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4250,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4267,7 +4288,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4282,19 +4303,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4413,16 +4434,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH15" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI15" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ15" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16">
@@ -4430,31 +4451,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4484,13 +4505,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4501,7 +4522,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4520,19 +4541,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP16" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4651,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH16" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI16" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ16" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17">
@@ -4668,31 +4689,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4722,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4739,7 +4760,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4758,19 +4779,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AP17" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4889,16 +4910,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH17" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI17" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ17" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -4906,31 +4927,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4960,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4975,7 +4996,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4988,19 +5009,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP18" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5119,16 +5140,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH18" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI18" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ18" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19">
@@ -5136,31 +5157,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5190,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5207,7 +5228,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5224,19 +5245,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AO19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5355,16 +5376,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH19" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI19" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ19" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20">
@@ -5372,31 +5393,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5426,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5441,7 +5462,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5458,19 +5479,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP20" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5589,16 +5610,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI20" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21">
@@ -5606,31 +5627,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5660,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5677,7 +5698,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5692,19 +5713,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AP21" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5823,16 +5844,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH21" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI21" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ21" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22">
@@ -5840,31 +5861,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5894,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5911,7 +5932,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5926,19 +5947,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP22" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6057,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH22" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI22" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ22" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
@@ -6074,31 +6095,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6128,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6147,7 +6168,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6162,19 +6183,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP23" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6293,16 +6314,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH23" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI23" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ23" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24">
@@ -6310,31 +6331,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6364,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6381,7 +6402,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6398,19 +6419,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP24" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6529,16 +6550,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH24" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI24" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ24" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -6546,31 +6567,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6600,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6617,7 +6638,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6634,19 +6655,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO25" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AP25" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6765,16 +6786,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="CH25" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI25" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="CJ25" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
@@ -6782,31 +6803,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6836,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6853,7 +6874,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6866,19 +6887,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP26" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6999,16 +7020,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH26" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI26" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ26" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
@@ -7016,31 +7037,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7070,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7087,7 +7108,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7102,19 +7123,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP27" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7233,16 +7254,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH27" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI27" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ27" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
@@ -7250,31 +7271,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7304,13 +7325,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7321,7 +7342,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7342,19 +7363,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO28" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AP28" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7473,16 +7494,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH28" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI28" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ28" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
@@ -7490,31 +7511,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7544,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7561,7 +7582,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7576,19 +7597,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7707,16 +7728,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI29" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ29" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -7724,31 +7745,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7778,13 +7799,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7795,7 +7816,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7810,19 +7831,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO30" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AP30" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7941,16 +7962,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH30" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI30" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ30" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -7958,31 +7979,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8012,13 +8033,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8029,7 +8050,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8046,19 +8067,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP31" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8177,16 +8198,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH31" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI31" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
@@ -8194,31 +8215,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8248,13 +8269,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8265,7 +8286,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8280,19 +8301,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP32" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8411,16 +8432,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH32" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI32" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ32" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -8428,31 +8449,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8482,13 +8503,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8499,7 +8520,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8516,19 +8537,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO33" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AP33" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8647,16 +8668,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH33" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI33" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ33" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
@@ -8664,31 +8685,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8718,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8735,7 +8756,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8752,19 +8773,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP34" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8883,16 +8904,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH34" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI34" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ34" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -8900,31 +8921,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8954,13 +8975,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8971,7 +8992,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -8990,19 +9011,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO35" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AP35" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9121,16 +9142,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH35" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI35" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ35" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36">
@@ -9138,31 +9159,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9192,13 +9213,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9209,7 +9230,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9224,19 +9245,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP36" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9355,16 +9376,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH36" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI36" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ36" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
@@ -9372,31 +9393,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9426,13 +9447,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9445,7 +9466,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9464,17 +9485,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO37" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AP37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9593,16 +9614,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH37" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI37" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ37" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38">
@@ -9610,31 +9631,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9664,13 +9685,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9681,7 +9702,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9698,19 +9719,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP38" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9829,16 +9850,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH38" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI38" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ38" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
@@ -9846,31 +9867,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9900,13 +9921,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9919,7 +9940,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9934,19 +9955,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP39" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10065,16 +10086,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH39" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI39" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ39" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
@@ -10082,31 +10103,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10136,13 +10157,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10153,7 +10174,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10168,19 +10189,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP40" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10299,16 +10320,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH40" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI40" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ40" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41">
@@ -10316,31 +10337,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10370,13 +10391,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10387,7 +10408,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10402,19 +10423,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AO41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP41" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10533,16 +10554,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH41" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI41" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ41" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42">
@@ -10550,31 +10571,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10604,13 +10625,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10623,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10640,19 +10661,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP42" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10771,16 +10792,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CH42" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI42" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="CJ42" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
@@ -10788,31 +10809,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10842,13 +10863,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10859,7 +10880,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10874,19 +10895,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP43" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -11005,16 +11026,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH43" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI43" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ43" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44">
@@ -11022,31 +11043,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11076,13 +11097,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11093,7 +11114,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11110,19 +11131,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO44" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AP44" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11241,16 +11262,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH44" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI44" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ44" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
@@ -11258,31 +11279,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11312,13 +11333,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11329,7 +11350,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11344,19 +11365,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP45" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11475,16 +11496,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="CH45" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="CI45" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="CJ45" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46">
@@ -11492,31 +11513,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11546,13 +11567,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11563,7 +11584,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11580,19 +11601,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO46" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AP46" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11711,16 +11732,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH46" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI46" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ46" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47">
@@ -11728,31 +11749,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F47" s="1">
         <v>45168</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -11782,13 +11803,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -11801,7 +11822,7 @@
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -11814,19 +11835,19 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO47" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AP47" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
@@ -11945,16 +11966,16 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="CH47" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI47" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="CJ47" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48">
@@ -11962,37 +11983,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" s="1">
-        <v>45118</v>
+        <v>45188</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -12016,56 +12037,60 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U48" s="2">
         <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
+      <c r="Y48" s="2">
+        <v>1</v>
+      </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="AD48" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
+      <c r="AI48" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO48" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AP48" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AQ48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
         <v>0</v>
       </c>
       <c r="AU48" s="1">
-        <v>45133</v>
+        <v>45202</v>
       </c>
       <c r="AV48" s="2">
         <v>1</v>
@@ -12090,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="BD48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48" s="2">
         <v>0</v>
@@ -12120,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO48" s="2">
         <v>0</v>
@@ -12159,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="CA48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB48" s="2">
         <v>0</v>
@@ -12177,16 +12202,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="CH48" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="CI48" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="CJ48" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49">
@@ -12194,37 +12219,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F49" s="1">
-        <v>45069</v>
+        <v>45168</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -12245,16 +12270,16 @@
         <v>0</v>
       </c>
       <c r="S49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="U49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -12263,15 +12288,11 @@
       <c r="AA49" s="2">
         <v>1</v>
       </c>
-      <c r="AB49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>-1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
@@ -12279,31 +12300,29 @@
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
-      <c r="AL49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO49" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="AP49" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
         <v>0</v>
       </c>
       <c r="AU49" s="1">
-        <v>45112</v>
+        <v>45202</v>
       </c>
       <c r="AV49" s="2">
         <v>1</v>
@@ -12334,10 +12353,10 @@
         <v>0</v>
       </c>
       <c r="BF49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49" s="2">
         <v>0</v>
@@ -12355,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN49" s="2">
         <v>0</v>
@@ -12415,16 +12434,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="CH49" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="CJ49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50">
@@ -12432,31 +12451,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F50" s="1">
-        <v>45124</v>
+        <v>45118</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -12486,31 +12505,27 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="U50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AD50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -12520,19 +12535,19 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO50" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="AP50" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AQ50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
@@ -12549,7 +12564,7 @@
       </c>
       <c r="AX50" s="2"/>
       <c r="AY50" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ50" s="2">
         <v>3</v>
@@ -12573,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="2">
         <v>0</v>
@@ -12594,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="BN50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO50" s="2">
         <v>0</v>
@@ -12651,16 +12666,16 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="CH50" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="CI50" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="CJ50" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51">
@@ -12668,19 +12683,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F51" s="1">
-        <v>45092</v>
+        <v>45069</v>
       </c>
       <c r="G51" t="s">
         <v>84</v>
@@ -12689,16 +12704,16 @@
         <v>84</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -12722,26 +12737,30 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="W51" s="2"/>
-      <c r="X51" s="2">
-        <v>1</v>
-      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
+      <c r="AA51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>1</v>
+      </c>
       <c r="AC51" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD51" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -12749,29 +12768,31 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
+      <c r="AL51" s="2">
+        <v>1</v>
+      </c>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="AO51" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="AP51" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
       <c r="AR51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2">
         <v>0</v>
       </c>
       <c r="AU51" s="1">
-        <v>45113</v>
+        <v>45112</v>
       </c>
       <c r="AV51" s="2">
         <v>1</v>
@@ -12802,10 +12823,10 @@
         <v>0</v>
       </c>
       <c r="BF51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH51" s="2">
         <v>0</v>
@@ -12817,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="BK51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" s="2">
         <v>0</v>
@@ -12883,16 +12904,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="CH51" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="CI51" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="CJ51" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52">
@@ -12900,37 +12921,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F52" s="1">
-        <v>45167</v>
+        <v>45124</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -12954,13 +12975,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -12969,14 +12990,16 @@
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
-      <c r="AB52" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>1</v>
+      </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
@@ -12986,26 +13009,26 @@
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AO52" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="AP52" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AQ52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2">
         <v>0</v>
       </c>
       <c r="AU52" s="1">
-        <v>45174</v>
+        <v>45133</v>
       </c>
       <c r="AV52" s="2">
         <v>1</v>
@@ -13015,118 +13038,584 @@
       </c>
       <c r="AX52" s="2"/>
       <c r="AY52" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ52" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA52" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>255</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>259</v>
+      </c>
+      <c r="CJ52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45092</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>117</v>
+      </c>
+      <c r="U53" s="2">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>86</v>
+      </c>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="1">
+        <v>45113</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ53" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK53" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG53" t="s">
+        <v>247</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>254</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>257</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45167</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>113</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>139</v>
+      </c>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="1">
+        <v>45174</v>
+      </c>
+      <c r="AV54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2">
         <v>2</v>
       </c>
-      <c r="AZ52" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA52" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB52" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV52" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD52" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG52" t="s">
-        <v>241</v>
-      </c>
-      <c r="CH52" t="s">
-        <v>247</v>
-      </c>
-      <c r="CI52" t="s">
-        <v>251</v>
-      </c>
-      <c r="CJ52" t="s">
+      <c r="AZ54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD54" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>248</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>254</v>
+      </c>
+      <c r="CI54" t="s">
         <v>258</v>
+      </c>
+      <c r="CJ54" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1095" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1114" uniqueCount="275">
   <si>
     <t>sampleid</t>
   </si>
@@ -174,6 +174,9 @@
     <t>400499</t>
   </si>
   <si>
+    <t>500674</t>
+  </si>
+  <si>
     <t>500746</t>
   </si>
   <si>
@@ -396,6 +399,9 @@
     <t>white; green</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -441,6 +447,9 @@
     <t>crystals; shiny; flaky</t>
   </si>
   <si>
+    <t>crystals; powder; chunky; dull</t>
+  </si>
+  <si>
     <t>tar</t>
   </si>
   <si>
@@ -522,6 +531,9 @@
     <t>normal; nice; stronger</t>
   </si>
   <si>
+    <t>more down; sedating</t>
+  </si>
+  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -631,6 +643,9 @@
   </si>
   <si>
     <t>pretty sure its fentanyl but not sure</t>
+  </si>
+  <si>
+    <t>fatigue after reversal</t>
   </si>
   <si>
     <t>fatal_od</t>
@@ -870,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ54"/>
+  <dimension ref="A1:CJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,265 +896,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" t="s">
-        <v>86</v>
-      </c>
       <c r="Y1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AB1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AC1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AD1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AE1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AF1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AG1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AH1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AI1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AJ1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AK1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AN1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AO1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AP1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AQ1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AR1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AS1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AT1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AU1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AV1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AW1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AX1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AY1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AZ1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BA1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="BB1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="BC1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="BD1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="BE1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="BF1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BG1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="BH1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="BI1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="BJ1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BK1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BL1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BM1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BN1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BO1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BP1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="BQ1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="BR1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="BS1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BT1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="BU1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="BV1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BW1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="BX1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="BY1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="BZ1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CA1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CB1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="CC1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CD1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="CE1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="CF1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="CG1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="CH1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="CI1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="CJ1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
@@ -1147,31 +1162,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1201,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1218,7 +1233,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1235,19 +1250,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1366,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
@@ -1383,31 +1398,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1437,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1454,7 +1469,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1471,19 +1486,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1602,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -1619,31 +1634,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1673,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1690,7 +1705,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1705,19 +1720,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1836,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -1853,31 +1868,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1907,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1924,7 +1939,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1941,19 +1956,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2072,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CH5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CI5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
@@ -2089,31 +2104,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2143,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2160,7 +2175,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2179,19 +2194,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2310,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CH6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CI6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
@@ -2327,31 +2342,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2381,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2400,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2417,19 +2432,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2548,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -2565,31 +2580,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2619,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2636,7 +2651,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2651,19 +2666,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2782,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CH8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CI8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
@@ -2799,31 +2814,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2853,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2870,7 +2885,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2889,19 +2904,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -3020,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="CH9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="CJ9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10">
@@ -3037,31 +3052,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3091,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3110,7 +3125,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3123,19 +3138,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3254,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
@@ -3271,31 +3286,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3325,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3342,7 +3357,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3357,19 +3372,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3488,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -3505,31 +3520,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3559,13 +3574,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3578,7 +3593,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3593,19 +3608,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3724,16 +3739,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH12" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI12" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
@@ -3741,31 +3756,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3795,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3812,7 +3827,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3833,19 +3848,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3964,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="CH13" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="CJ13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14">
@@ -3981,31 +3996,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4035,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4052,7 +4067,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4069,19 +4084,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AP14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4200,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH14" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI14" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ14" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
@@ -4217,31 +4232,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4271,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4288,7 +4303,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4303,19 +4318,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4434,16 +4449,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI15" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ15" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16">
@@ -4451,31 +4466,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4505,13 +4520,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4522,7 +4537,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4541,19 +4556,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4672,16 +4687,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH16" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI16" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ16" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
@@ -4689,31 +4704,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4743,13 +4758,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4760,7 +4775,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4779,19 +4794,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AP17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4910,16 +4925,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH17" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI17" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -4927,31 +4942,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4981,13 +4996,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4996,7 +5011,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -5009,19 +5024,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5140,16 +5155,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH18" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
@@ -5157,31 +5172,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5211,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5228,7 +5243,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5245,19 +5260,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AO19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5376,16 +5391,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH19" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI19" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20">
@@ -5393,31 +5408,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5447,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5462,7 +5477,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5479,19 +5494,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5610,16 +5625,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21">
@@ -5627,31 +5642,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5681,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5698,7 +5713,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5713,19 +5728,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AP21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5844,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH21" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI21" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ21" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -5861,31 +5876,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5915,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5932,7 +5947,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5947,19 +5962,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6078,16 +6093,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH22" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI22" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ22" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
@@ -6095,31 +6110,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6149,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6168,7 +6183,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6183,19 +6198,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6314,16 +6329,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH23" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI23" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ23" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -6331,31 +6346,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6385,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6402,7 +6417,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6419,19 +6434,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6550,16 +6565,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH24" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI24" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ24" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -6567,31 +6582,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6621,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6638,7 +6653,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6655,19 +6670,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AP25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6786,16 +6801,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="CH25" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI25" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="CJ25" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
@@ -6803,31 +6818,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6857,13 +6872,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6874,7 +6889,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6887,19 +6902,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -7020,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH26" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI26" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ26" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
@@ -7037,31 +7052,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7091,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7108,7 +7123,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7123,19 +7138,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7254,16 +7269,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH27" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
@@ -7271,31 +7286,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7325,13 +7340,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7342,7 +7357,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7363,19 +7378,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AP28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7494,16 +7509,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH28" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI28" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ28" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -7511,31 +7526,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7565,13 +7580,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7582,7 +7597,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7597,19 +7612,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7728,16 +7743,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH29" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI29" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ29" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -7745,31 +7760,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7799,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7816,7 +7831,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7831,19 +7846,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AP30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7962,16 +7977,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH30" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI30" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
@@ -7979,31 +7994,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8033,13 +8048,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8050,7 +8065,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8067,19 +8082,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8198,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ31" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
@@ -8215,31 +8230,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8269,13 +8284,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8286,7 +8301,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8301,19 +8316,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8432,16 +8447,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI32" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ32" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
@@ -8449,31 +8464,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8503,13 +8518,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8520,7 +8535,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8537,19 +8552,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO33" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AP33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8668,16 +8683,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH33" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -8685,31 +8700,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8739,13 +8754,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8756,7 +8771,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8773,19 +8788,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8904,16 +8919,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH34" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI34" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ34" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -8921,31 +8936,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8975,13 +8990,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -8992,7 +9007,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -9011,19 +9026,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AP35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9142,16 +9157,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH35" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ35" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -9159,31 +9174,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9213,13 +9228,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9230,7 +9245,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9245,19 +9260,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9376,16 +9391,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH36" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI36" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ36" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
@@ -9393,31 +9408,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9447,13 +9462,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9466,7 +9481,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9485,17 +9500,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO37" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AP37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9614,16 +9629,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH37" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI37" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ37" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
@@ -9631,31 +9646,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9685,13 +9700,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9702,7 +9717,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9719,19 +9734,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9850,16 +9865,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH38" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI38" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ38" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
@@ -9867,31 +9882,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9921,13 +9936,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9940,7 +9955,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9955,19 +9970,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10086,16 +10101,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH39" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI39" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ39" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
@@ -10103,31 +10118,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10157,13 +10172,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10174,7 +10189,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10189,19 +10204,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10320,16 +10335,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH40" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI40" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ40" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
@@ -10337,31 +10352,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10391,13 +10406,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10408,7 +10423,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10423,19 +10438,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AO41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10554,16 +10569,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI41" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ41" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
@@ -10571,31 +10586,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10625,13 +10640,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10644,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10661,19 +10676,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP42" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10792,16 +10807,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH42" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI42" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ42" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
@@ -10809,31 +10824,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10863,13 +10878,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10880,7 +10895,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10895,19 +10910,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -11026,16 +11041,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH43" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI43" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ43" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44">
@@ -11043,31 +11058,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11097,13 +11112,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11114,7 +11129,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11131,19 +11146,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO44" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AP44" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11262,16 +11277,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH44" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI44" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45">
@@ -11279,31 +11294,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11333,13 +11348,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11350,7 +11365,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11365,19 +11380,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP45" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11496,16 +11511,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CH45" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CI45" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ45" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
@@ -11513,31 +11528,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11567,13 +11582,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11584,7 +11599,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11601,19 +11616,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO46" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AP46" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11732,16 +11747,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH46" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI46" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ46" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47">
@@ -11749,31 +11764,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" s="1">
         <v>45168</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -11803,13 +11818,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -11822,7 +11837,7 @@
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -11835,19 +11850,19 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AP47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
@@ -11966,16 +11981,16 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH47" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI47" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ47" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
@@ -11983,31 +11998,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" s="1">
         <v>45188</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I48" s="2">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
@@ -12037,13 +12052,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U48" s="2">
         <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -12054,7 +12069,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD48" s="2">
         <v>1</v>
@@ -12071,19 +12086,19 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP48" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
       <c r="AR48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
@@ -12202,16 +12217,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="CH48" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI48" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CJ48" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49">
@@ -12219,31 +12234,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" s="1">
         <v>45168</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -12273,13 +12288,13 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U49" s="2">
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -12290,7 +12305,7 @@
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -12303,19 +12318,19 @@
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP49" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
@@ -12434,16 +12449,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH49" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI49" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ49" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
@@ -12451,31 +12466,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" s="1">
         <v>45118</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -12505,13 +12520,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U50" s="2">
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -12520,7 +12535,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AD50" s="2">
         <v>-1</v>
@@ -12535,19 +12550,19 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AQ50" s="2">
         <v>1</v>
       </c>
       <c r="AR50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
@@ -12666,16 +12681,16 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CH50" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CI50" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ50" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
@@ -12683,31 +12698,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" s="1">
         <v>45069</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -12737,13 +12752,13 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
@@ -12756,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AD51" s="2">
         <v>-1</v>
@@ -12773,19 +12788,19 @@
       </c>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO51" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AP51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ51" s="2">
         <v>0</v>
       </c>
       <c r="AR51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2">
@@ -12904,16 +12919,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="CH51" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI51" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ51" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52">
@@ -12921,31 +12936,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" s="1">
         <v>45124</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
@@ -12975,13 +12990,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -12992,7 +13007,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD52" s="2">
         <v>1</v>
@@ -13009,19 +13024,19 @@
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AP52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ52" s="2">
         <v>0</v>
       </c>
       <c r="AR52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2">
@@ -13140,16 +13155,16 @@
         <v>0</v>
       </c>
       <c r="CG52" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="CH52" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="CI52" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CJ52" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53">
@@ -13157,31 +13172,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" s="1">
         <v>45092</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -13211,13 +13226,13 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U53" s="2">
         <v>1</v>
       </c>
       <c r="V53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2">
@@ -13228,7 +13243,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -13241,19 +13256,19 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AO53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP53" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AQ53" s="2">
         <v>0</v>
       </c>
       <c r="AR53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2">
@@ -13372,16 +13387,16 @@
         <v>0</v>
       </c>
       <c r="CG53" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="CH53" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="CI53" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="CJ53" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54">
@@ -13389,25 +13404,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" s="1">
-        <v>45167</v>
+        <v>45191</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I54" s="2">
         <v>1</v>
@@ -13416,22 +13431,22 @@
         <v>91</v>
       </c>
       <c r="K54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
       </c>
       <c r="N54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
       </c>
       <c r="P54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
@@ -13443,13 +13458,13 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
@@ -13457,165 +13472,403 @@
         <v>1</v>
       </c>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
+      <c r="AA54" s="2">
+        <v>1</v>
+      </c>
       <c r="AB54" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC54" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="2">
+        <v>1</v>
+      </c>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP54" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AQ54" s="2">
         <v>1</v>
       </c>
       <c r="AR54" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2">
         <v>0</v>
       </c>
       <c r="AU54" s="1">
-        <v>45174</v>
+        <v>45205</v>
       </c>
       <c r="AV54" s="2">
         <v>1</v>
       </c>
       <c r="AW54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="2"/>
       <c r="AY54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>259</v>
+      </c>
+      <c r="CI54" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45167</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>114</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>141</v>
+      </c>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="1">
+        <v>45174</v>
+      </c>
+      <c r="AV55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2">
         <v>2</v>
       </c>
-      <c r="AZ54" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA54" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB54" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV54" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY54" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ54" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA54" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB54" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC54" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD54" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE54" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF54" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG54" t="s">
-        <v>248</v>
-      </c>
-      <c r="CH54" t="s">
-        <v>254</v>
-      </c>
-      <c r="CI54" t="s">
-        <v>258</v>
-      </c>
-      <c r="CJ54" t="s">
-        <v>265</v>
+      <c r="AZ55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD55" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>253</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>259</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>263</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1114" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1152" uniqueCount="282">
   <si>
     <t>sampleid</t>
   </si>
@@ -153,6 +153,9 @@
     <t>400415</t>
   </si>
   <si>
+    <t>400423</t>
+  </si>
+  <si>
     <t>400448</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>400499</t>
   </si>
   <si>
+    <t>500450</t>
+  </si>
+  <si>
     <t>500674</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Cocke County</t>
   </si>
   <si>
+    <t>Burnsville</t>
+  </si>
+  <si>
     <t>Yancy County</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Alexander County</t>
   </si>
   <si>
+    <t>Yancey County</t>
+  </si>
+  <si>
     <t>Brunswick County</t>
   </si>
   <si>
@@ -387,6 +399,9 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -399,9 +414,6 @@
     <t>white; green</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -441,12 +453,12 @@
     <t>powder; shiny</t>
   </si>
   <si>
+    <t>crystals; shiny; flaky</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>crystals; shiny; flaky</t>
-  </si>
-  <si>
     <t>crystals; powder; chunky; dull</t>
   </si>
   <si>
@@ -786,6 +798,9 @@
     <t>NC | ALEXANDER</t>
   </si>
   <si>
+    <t>NC | YANCEY</t>
+  </si>
+  <si>
     <t>NC | BRUNSWICK</t>
   </si>
   <si>
@@ -816,6 +831,9 @@
     <t>003</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>019</t>
   </si>
   <si>
@@ -835,6 +853,9 @@
   </si>
   <si>
     <t>37003</t>
+  </si>
+  <si>
+    <t>37199</t>
   </si>
   <si>
     <t>37019</t>
@@ -885,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ55"/>
+  <dimension ref="A1:CJ57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -896,265 +917,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="T1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="U1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="V1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Z1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AA1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AB1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AC1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AD1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AE1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AH1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AI1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AJ1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AK1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AL1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AM1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AN1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AO1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AP1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AQ1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AR1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AS1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AT1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AU1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AV1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AW1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AX1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AY1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AZ1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BA1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="BB1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BC1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BD1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="BE1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BF1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="BG1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BH1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="BI1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BJ1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="BK1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BL1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="BM1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BN1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BO1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="BP1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BQ1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="BR1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="BS1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BT1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BU1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BV1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BW1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BX1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BY1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BZ1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="CA1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="CB1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="CC1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="CD1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="CE1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="CF1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="CG1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="CH1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="CI1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="CJ1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
@@ -1162,31 +1183,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1216,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1233,7 +1254,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1250,19 +1271,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1381,16 +1402,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -1398,31 +1419,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1452,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1469,7 +1490,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1486,19 +1507,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1617,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
@@ -1634,31 +1655,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1688,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1705,7 +1726,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1720,19 +1741,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1851,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
@@ -1868,31 +1889,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1922,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1939,7 +1960,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1956,19 +1977,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2087,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="CH5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="CI5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="CJ5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
@@ -2104,31 +2125,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2158,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2175,7 +2196,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2194,19 +2215,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2325,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="CH6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="CI6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="CJ6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
@@ -2342,31 +2363,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2396,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2415,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2432,19 +2453,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2563,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -2580,31 +2601,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2634,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2651,7 +2672,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2666,19 +2687,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2797,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="CH8" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="CI8" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="CJ8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
@@ -2814,31 +2835,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2868,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2885,7 +2906,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2904,19 +2925,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -3035,16 +3056,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="CH9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="CJ9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10">
@@ -3052,31 +3073,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3106,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3125,7 +3146,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3138,19 +3159,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3269,16 +3290,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11">
@@ -3286,31 +3307,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3340,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3357,7 +3378,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3372,19 +3393,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3503,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ11" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12">
@@ -3520,31 +3541,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3574,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3593,7 +3614,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3608,19 +3629,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3739,16 +3760,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI12" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ12" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
@@ -3756,31 +3777,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3810,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3827,7 +3848,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3848,19 +3869,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -3979,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="CH13" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI13" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="CJ13" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
@@ -3996,31 +4017,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4050,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4067,7 +4088,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4084,19 +4105,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AP14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4215,16 +4236,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH14" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI14" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ14" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15">
@@ -4232,31 +4253,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4286,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4303,7 +4324,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4318,19 +4339,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4449,16 +4470,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH15" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI15" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ15" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16">
@@ -4466,31 +4487,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4520,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4537,7 +4558,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4556,19 +4577,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4687,16 +4708,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH16" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ16" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17">
@@ -4704,31 +4725,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4758,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4775,7 +4796,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4794,19 +4815,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO17" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AP17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4925,16 +4946,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH17" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI17" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ17" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -4942,31 +4963,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4996,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -5011,7 +5032,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -5024,19 +5045,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5155,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH18" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI18" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ18" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19">
@@ -5172,31 +5193,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5226,13 +5247,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5243,7 +5264,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5260,19 +5281,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AO19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5391,16 +5412,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH19" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI19" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ19" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20">
@@ -5408,31 +5429,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5462,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5477,7 +5498,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5494,19 +5515,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5625,16 +5646,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ20" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -5642,31 +5663,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5696,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5713,7 +5734,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5728,19 +5749,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AP21" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5859,16 +5880,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH21" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ21" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22">
@@ -5876,31 +5897,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5930,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5947,7 +5968,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5962,19 +5983,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP22" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6093,16 +6114,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH22" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI22" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ22" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23">
@@ -6110,31 +6131,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6164,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6183,7 +6204,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6198,19 +6219,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6329,16 +6350,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH23" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI23" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ23" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24">
@@ -6346,31 +6367,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6400,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6417,7 +6438,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6434,19 +6455,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6565,16 +6586,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH24" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI24" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ24" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25">
@@ -6582,31 +6603,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6636,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6653,7 +6674,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6670,19 +6691,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AP25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6801,16 +6822,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="CH25" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI25" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="CJ25" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26">
@@ -6818,31 +6839,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6872,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6889,7 +6910,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6902,19 +6923,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -7035,16 +7056,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH26" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI26" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ26" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
@@ -7052,31 +7073,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7106,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7123,7 +7144,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7138,19 +7159,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7269,16 +7290,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH27" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI27" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ27" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
@@ -7286,31 +7307,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7340,13 +7361,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7357,7 +7378,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7378,19 +7399,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AP28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7509,16 +7530,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH28" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI28" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ28" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -7526,31 +7547,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7580,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7597,7 +7618,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7612,19 +7633,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7743,16 +7764,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH29" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI29" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -7760,31 +7781,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7814,13 +7835,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7831,7 +7852,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7846,19 +7867,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AP30" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7977,16 +7998,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI30" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ30" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
@@ -7994,31 +8015,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8048,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8065,7 +8086,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8082,19 +8103,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP31" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8213,16 +8234,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI31" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ31" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -8230,31 +8251,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8284,13 +8305,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8301,7 +8322,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8316,19 +8337,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8447,16 +8468,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH32" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI32" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ32" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
@@ -8464,31 +8485,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8518,13 +8539,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8535,7 +8556,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8552,19 +8573,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AP33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8683,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH33" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI33" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ33" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -8700,31 +8721,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8754,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8771,7 +8792,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8788,19 +8809,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8919,16 +8940,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH34" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI34" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ34" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -8936,31 +8957,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8990,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -9007,7 +9028,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -9026,19 +9047,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO35" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AP35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9157,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH35" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ35" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -9174,31 +9195,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9228,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9245,7 +9266,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9260,19 +9281,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9391,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH36" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI36" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ36" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
@@ -9408,31 +9429,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9462,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9481,7 +9502,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9500,17 +9521,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AP37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9629,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH37" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI37" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ37" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38">
@@ -9646,31 +9667,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9700,13 +9721,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9717,7 +9738,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9734,19 +9755,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9865,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH38" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI38" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ38" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
@@ -9882,31 +9903,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9936,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9955,7 +9976,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9970,19 +9991,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP39" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10101,16 +10122,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH39" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ39" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40">
@@ -10118,31 +10139,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10172,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10189,7 +10210,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10204,19 +10225,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10335,16 +10356,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH40" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI40" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ40" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -10352,31 +10373,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10406,13 +10427,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10423,7 +10444,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10438,19 +10459,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AO41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10569,16 +10590,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH41" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI41" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ41" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42">
@@ -10586,31 +10607,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10640,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10659,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10676,19 +10697,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP42" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10807,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CH42" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI42" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CJ42" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43">
@@ -10824,31 +10845,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10878,13 +10899,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10895,7 +10916,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10910,19 +10931,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -11041,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH43" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI43" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ43" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44">
@@ -11058,31 +11079,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11112,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11129,7 +11150,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11146,19 +11167,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO44" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AP44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11277,16 +11298,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH44" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI44" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ44" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45">
@@ -11294,31 +11315,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11348,13 +11369,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11365,7 +11386,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11380,19 +11401,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11511,16 +11532,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="CH45" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="CI45" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="CJ45" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46">
@@ -11528,31 +11549,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11582,13 +11603,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11599,7 +11620,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11616,19 +11637,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AP46" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11747,16 +11768,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CH46" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI46" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CJ46" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47">
@@ -11764,31 +11785,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F47" s="1">
-        <v>45168</v>
+        <v>45238</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -11818,28 +11839,30 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2">
         <v>1</v>
       </c>
-      <c r="AB47" s="2"/>
+      <c r="AB47" s="2">
+        <v>1</v>
+      </c>
       <c r="AC47" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD47" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -11850,39 +11873,39 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO47" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="AP47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
         <v>0</v>
       </c>
       <c r="AU47" s="1">
-        <v>45174</v>
+        <v>45264</v>
       </c>
       <c r="AV47" s="2">
         <v>1</v>
       </c>
       <c r="AW47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="2"/>
       <c r="AY47" s="2">
         <v>2</v>
       </c>
       <c r="AZ47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -11981,16 +12004,16 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="CH47" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI47" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="CJ47" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48">
@@ -11998,49 +12021,49 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F48" s="1">
-        <v>45188</v>
+        <v>45168</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
@@ -12052,13 +12075,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -12066,80 +12089,78 @@
         <v>1</v>
       </c>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO48" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="AP48" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
       <c r="AR48" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
         <v>0</v>
       </c>
       <c r="AU48" s="1">
-        <v>45202</v>
+        <v>45174</v>
       </c>
       <c r="AV48" s="2">
         <v>1</v>
       </c>
       <c r="AW48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="2"/>
       <c r="AY48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="2">
         <v>0</v>
       </c>
       <c r="BD48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH48" s="2">
         <v>0</v>
@@ -12184,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="BV48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW48" s="2">
         <v>0</v>
@@ -12208,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="CD48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE48" s="2">
         <v>0</v>
@@ -12217,16 +12238,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CH48" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI48" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CJ48" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
@@ -12234,37 +12255,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F49" s="1">
-        <v>45168</v>
+        <v>45188</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -12285,52 +12306,56 @@
         <v>0</v>
       </c>
       <c r="S49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U49" s="2">
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
+      <c r="Y49" s="2">
+        <v>1</v>
+      </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD49" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>1</v>
+      </c>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
+      <c r="AI49" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
@@ -12343,29 +12368,29 @@
         <v>1</v>
       </c>
       <c r="AW49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ49" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" s="2">
         <v>0</v>
       </c>
       <c r="BD49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF49" s="2">
         <v>0</v>
@@ -12389,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" s="2">
         <v>0</v>
@@ -12416,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BV49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW49" s="2">
         <v>0</v>
@@ -12440,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="CD49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE49" s="2">
         <v>0</v>
@@ -12449,16 +12474,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="CH49" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI49" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="CJ49" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50">
@@ -12466,34 +12491,34 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F50" s="1">
-        <v>45118</v>
+        <v>45168</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -12517,29 +12542,29 @@
         <v>0</v>
       </c>
       <c r="S50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U50" s="2">
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
+      <c r="AA50" s="2">
+        <v>1</v>
+      </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>-1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
@@ -12550,45 +12575,45 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AQ50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
         <v>0</v>
       </c>
       <c r="AU50" s="1">
-        <v>45133</v>
+        <v>45202</v>
       </c>
       <c r="AV50" s="2">
         <v>1</v>
       </c>
       <c r="AW50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="2"/>
       <c r="AY50" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="2">
         <v>0</v>
@@ -12621,10 +12646,10 @@
         <v>0</v>
       </c>
       <c r="BM50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO50" s="2">
         <v>0</v>
@@ -12648,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="BV50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW50" s="2">
         <v>0</v>
@@ -12663,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="CA50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB50" s="2">
         <v>0</v>
@@ -12672,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="CD50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE50" s="2">
         <v>0</v>
@@ -12681,16 +12706,16 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="CH50" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CI50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CJ50" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
@@ -12698,37 +12723,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F51" s="1">
-        <v>45069</v>
+        <v>45118</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -12752,26 +12777,22 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="U51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
       <c r="AC51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AD51" s="2">
         <v>-1</v>
@@ -12783,50 +12804,48 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-      <c r="AL51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO51" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="AP51" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AQ51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2">
         <v>0</v>
       </c>
       <c r="AU51" s="1">
-        <v>45112</v>
+        <v>45133</v>
       </c>
       <c r="AV51" s="2">
         <v>1</v>
       </c>
       <c r="AW51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="2"/>
       <c r="AY51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ51" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC51" s="2">
         <v>0</v>
@@ -12838,10 +12857,10 @@
         <v>0</v>
       </c>
       <c r="BF51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51" s="2">
         <v>0</v>
@@ -12862,7 +12881,7 @@
         <v>0</v>
       </c>
       <c r="BN51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51" s="2">
         <v>0</v>
@@ -12886,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="BV51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW51" s="2">
         <v>0</v>
@@ -12901,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="CA51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB51" s="2">
         <v>0</v>
@@ -12910,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="CD51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE51" s="2">
         <v>0</v>
@@ -12919,16 +12938,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CH51" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="CI51" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="CJ51" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
@@ -12936,37 +12955,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F52" s="1">
-        <v>45124</v>
+        <v>45069</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -12990,79 +13009,81 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
+      <c r="AA52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>1</v>
+      </c>
       <c r="AC52" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AD52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="2">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
       <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
+      <c r="AL52" s="2">
+        <v>1</v>
+      </c>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO52" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AP52" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ52" s="2">
         <v>0</v>
       </c>
       <c r="AR52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2">
         <v>0</v>
       </c>
       <c r="AU52" s="1">
-        <v>45133</v>
+        <v>45112</v>
       </c>
       <c r="AV52" s="2">
         <v>1</v>
       </c>
       <c r="AW52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="2"/>
       <c r="AY52" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="2">
         <v>0</v>
@@ -13074,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG52" s="2">
         <v>1</v>
@@ -13122,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="BV52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW52" s="2">
         <v>0</v>
@@ -13137,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="CA52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB52" s="2">
         <v>0</v>
@@ -13146,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="CD52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE52" s="2">
         <v>0</v>
@@ -13155,16 +13176,16 @@
         <v>0</v>
       </c>
       <c r="CG52" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="CH52" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CI52" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="CJ52" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53">
@@ -13172,19 +13193,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F53" s="1">
-        <v>45092</v>
+        <v>45124</v>
       </c>
       <c r="G53" t="s">
         <v>87</v>
@@ -13193,13 +13214,13 @@
         <v>87</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
@@ -13226,27 +13247,31 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="W53" s="2"/>
-      <c r="X53" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2">
+        <v>1</v>
+      </c>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>1</v>
+      </c>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
@@ -13256,45 +13281,45 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="AO53" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="AP53" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ53" s="2">
         <v>0</v>
       </c>
       <c r="AR53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2">
         <v>0</v>
       </c>
       <c r="AU53" s="1">
-        <v>45113</v>
+        <v>45133</v>
       </c>
       <c r="AV53" s="2">
         <v>1</v>
       </c>
       <c r="AW53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="2"/>
       <c r="AY53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ53" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC53" s="2">
         <v>0</v>
@@ -13309,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH53" s="2">
         <v>0</v>
@@ -13321,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53" s="2">
         <v>0</v>
@@ -13354,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="BV53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW53" s="2">
         <v>0</v>
@@ -13369,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="CA53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB53" s="2">
         <v>0</v>
@@ -13378,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="CD53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE53" s="2">
         <v>0</v>
@@ -13387,16 +13412,16 @@
         <v>0</v>
       </c>
       <c r="CG53" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="CH53" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="CI53" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="CJ53" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54">
@@ -13404,116 +13429,110 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F54" s="1">
-        <v>45191</v>
+        <v>45092</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>122</v>
+      </c>
+      <c r="U54" s="2">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
         <v>91</v>
       </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>1</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
-        <v>128</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" t="s">
-        <v>144</v>
-      </c>
       <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2">
-        <v>1</v>
-      </c>
+      <c r="X54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
       <c r="AC54" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="AO54" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP54" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AQ54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2">
         <v>0</v>
       </c>
       <c r="AU54" s="1">
-        <v>45205</v>
+        <v>45113</v>
       </c>
       <c r="AV54" s="2">
         <v>1</v>
@@ -13544,10 +13563,10 @@
         <v>0</v>
       </c>
       <c r="BF54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="2">
         <v>0</v>
@@ -13559,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL54" s="2">
         <v>0</v>
@@ -13625,16 +13644,16 @@
         <v>0</v>
       </c>
       <c r="CG54" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CH54" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="CI54" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CJ54" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55">
@@ -13642,49 +13661,49 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F55" s="1">
-        <v>45167</v>
+        <v>45260</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="2">
         <v>0</v>
@@ -13696,179 +13715,657 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="2"/>
       <c r="AC55" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD55" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>1</v>
+      </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
+      <c r="AG55" s="2">
+        <v>1</v>
+      </c>
       <c r="AH55" s="2"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
+      <c r="AI55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>1</v>
+      </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AO55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AP55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AQ55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2">
         <v>0</v>
       </c>
       <c r="AU55" s="1">
-        <v>45174</v>
+        <v>45264</v>
       </c>
       <c r="AV55" s="2">
         <v>1</v>
       </c>
       <c r="AW55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="2"/>
       <c r="AY55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>256</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>264</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>267</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45191</v>
+      </c>
+      <c r="G56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" t="s">
+        <v>128</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>148</v>
+      </c>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="1">
+        <v>45205</v>
+      </c>
+      <c r="AV56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG56" t="s">
+        <v>257</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>264</v>
+      </c>
+      <c r="CI56" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45167</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>118</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>145</v>
+      </c>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="1">
+        <v>45174</v>
+      </c>
+      <c r="AV57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2">
         <v>2</v>
       </c>
-      <c r="AZ55" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA55" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB55" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV55" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY55" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ55" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA55" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB55" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC55" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD55" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE55" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF55" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG55" t="s">
-        <v>253</v>
-      </c>
-      <c r="CH55" t="s">
-        <v>259</v>
-      </c>
-      <c r="CI55" t="s">
-        <v>263</v>
-      </c>
-      <c r="CJ55" t="s">
-        <v>270</v>
+      <c r="AZ57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD57" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>257</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>264</v>
+      </c>
+      <c r="CI57" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ57" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1152" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1171" uniqueCount="285">
   <si>
     <t>sampleid</t>
   </si>
@@ -186,6 +186,9 @@
     <t>500746</t>
   </si>
   <si>
+    <t>500995</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -462,6 +465,9 @@
     <t>crystals; powder; chunky; dull</t>
   </si>
   <si>
+    <t>powder; chunky; flaky</t>
+  </si>
+  <si>
     <t>tar</t>
   </si>
   <si>
@@ -544,6 +550,9 @@
   </si>
   <si>
     <t>more down; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -906,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ57"/>
+  <dimension ref="A1:CJ58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -917,265 +926,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" t="s">
-        <v>91</v>
-      </c>
       <c r="Y1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AC1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AD1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AE1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AF1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AH1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AI1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AK1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AL1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AM1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AN1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AO1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AP1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AQ1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AR1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AS1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AT1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AU1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AV1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AW1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AX1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AY1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AZ1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BA1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BB1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BC1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BD1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BE1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BF1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BG1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BH1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BI1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="BJ1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="BK1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="BL1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="BM1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BN1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BO1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BP1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BQ1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BR1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BS1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BT1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BU1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BV1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BW1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BX1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BY1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BZ1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="CA1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="CB1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="CC1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="CD1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="CE1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="CF1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="CG1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="CH1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CI1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CJ1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
@@ -1183,31 +1192,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1237,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1254,7 +1263,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1271,19 +1280,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1402,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
@@ -1419,31 +1428,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1473,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1490,7 +1499,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1507,19 +1516,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1638,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -1655,31 +1664,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1709,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1726,7 +1735,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1741,19 +1750,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1872,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
@@ -1889,31 +1898,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1943,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1960,7 +1969,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1977,19 +1986,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2108,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CH5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CI5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
@@ -2125,31 +2134,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2179,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2196,7 +2205,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2215,19 +2224,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2346,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CH6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CI6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
@@ -2363,31 +2372,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2417,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2436,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2453,19 +2462,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2584,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8">
@@ -2601,31 +2610,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2655,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2672,7 +2681,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2687,19 +2696,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2818,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CH8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CI8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
@@ -2835,31 +2844,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2889,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2906,7 +2915,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2925,19 +2934,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -3056,16 +3065,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CH9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -3073,31 +3082,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3127,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3146,7 +3155,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3159,19 +3168,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3290,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11">
@@ -3307,31 +3316,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3361,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3378,7 +3387,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3393,19 +3402,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3524,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -3541,31 +3550,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3595,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3614,7 +3623,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3629,19 +3638,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3760,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
@@ -3777,31 +3786,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3831,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3848,7 +3857,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3869,19 +3878,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -4000,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="CH13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14">
@@ -4017,31 +4026,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4071,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4088,7 +4097,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4105,19 +4114,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AP14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4236,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI14" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
@@ -4253,31 +4262,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4307,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4324,7 +4333,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4339,19 +4348,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4470,16 +4479,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16">
@@ -4487,31 +4496,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4541,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4558,7 +4567,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4577,19 +4586,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4708,16 +4717,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
@@ -4725,31 +4734,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4779,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4796,7 +4805,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4815,19 +4824,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AP17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4946,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH17" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI17" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18">
@@ -4963,31 +4972,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -5017,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -5032,7 +5041,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -5045,19 +5054,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5176,16 +5185,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19">
@@ -5193,31 +5202,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5247,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5264,7 +5273,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5281,19 +5290,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AO19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5412,16 +5421,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20">
@@ -5429,31 +5438,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5483,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5498,7 +5507,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5515,19 +5524,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5646,16 +5655,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21">
@@ -5663,31 +5672,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5717,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5734,7 +5743,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5749,19 +5758,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AP21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5880,16 +5889,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22">
@@ -5897,31 +5906,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5951,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5968,7 +5977,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5983,19 +5992,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6114,16 +6123,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI22" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23">
@@ -6131,31 +6140,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6185,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6204,7 +6213,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6219,19 +6228,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6350,16 +6359,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI23" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ23" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24">
@@ -6367,31 +6376,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6421,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6438,7 +6447,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6455,19 +6464,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6586,16 +6595,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ24" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25">
@@ -6603,31 +6612,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6657,13 +6666,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6674,7 +6683,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6691,19 +6700,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AP25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6822,16 +6831,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="CH25" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI25" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CJ25" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
@@ -6839,31 +6848,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6893,13 +6902,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6910,7 +6919,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6923,19 +6932,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP26" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -7056,16 +7065,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH26" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI26" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
@@ -7073,31 +7082,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7127,13 +7136,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7144,7 +7153,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7159,19 +7168,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7290,16 +7299,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ27" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28">
@@ -7307,31 +7316,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7361,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7378,7 +7387,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7399,19 +7408,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AP28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7530,16 +7539,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH28" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI28" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ28" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
@@ -7547,31 +7556,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7601,13 +7610,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7618,7 +7627,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7633,19 +7642,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7764,16 +7773,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ29" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
@@ -7781,31 +7790,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7835,13 +7844,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7867,19 +7876,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AP30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -7998,16 +8007,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH30" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
@@ -8015,31 +8024,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8069,13 +8078,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8086,7 +8095,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8103,19 +8112,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8234,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
@@ -8251,31 +8260,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8305,13 +8314,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8322,7 +8331,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8337,19 +8346,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8468,16 +8477,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH32" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI32" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
@@ -8485,31 +8494,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8539,13 +8548,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8556,7 +8565,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8573,19 +8582,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8704,16 +8713,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH33" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI33" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ33" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
@@ -8721,31 +8730,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8775,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8792,7 +8801,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8809,19 +8818,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8940,16 +8949,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ34" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -8957,31 +8966,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -9011,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -9028,7 +9037,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -9047,19 +9056,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AP35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9178,16 +9187,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ35" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
@@ -9195,31 +9204,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9249,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9266,7 +9275,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9281,19 +9290,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP36" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9412,16 +9421,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH36" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ36" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
@@ -9429,31 +9438,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9483,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9502,7 +9511,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9521,17 +9530,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO37" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AP37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9650,16 +9659,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH37" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI37" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ37" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
@@ -9667,31 +9676,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9721,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9738,7 +9747,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9755,19 +9764,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP38" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9886,16 +9895,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH38" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI38" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ38" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
@@ -9903,31 +9912,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9957,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9976,7 +9985,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -9991,19 +10000,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP39" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10122,16 +10131,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI39" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ39" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
@@ -10139,31 +10148,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10193,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10210,7 +10219,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10225,19 +10234,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10356,16 +10365,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH40" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ40" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
@@ -10373,31 +10382,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10427,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10444,7 +10453,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10459,19 +10468,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AO41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP41" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10590,16 +10599,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH41" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI41" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ41" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42">
@@ -10607,31 +10616,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10661,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10680,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10697,19 +10706,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10828,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH42" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI42" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ42" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43">
@@ -10845,31 +10854,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10899,13 +10908,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10916,7 +10925,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10931,19 +10940,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP43" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -11062,16 +11071,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH43" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI43" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ43" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
@@ -11079,31 +11088,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11133,13 +11142,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11150,7 +11159,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11167,19 +11176,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO44" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AP44" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11298,16 +11307,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH44" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI44" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45">
@@ -11315,31 +11324,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11369,13 +11378,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11386,7 +11395,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11401,19 +11410,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11532,16 +11541,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CH45" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CI45" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ45" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
@@ -11549,31 +11558,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11603,13 +11612,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11620,7 +11629,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11637,19 +11646,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO46" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AP46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11768,16 +11777,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH46" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI46" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47">
@@ -11785,31 +11794,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F47" s="1">
         <v>45238</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -11839,13 +11848,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -11858,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AD47" s="2">
         <v>-1</v>
@@ -11873,19 +11882,19 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP47" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
@@ -12004,16 +12013,16 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CH47" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI47" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CJ47" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48">
@@ -12021,31 +12030,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="1">
         <v>45168</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -12075,13 +12084,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -12094,7 +12103,7 @@
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -12107,19 +12116,19 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO48" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AP48" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
       <c r="AR48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
@@ -12238,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI48" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ48" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49">
@@ -12255,31 +12264,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" s="1">
         <v>45188</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
@@ -12309,13 +12318,13 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U49" s="2">
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -12326,7 +12335,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AD49" s="2">
         <v>1</v>
@@ -12343,19 +12352,19 @@
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
@@ -12474,16 +12483,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI49" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ49" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50">
@@ -12491,31 +12500,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F50" s="1">
         <v>45168</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -12545,13 +12554,13 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U50" s="2">
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -12562,7 +12571,7 @@
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -12575,19 +12584,19 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP50" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ50" s="2">
         <v>0</v>
       </c>
       <c r="AR50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
@@ -12706,16 +12715,16 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI50" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51">
@@ -12723,31 +12732,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F51" s="1">
         <v>45118</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -12777,13 +12786,13 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U51" s="2">
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
@@ -12792,7 +12801,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD51" s="2">
         <v>-1</v>
@@ -12807,19 +12816,19 @@
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ51" s="2">
         <v>1</v>
       </c>
       <c r="AR51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2">
@@ -12938,16 +12947,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CH51" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CI51" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ51" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52">
@@ -12955,31 +12964,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F52" s="1">
         <v>45069</v>
       </c>
       <c r="G52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
@@ -13009,13 +13018,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -13028,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD52" s="2">
         <v>-1</v>
@@ -13045,19 +13054,19 @@
       </c>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AP52" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ52" s="2">
         <v>0</v>
       </c>
       <c r="AR52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2">
@@ -13176,16 +13185,16 @@
         <v>0</v>
       </c>
       <c r="CG52" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CH52" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI52" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CJ52" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53">
@@ -13193,31 +13202,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F53" s="1">
         <v>45124</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
@@ -13247,13 +13256,13 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -13264,7 +13273,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AD53" s="2">
         <v>1</v>
@@ -13281,19 +13290,19 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AP53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ53" s="2">
         <v>0</v>
       </c>
       <c r="AR53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2">
@@ -13412,16 +13421,16 @@
         <v>0</v>
       </c>
       <c r="CG53" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="CH53" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CI53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CJ53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54">
@@ -13429,31 +13438,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F54" s="1">
         <v>45092</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -13483,13 +13492,13 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U54" s="2">
         <v>1</v>
       </c>
       <c r="V54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2">
@@ -13500,7 +13509,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -13513,19 +13522,19 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AO54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP54" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ54" s="2">
         <v>0</v>
       </c>
       <c r="AR54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2">
@@ -13644,16 +13653,16 @@
         <v>0</v>
       </c>
       <c r="CG54" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH54" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI54" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ54" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
@@ -13661,31 +13670,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F55" s="1">
         <v>45260</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -13715,13 +13724,13 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
@@ -13732,7 +13741,7 @@
       </c>
       <c r="AB55" s="2"/>
       <c r="AC55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD55" s="2">
         <v>1</v>
@@ -13753,19 +13762,19 @@
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AQ55" s="2">
         <v>0</v>
       </c>
       <c r="AR55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2">
@@ -13884,16 +13893,16 @@
         <v>0</v>
       </c>
       <c r="CG55" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="CH55" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI55" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CJ55" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56">
@@ -13901,31 +13910,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F56" s="1">
         <v>45191</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
@@ -13955,13 +13964,13 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
@@ -13976,7 +13985,7 @@
         <v>-1</v>
       </c>
       <c r="AC56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -13991,19 +14000,19 @@
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP56" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ56" s="2">
         <v>1</v>
       </c>
       <c r="AR56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AS56" s="2"/>
       <c r="AT56" s="2">
@@ -14122,16 +14131,16 @@
         <v>0</v>
       </c>
       <c r="CG56" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH56" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI56" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ56" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57">
@@ -14139,31 +14148,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="1">
         <v>45167</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
@@ -14193,13 +14202,13 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U57" s="2">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
@@ -14212,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -14225,19 +14234,19 @@
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
       <c r="AN57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP57" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AQ57" s="2">
         <v>1</v>
       </c>
       <c r="AR57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AS57" s="2"/>
       <c r="AT57" s="2">
@@ -14356,16 +14365,248 @@
         <v>0</v>
       </c>
       <c r="CG57" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CH57" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CI57" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CJ57" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45331</v>
+      </c>
+      <c r="G58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>127</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>150</v>
+      </c>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AV58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2">
+        <v>7</v>
+      </c>
+      <c r="AZ58" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>260</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>267</v>
+      </c>
+      <c r="CI58" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ58" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1171" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1190" uniqueCount="292">
   <si>
     <t>sampleid</t>
   </si>
@@ -177,6 +177,9 @@
     <t>400499</t>
   </si>
   <si>
+    <t>500374</t>
+  </si>
+  <si>
     <t>500450</t>
   </si>
   <si>
@@ -234,6 +237,9 @@
     <t>Yancy County</t>
   </si>
   <si>
+    <t>Liberty</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
@@ -255,6 +261,9 @@
     <t>Brunswick County</t>
   </si>
   <si>
+    <t>DeKalb County</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
@@ -642,6 +651,9 @@
     <t>takes breath away, anxiety</t>
   </si>
   <si>
+    <t>Unknown - participant found baggie and wants to know what it is</t>
+  </si>
+  <si>
     <t>overdose</t>
   </si>
   <si>
@@ -813,6 +825,9 @@
     <t>NC | BRUNSWICK</t>
   </si>
   <si>
+    <t>TN | DEKALB</t>
+  </si>
+  <si>
     <t>statefips</t>
   </si>
   <si>
@@ -846,6 +861,9 @@
     <t>019</t>
   </si>
   <si>
+    <t>041</t>
+  </si>
+  <si>
     <t>countyfips</t>
   </si>
   <si>
@@ -868,6 +886,9 @@
   </si>
   <si>
     <t>37019</t>
+  </si>
+  <si>
+    <t>47041</t>
   </si>
 </sst>
 </file>
@@ -915,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ58"/>
+  <dimension ref="A1:CJ59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,265 +947,265 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" t="s">
-        <v>151</v>
-      </c>
-      <c r="X1" t="s">
-        <v>92</v>
-      </c>
       <c r="Y1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Z1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AA1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AB1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AC1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AE1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AF1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AG1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AH1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AI1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AJ1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AN1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AO1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AP1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AQ1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AR1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AS1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AT1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AU1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AV1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AW1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AX1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AY1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AZ1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="BA1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="BB1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="BC1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="BD1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BE1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="BF1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BG1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BH1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="BI1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BJ1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="BK1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="BL1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BM1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BN1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BO1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BP1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BQ1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BR1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BS1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BT1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="BU1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="BV1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="BW1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="BX1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="BY1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="BZ1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="CA1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="CB1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="CC1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="CD1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="CE1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="CF1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="CG1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="CH1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="CI1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="CJ1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -1192,31 +1213,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1246,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1263,7 +1284,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1280,19 +1301,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1411,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
@@ -1428,31 +1449,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1482,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1499,7 +1520,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1516,19 +1537,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1647,16 +1668,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -1664,31 +1685,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1718,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1735,7 +1756,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1750,19 +1771,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1881,16 +1902,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
@@ -1898,31 +1919,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1952,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1969,7 +1990,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -1986,19 +2007,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2117,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="CH5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="CI5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
@@ -2134,31 +2155,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2188,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2205,7 +2226,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2224,19 +2245,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2355,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="CH6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="CI6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
@@ -2372,31 +2393,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2426,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2445,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2462,19 +2483,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2593,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
@@ -2610,31 +2631,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2664,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2681,7 +2702,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2696,19 +2717,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2827,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="CH8" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="CI8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -2844,31 +2865,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2898,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2915,7 +2936,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2934,19 +2955,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -3065,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="CH9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="CJ9" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
@@ -3082,31 +3103,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3136,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3155,7 +3176,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3168,19 +3189,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3299,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ10" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11">
@@ -3316,31 +3337,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3370,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3387,7 +3408,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3402,19 +3423,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3533,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -3550,31 +3571,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3604,13 +3625,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3623,7 +3644,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3638,19 +3659,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3769,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI12" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ12" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
@@ -3786,31 +3807,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3840,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3857,7 +3878,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3878,19 +3899,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -4009,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="CH13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI13" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="CJ13" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14">
@@ -4026,31 +4047,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4080,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4097,7 +4118,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4114,19 +4135,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AP14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4245,16 +4266,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH14" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI14" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ14" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
@@ -4262,31 +4283,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4316,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4333,7 +4354,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4348,19 +4369,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4479,16 +4500,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH15" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI15" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ15" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
@@ -4496,31 +4517,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4550,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4567,7 +4588,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4586,19 +4607,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP16" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4717,16 +4738,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI16" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ16" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17">
@@ -4734,31 +4755,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4788,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4805,7 +4826,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4824,19 +4845,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AP17" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4955,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH17" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI17" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ17" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18">
@@ -4972,31 +4993,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -5026,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -5041,7 +5062,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -5054,19 +5075,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5185,16 +5206,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH18" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI18" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ18" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19">
@@ -5202,31 +5223,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5256,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5273,7 +5294,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5290,19 +5311,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AO19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP19" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5421,16 +5442,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH19" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ19" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20">
@@ -5438,31 +5459,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5492,13 +5513,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5507,7 +5528,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5524,19 +5545,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5655,16 +5676,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
@@ -5672,31 +5693,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5726,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5743,7 +5764,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5758,19 +5779,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AP21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5889,16 +5910,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI21" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ21" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22">
@@ -5906,31 +5927,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5960,13 +5981,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5977,7 +5998,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -5992,19 +6013,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6123,16 +6144,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH22" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI22" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ22" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23">
@@ -6140,31 +6161,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6194,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6213,7 +6234,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6228,19 +6249,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6359,16 +6380,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH23" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI23" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ23" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24">
@@ -6376,31 +6397,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6430,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6447,7 +6468,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6464,19 +6485,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6595,16 +6616,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH24" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI24" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ24" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25">
@@ -6612,31 +6633,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6666,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6683,7 +6704,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6700,19 +6721,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP25" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6831,16 +6852,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CH25" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI25" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="CJ25" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26">
@@ -6848,31 +6869,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6902,13 +6923,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6919,7 +6940,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6932,19 +6953,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -7065,16 +7086,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH26" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI26" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ26" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
@@ -7082,31 +7103,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7136,13 +7157,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7153,7 +7174,7 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD27" s="2">
         <v>1</v>
@@ -7168,19 +7189,19 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP27" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2">
@@ -7299,16 +7320,16 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH27" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI27" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ27" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
@@ -7316,31 +7337,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1">
         <v>44788</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -7370,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -7387,7 +7408,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -7408,19 +7429,19 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AP28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2">
@@ -7539,16 +7560,16 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH28" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI28" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ28" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
@@ -7556,31 +7577,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1">
         <v>44855</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -7610,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7627,7 +7648,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -7642,19 +7663,19 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP29" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2">
@@ -7773,16 +7794,16 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH29" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI29" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ29" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
@@ -7790,31 +7811,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F30" s="1">
         <v>45051</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7844,13 +7865,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7861,7 +7882,7 @@
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -7876,19 +7897,19 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AP30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2">
@@ -8007,16 +8028,16 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH30" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI30" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ30" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
@@ -8024,31 +8045,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F31" s="1">
         <v>44881</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -8078,13 +8099,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -8095,7 +8116,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2">
@@ -8112,19 +8133,19 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2">
@@ -8243,16 +8264,16 @@
         <v>0</v>
       </c>
       <c r="CG31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ31" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
@@ -8260,31 +8281,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1">
         <v>44819</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -8314,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -8331,7 +8352,7 @@
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -8346,19 +8367,19 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2">
@@ -8477,16 +8498,16 @@
         <v>0</v>
       </c>
       <c r="CG32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH32" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI32" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ32" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -8494,31 +8515,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1">
         <v>44806</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -8548,13 +8569,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -8565,7 +8586,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2">
@@ -8582,19 +8603,19 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AP33" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2">
@@ -8713,16 +8734,16 @@
         <v>0</v>
       </c>
       <c r="CG33" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH33" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI33" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ33" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
@@ -8730,31 +8751,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1">
         <v>44799</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8784,13 +8805,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U34" s="2">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2">
@@ -8801,7 +8822,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AD34" s="2">
         <v>1</v>
@@ -8818,19 +8839,19 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2">
@@ -8949,16 +8970,16 @@
         <v>0</v>
       </c>
       <c r="CG34" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI34" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ34" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -8966,31 +8987,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F35" s="1">
         <v>44956</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -9020,13 +9041,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -9037,7 +9058,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2">
@@ -9056,19 +9077,19 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AP35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2">
@@ -9187,16 +9208,16 @@
         <v>0</v>
       </c>
       <c r="CG35" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH35" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI35" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ35" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
@@ -9204,31 +9225,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F36" s="1">
         <v>44930</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -9258,13 +9279,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U36" s="2">
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -9275,7 +9296,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -9290,19 +9311,19 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ36" s="2">
         <v>0</v>
       </c>
       <c r="AR36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2">
@@ -9421,16 +9442,16 @@
         <v>0</v>
       </c>
       <c r="CG36" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH36" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI36" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ36" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
@@ -9438,31 +9459,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F37" s="1">
         <v>44905</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -9492,13 +9513,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -9511,7 +9532,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AD37" s="2">
         <v>-1</v>
@@ -9530,17 +9551,17 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO37" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AP37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AQ37" s="2"/>
       <c r="AR37" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2">
@@ -9659,16 +9680,16 @@
         <v>0</v>
       </c>
       <c r="CG37" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH37" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI37" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ37" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38">
@@ -9676,31 +9697,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F38" s="1">
         <v>44880</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -9730,13 +9751,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -9747,7 +9768,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AD38" s="2">
         <v>-1</v>
@@ -9764,19 +9785,19 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP38" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ38" s="2">
         <v>0</v>
       </c>
       <c r="AR38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS38" s="2"/>
       <c r="AT38" s="2">
@@ -9895,16 +9916,16 @@
         <v>0</v>
       </c>
       <c r="CG38" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH38" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI38" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ38" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
@@ -9912,31 +9933,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1">
         <v>44908</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -9966,13 +9987,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -9985,7 +10006,7 @@
         <v>-1</v>
       </c>
       <c r="AC39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AD39" s="2">
         <v>-1</v>
@@ -10000,19 +10021,19 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ39" s="2">
         <v>0</v>
       </c>
       <c r="AR39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="2">
@@ -10131,16 +10152,16 @@
         <v>0</v>
       </c>
       <c r="CG39" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH39" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI39" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ39" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
@@ -10148,31 +10169,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1">
         <v>45006</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I40" s="2">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -10202,13 +10223,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U40" s="2">
         <v>1</v>
       </c>
       <c r="V40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -10219,7 +10240,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -10234,19 +10255,19 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
       </c>
       <c r="AR40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2">
@@ -10365,16 +10386,16 @@
         <v>0</v>
       </c>
       <c r="CG40" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI40" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ40" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
@@ -10382,31 +10403,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F41" s="1">
         <v>45106</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I41" s="2">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -10436,13 +10457,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -10453,7 +10474,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -10468,19 +10489,19 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AO41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP41" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ41" s="2">
         <v>0</v>
       </c>
       <c r="AR41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS41" s="2"/>
       <c r="AT41" s="2">
@@ -10599,16 +10620,16 @@
         <v>0</v>
       </c>
       <c r="CG41" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH41" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI41" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ41" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
@@ -10616,31 +10637,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1">
         <v>44908</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I42" s="2">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -10670,13 +10691,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -10689,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="AC42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AD42" s="2">
         <v>1</v>
@@ -10706,19 +10727,19 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ42" s="2">
         <v>0</v>
       </c>
       <c r="AR42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS42" s="2"/>
       <c r="AT42" s="2">
@@ -10837,16 +10858,16 @@
         <v>0</v>
       </c>
       <c r="CG42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH42" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI42" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ42" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
@@ -10854,31 +10875,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F43" s="1">
         <v>45106</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -10908,13 +10929,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -10925,7 +10946,7 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -10940,19 +10961,19 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP43" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ43" s="2">
         <v>0</v>
       </c>
       <c r="AR43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2">
@@ -11071,16 +11092,16 @@
         <v>0</v>
       </c>
       <c r="CG43" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH43" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI43" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ43" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
@@ -11088,31 +11109,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1">
         <v>44908</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I44" s="2">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11142,13 +11163,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -11159,7 +11180,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD44" s="2">
         <v>-1</v>
@@ -11176,19 +11197,19 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO44" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AP44" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2">
@@ -11307,16 +11328,16 @@
         <v>0</v>
       </c>
       <c r="CG44" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH44" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI44" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ44" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45">
@@ -11324,31 +11345,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1">
         <v>45124</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -11378,13 +11399,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U45" s="2">
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -11395,7 +11416,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD45" s="2">
         <v>1</v>
@@ -11410,19 +11431,19 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP45" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ45" s="2">
         <v>1</v>
       </c>
       <c r="AR45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2">
@@ -11541,16 +11562,16 @@
         <v>0</v>
       </c>
       <c r="CG45" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="CH45" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="CI45" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ45" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46">
@@ -11558,31 +11579,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1">
         <v>44994</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
@@ -11612,13 +11633,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="U46" s="2">
         <v>1</v>
       </c>
       <c r="V46" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -11629,7 +11650,7 @@
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD46" s="2">
         <v>1</v>
@@ -11646,19 +11667,19 @@
       </c>
       <c r="AM46" s="2"/>
       <c r="AN46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO46" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AP46" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ46" s="2">
         <v>0</v>
       </c>
       <c r="AR46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS46" s="2"/>
       <c r="AT46" s="2">
@@ -11777,16 +11798,16 @@
         <v>0</v>
       </c>
       <c r="CG46" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH46" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI46" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ46" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47">
@@ -11794,31 +11815,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F47" s="1">
         <v>45238</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
@@ -11848,13 +11869,13 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -11867,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AD47" s="2">
         <v>-1</v>
@@ -11882,19 +11903,19 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP47" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ47" s="2">
         <v>0</v>
       </c>
       <c r="AR47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS47" s="2"/>
       <c r="AT47" s="2">
@@ -12013,16 +12034,16 @@
         <v>0</v>
       </c>
       <c r="CG47" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="CH47" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI47" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="CJ47" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48">
@@ -12030,31 +12051,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1">
         <v>45168</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
@@ -12084,13 +12105,13 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -12103,7 +12124,7 @@
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -12116,19 +12137,19 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AP48" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ48" s="2">
         <v>0</v>
       </c>
       <c r="AR48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2">
@@ -12247,16 +12268,16 @@
         <v>0</v>
       </c>
       <c r="CG48" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH48" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI48" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ48" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49">
@@ -12264,31 +12285,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F49" s="1">
         <v>45188</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
@@ -12318,13 +12339,13 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U49" s="2">
         <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -12335,7 +12356,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AD49" s="2">
         <v>1</v>
@@ -12352,19 +12373,19 @@
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ49" s="2">
         <v>0</v>
       </c>
       <c r="AR49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2">
@@ -12483,16 +12504,16 @@
         <v>0</v>
       </c>
       <c r="CG49" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH49" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI49" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ49" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50">
@@ -12500,31 +12521,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1">
         <v>45168</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
@@ -12554,13 +12575,13 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="U50" s="2">
         <v>1</v>
       </c>
       <c r="V50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -12571,7 +12592,7 @@
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -12584,19 +12605,19 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP50" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ50" s="2">
         <v>0</v>
       </c>
       <c r="AR50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS50" s="2"/>
       <c r="AT50" s="2">
@@ -12715,16 +12736,16 @@
         <v>0</v>
       </c>
       <c r="CG50" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH50" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI50" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ50" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51">
@@ -12732,31 +12753,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F51" s="1">
         <v>45118</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I51" s="2">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -12786,13 +12807,13 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="U51" s="2">
         <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
@@ -12801,7 +12822,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD51" s="2">
         <v>-1</v>
@@ -12816,19 +12837,19 @@
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ51" s="2">
         <v>1</v>
       </c>
       <c r="AR51" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2">
@@ -12947,16 +12968,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="CH51" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="CI51" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ51" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52">
@@ -12964,31 +12985,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F52" s="1">
         <v>45069</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
@@ -13018,13 +13039,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -13037,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD52" s="2">
         <v>-1</v>
@@ -13054,19 +13075,19 @@
       </c>
       <c r="AM52" s="2"/>
       <c r="AN52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO52" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ52" s="2">
         <v>0</v>
       </c>
       <c r="AR52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS52" s="2"/>
       <c r="AT52" s="2">
@@ -13185,16 +13206,16 @@
         <v>0</v>
       </c>
       <c r="CG52" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="CH52" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="CJ52" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
@@ -13202,31 +13223,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1">
         <v>45124</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
@@ -13256,13 +13277,13 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -13273,7 +13294,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD53" s="2">
         <v>1</v>
@@ -13290,19 +13311,19 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO53" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AP53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ53" s="2">
         <v>0</v>
       </c>
       <c r="AR53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2">
@@ -13421,16 +13442,16 @@
         <v>0</v>
       </c>
       <c r="CG53" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="CH53" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="CI53" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CJ53" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54">
@@ -13438,31 +13459,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F54" s="1">
         <v>45092</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -13492,13 +13513,13 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U54" s="2">
         <v>1</v>
       </c>
       <c r="V54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2">
@@ -13509,7 +13530,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -13522,19 +13543,19 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AO54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP54" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AQ54" s="2">
         <v>0</v>
       </c>
       <c r="AR54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2">
@@ -13653,16 +13674,16 @@
         <v>0</v>
       </c>
       <c r="CG54" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="CH54" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI54" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="CJ54" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55">
@@ -13670,31 +13691,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F55" s="1">
-        <v>45260</v>
+        <v>45302</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -13706,13 +13727,13 @@
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
       </c>
       <c r="P55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2">
         <v>0</v>
@@ -13724,77 +13745,67 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
+      <c r="Y55" s="2">
+        <v>1</v>
+      </c>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
-      <c r="AI55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO55" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="AP55" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ55" s="2">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AQ55" s="2"/>
       <c r="AR55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2">
         <v>0</v>
       </c>
       <c r="AU55" s="1">
-        <v>45264</v>
+        <v>45366</v>
       </c>
       <c r="AV55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="2"/>
       <c r="AY55" s="2">
         <v>1</v>
       </c>
       <c r="AZ55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="2">
         <v>0</v>
@@ -13812,10 +13823,10 @@
         <v>0</v>
       </c>
       <c r="BF55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH55" s="2">
         <v>0</v>
@@ -13845,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="BQ55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR55" s="2">
         <v>0</v>
@@ -13893,16 +13904,16 @@
         <v>0</v>
       </c>
       <c r="CG55" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="CH55" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="CI55" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="CJ55" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56">
@@ -13910,31 +13921,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F56" s="1">
-        <v>45191</v>
+        <v>45260</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
@@ -13964,62 +13975,64 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2">
         <v>1</v>
       </c>
-      <c r="AB56" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD56" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>1</v>
+      </c>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
+      <c r="AG56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>1</v>
+      </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO56" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AQ56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="AS56" s="2"/>
       <c r="AT56" s="2">
         <v>0</v>
       </c>
       <c r="AU56" s="1">
-        <v>45205</v>
+        <v>45264</v>
       </c>
       <c r="AV56" s="2">
         <v>1</v>
@@ -14131,16 +14144,16 @@
         <v>0</v>
       </c>
       <c r="CG56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="CH56" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI56" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="CJ56" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57">
@@ -14148,49 +14161,49 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F57" s="1">
-        <v>45167</v>
+        <v>45191</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I57" s="2">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
       </c>
       <c r="N57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="2">
         <v>0</v>
@@ -14202,13 +14215,13 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="U57" s="2">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
@@ -14216,63 +14229,67 @@
         <v>1</v>
       </c>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
+      <c r="AA57" s="2">
+        <v>1</v>
+      </c>
       <c r="AB57" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
-      <c r="AH57" s="2"/>
+      <c r="AH57" s="2">
+        <v>1</v>
+      </c>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
       <c r="AN57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP57" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ57" s="2">
         <v>1</v>
       </c>
       <c r="AR57" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="AS57" s="2"/>
       <c r="AT57" s="2">
         <v>0</v>
       </c>
       <c r="AU57" s="1">
-        <v>45174</v>
+        <v>45205</v>
       </c>
       <c r="AV57" s="2">
         <v>1</v>
       </c>
       <c r="AW57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="2"/>
       <c r="AY57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ57" s="2">
         <v>1</v>
       </c>
       <c r="BA57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57" s="2">
         <v>0</v>
@@ -14284,10 +14301,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH57" s="2">
         <v>0</v>
@@ -14332,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="BV57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW57" s="2">
         <v>0</v>
@@ -14356,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="CD57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE57" s="2">
         <v>0</v>
@@ -14365,16 +14382,16 @@
         <v>0</v>
       </c>
       <c r="CG57" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH57" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="CI57" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="CJ57" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58">
@@ -14382,31 +14399,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F58" s="1">
-        <v>45331</v>
+        <v>45167</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I58" s="2">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
@@ -14436,13 +14453,13 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
@@ -14451,9 +14468,11 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
+      <c r="AB58" s="2">
+        <v>1</v>
+      </c>
       <c r="AC58" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -14466,26 +14485,26 @@
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
       <c r="AN58" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AO58" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP58" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AQ58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AS58" s="2"/>
       <c r="AT58" s="2">
         <v>0</v>
       </c>
       <c r="AU58" s="1">
-        <v>45351</v>
+        <v>45174</v>
       </c>
       <c r="AV58" s="2">
         <v>1</v>
@@ -14495,118 +14514,350 @@
       </c>
       <c r="AX58" s="2"/>
       <c r="AY58" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>264</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>272</v>
+      </c>
+      <c r="CI58" t="s">
+        <v>276</v>
+      </c>
+      <c r="CJ58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45331</v>
+      </c>
+      <c r="G59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>100</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>130</v>
+      </c>
+      <c r="U59" s="2">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>153</v>
+      </c>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AV59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2">
         <v>7</v>
       </c>
-      <c r="AZ58" s="2">
+      <c r="AZ59" s="2">
         <v>6</v>
       </c>
-      <c r="BA58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV58" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD58" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG58" t="s">
-        <v>260</v>
-      </c>
-      <c r="CH58" t="s">
-        <v>267</v>
-      </c>
-      <c r="CI58" t="s">
-        <v>271</v>
-      </c>
-      <c r="CJ58" t="s">
-        <v>279</v>
+      <c r="BA59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD59" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG59" t="s">
+        <v>264</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>272</v>
+      </c>
+      <c r="CI59" t="s">
+        <v>276</v>
+      </c>
+      <c r="CJ59" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/hnc/analysis_dataset.xlsx
+++ b/datasets/selfservice/hnc/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1190" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1190" uniqueCount="291">
   <si>
     <t>sampleid</t>
   </si>
@@ -234,7 +234,7 @@
     <t>Burnsville</t>
   </si>
   <si>
-    <t>Yancy County</t>
+    <t>Yancey County</t>
   </si>
   <si>
     <t>Liberty</t>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Alexander County</t>
-  </si>
-  <si>
-    <t>Yancey County</t>
   </si>
   <si>
     <t>Brunswick County</t>
@@ -953,259 +950,259 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
       <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" t="s">
-        <v>98</v>
-      </c>
       <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" t="s">
-        <v>120</v>
-      </c>
       <c r="U1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>154</v>
       </c>
-      <c r="X1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB1" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" t="s">
-        <v>157</v>
-      </c>
       <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
         <v>183</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>184</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>185</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>186</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>187</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>188</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>189</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>190</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>191</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>192</v>
       </c>
-      <c r="AN1" t="s">
-        <v>193</v>
-      </c>
       <c r="AO1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR1" t="s">
         <v>216</v>
       </c>
-      <c r="AR1" t="s">
-        <v>217</v>
-      </c>
       <c r="AS1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT1" t="s">
         <v>222</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>223</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>224</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>225</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>226</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>227</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>228</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>229</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>230</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>231</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>232</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>233</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>234</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>235</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>236</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>237</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>238</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>239</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>240</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>241</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>242</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>243</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>244</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>245</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>246</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>247</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>248</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>249</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>250</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>251</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>252</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>253</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>254</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>255</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>256</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>257</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>258</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>259</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>260</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>261</v>
       </c>
-      <c r="CG1" t="s">
-        <v>262</v>
-      </c>
       <c r="CH1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CI1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CJ1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
@@ -1219,25 +1216,25 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1">
         <v>44768</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1267,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1284,7 +1281,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -1301,19 +1298,19 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2">
@@ -1432,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
@@ -1455,25 +1452,25 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1">
         <v>44745</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1503,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1520,7 +1517,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1537,19 +1534,19 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2">
@@ -1668,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -1691,25 +1688,25 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1">
         <v>44756</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1739,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1756,7 +1753,7 @@
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1771,19 +1768,19 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2">
@@ -1902,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
@@ -1925,25 +1922,25 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1">
         <v>44751</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1973,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1990,7 +1987,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD5" s="2">
         <v>-1</v>
@@ -2007,19 +2004,19 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2">
@@ -2138,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CH5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="CI5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CJ5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
@@ -2161,25 +2158,25 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1">
         <v>44751</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -2209,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2226,7 +2223,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD6" s="2">
         <v>-1</v>
@@ -2245,19 +2242,19 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2">
@@ -2376,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CH6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="CI6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CJ6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -2399,25 +2396,25 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1">
         <v>44745</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2447,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2466,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD7" s="2">
         <v>1</v>
@@ -2483,19 +2480,19 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2">
@@ -2614,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -2637,25 +2634,25 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1">
         <v>44751</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2685,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2702,7 +2699,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2">
@@ -2717,19 +2714,19 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2">
@@ -2848,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CH8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="CI8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CJ8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
@@ -2871,25 +2868,25 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1">
         <v>44765</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2919,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2936,7 +2933,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AD9" s="2">
         <v>1</v>
@@ -2955,19 +2952,19 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2">
@@ -3086,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CH9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="CJ9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -3109,25 +3106,25 @@
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1">
         <v>44754</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -3157,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3176,7 +3173,7 @@
         <v>-1</v>
       </c>
       <c r="AC10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3189,19 +3186,19 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2">
@@ -3320,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -3343,25 +3340,25 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="1">
         <v>44776</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3391,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -3408,7 +3405,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD11" s="2">
         <v>-1</v>
@@ -3423,19 +3420,19 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2">
@@ -3554,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12">
@@ -3577,25 +3574,25 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1">
         <v>44756</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3625,13 +3622,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3644,7 +3641,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3659,19 +3656,19 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2">
@@ -3790,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13">
@@ -3813,25 +3810,25 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1">
         <v>44765</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3861,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3878,7 +3875,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD13" s="2">
         <v>1</v>
@@ -3899,19 +3896,19 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2">
@@ -4030,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CH13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="CJ13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14">
@@ -4053,25 +4050,25 @@
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1">
         <v>44754</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -4101,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4118,7 +4115,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -4135,19 +4132,19 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AP14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2">
@@ -4266,16 +4263,16 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
@@ -4289,25 +4286,25 @@
         <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="1">
         <v>44756</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -4337,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4354,7 +4351,7 @@
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -4369,19 +4366,19 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2">
@@ -4500,16 +4497,16 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
@@ -4523,25 +4520,25 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1">
         <v>44776</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4571,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4588,7 +4585,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -4607,19 +4604,19 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2">
@@ -4738,16 +4735,16 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17">
@@ -4761,25 +4758,25 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1">
         <v>44756</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4809,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4826,7 +4823,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD17" s="2">
         <v>1</v>
@@ -4845,19 +4842,19 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2">
@@ -4976,16 +4973,16 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18">
@@ -4999,25 +4996,25 @@
         <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1">
         <v>44806</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -5047,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -5062,7 +5059,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -5075,19 +5072,19 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2">
@@ -5206,16 +5203,16 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19">
@@ -5229,25 +5226,25 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1">
         <v>44834</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -5277,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5294,7 +5291,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD19" s="2">
         <v>1</v>
@@ -5311,19 +5308,19 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2">
@@ -5442,16 +5439,16 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20">
@@ -5465,25 +5462,25 @@
         <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1">
         <v>44845</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -5513,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -5528,7 +5525,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -5545,19 +5542,19 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2">
@@ -5676,16 +5673,16 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
@@ -5699,25 +5696,25 @@
         <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1">
         <v>44808</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5747,13 +5744,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5764,7 +5761,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -5779,19 +5776,19 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2">
@@ -5910,16 +5907,16 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22">
@@ -5933,25 +5930,25 @@
         <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1">
         <v>44833</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -5981,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5998,7 +5995,7 @@
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD22" s="2">
         <v>-1</v>
@@ -6013,19 +6010,19 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2">
@@ -6144,16 +6141,16 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23">
@@ -6167,25 +6164,25 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1">
         <v>44796</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6215,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -6234,7 +6231,7 @@
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -6249,19 +6246,19 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2">
@@ -6380,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24">
@@ -6403,25 +6400,25 @@
         <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1">
         <v>44916</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6451,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -6468,7 +6465,7 @@
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -6485,19 +6482,19 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2">
@@ -6616,16 +6613,16 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CH24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25">
@@ -6639,25 +6636,25 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1">
         <v>44881</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6687,13 +6684,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6704,7 +6701,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AD25" s="2">
         <v>-1</v>
@@ -6721,19 +6718,19 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2">
@@ -6852,16 +6849,16 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CH25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="CJ25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
@@ -6875,25 +6872,25 @@
         <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1">
         <v>44785</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6923,13 +6920,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6940,7 +6937,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -6953,19 +6950,19 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ26" s="2">
         <v>1</v>
       </c>
       <c r="AR26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -7086,16 +7083,16 @@
         <v>0</v>
       </c>
       <c r="CG26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CH26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CI26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CJ26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
@@ -7109,25 +7106,25 @@
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1">
         <v>44855</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -7157,13 +7154,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -7174,7 +7171,7 